--- a/Zerodha_GUI/Kite_Zerodha-main/Kite_Zerodha-main/Startjee.xlsx
+++ b/Zerodha_GUI/Kite_Zerodha-main/Kite_Zerodha-main/Startjee.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ashu\Finance\algo_trading\Zerodha_GUI\Kite_Zerodha-main\Kite_Zerodha-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBCF57F-9E7F-4603-838E-7755C50CD34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068CA312-DEBB-499A-8459-317C5FF6B5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{111B81BB-D847-4952-A3F9-2C9FB2D32C52}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{111B81BB-D847-4952-A3F9-2C9FB2D32C52}"/>
   </bookViews>
   <sheets>
     <sheet name="Imp Events and Explanation" sheetId="6" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="Fixed SL" sheetId="10" r:id="rId4"/>
     <sheet name="Trailing SL" sheetId="11" r:id="rId5"/>
     <sheet name="Past_Backtesting" sheetId="12" r:id="rId6"/>
+    <sheet name="Report" sheetId="13" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="932">
   <si>
     <t>Date</t>
   </si>
@@ -2746,6 +2746,87 @@
   </si>
   <si>
     <t>SL hit -0.95 Loss</t>
+  </si>
+  <si>
+    <t>Profit Startjee 1</t>
+  </si>
+  <si>
+    <t>Profit Startjee 2</t>
+  </si>
+  <si>
+    <t>Profit Startjee 3</t>
+  </si>
+  <si>
+    <t>Profit % Startjee 1</t>
+  </si>
+  <si>
+    <t>Profit % Startjee 2</t>
+  </si>
+  <si>
+    <t>Profit % Startjee 3</t>
+  </si>
+  <si>
+    <t>Monthely Profit % Startjee 1</t>
+  </si>
+  <si>
+    <t>Monthely Profit % Startjee 2</t>
+  </si>
+  <si>
+    <t>Monthely Profit % Startjee 3</t>
+  </si>
+  <si>
+    <t>Cumulative Profit Startjee 1</t>
+  </si>
+  <si>
+    <t>Cumulative Profit Startjee 2</t>
+  </si>
+  <si>
+    <t>Cumulative Profit Startjee 3</t>
+  </si>
+  <si>
+    <t>SL Hit Startjee 1</t>
+  </si>
+  <si>
+    <t>SL Hit Startjee 2</t>
+  </si>
+  <si>
+    <t>SL Hit Startjee 3</t>
+  </si>
+  <si>
+    <t>Date of SL hit Startjee 1</t>
+  </si>
+  <si>
+    <t>Date of SL hit Startjee 2</t>
+  </si>
+  <si>
+    <t>Date of SL hit Startjee 3</t>
+  </si>
+  <si>
+    <t>Time of SL hit Startjee 1</t>
+  </si>
+  <si>
+    <t>Time of SL hit Startjee 2</t>
+  </si>
+  <si>
+    <t>Time of SL hit Startjee 3</t>
+  </si>
+  <si>
+    <t>Week of SL hit Startjee 1</t>
+  </si>
+  <si>
+    <t>Week of SL hit Startjee 2</t>
+  </si>
+  <si>
+    <t>Week of SL hit Startjee 3</t>
+  </si>
+  <si>
+    <t>Total Credit Spread Startjee 1</t>
+  </si>
+  <si>
+    <t>Total Credit Spread Startjee 2</t>
+  </si>
+  <si>
+    <t>Total Credit Spread Startjee 3</t>
   </si>
 </sst>
 </file>
@@ -3177,10 +3258,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9AC1F37-422C-46CA-BA41-8E8C65F5B258}">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3286,14 +3367,130 @@
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E10" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q13" t="s">
-        <v>14</v>
+    <row r="13" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>45310</v>
+      </c>
+      <c r="B14" s="5">
+        <v>45316</v>
+      </c>
+      <c r="C14">
+        <v>22100</v>
+      </c>
+      <c r="D14">
+        <v>21200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>45316</v>
+      </c>
+      <c r="B15" s="5">
+        <v>45323</v>
+      </c>
+      <c r="C15">
+        <v>22000</v>
+      </c>
+      <c r="D15">
+        <v>20900</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>45324</v>
+      </c>
+      <c r="B16" s="5">
+        <v>45330</v>
+      </c>
+      <c r="C16">
+        <v>22400</v>
+      </c>
+      <c r="D16">
+        <v>21450</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>45331</v>
+      </c>
+      <c r="B17" s="5">
+        <v>45337</v>
+      </c>
+      <c r="C17">
+        <v>22200</v>
+      </c>
+      <c r="D17">
+        <v>21200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>45338</v>
+      </c>
+      <c r="B18" s="5">
+        <v>45344</v>
+      </c>
+      <c r="C18">
+        <v>22450</v>
+      </c>
+      <c r="D18">
+        <v>21550</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>45345</v>
+      </c>
+      <c r="B19" s="5">
+        <v>45351</v>
+      </c>
+      <c r="C19">
+        <v>22700</v>
+      </c>
+      <c r="D19">
+        <v>21800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>45352</v>
+      </c>
+      <c r="B20" s="5">
+        <v>45358</v>
+      </c>
+      <c r="C20">
+        <v>22600</v>
+      </c>
+      <c r="D20">
+        <v>21650</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>45366</v>
+      </c>
+      <c r="B21" s="5">
+        <v>45372</v>
+      </c>
+      <c r="C21">
+        <v>22550</v>
+      </c>
+      <c r="D21">
+        <v>21650</v>
       </c>
     </row>
   </sheetData>
@@ -3613,9 +3810,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D20D068-022B-4B6C-B9FF-E10E1F0C75D5}">
   <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H78" sqref="H78"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R2" sqref="R2:R67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3720,21 +3917,18 @@
         <v>1775</v>
       </c>
       <c r="K2">
-        <f>(J2/G2)*100</f>
         <v>1.9293478260869565</v>
       </c>
       <c r="M2">
         <v>572.5</v>
       </c>
       <c r="N2">
-        <f>(M2/G2)*100</f>
         <v>0.62228260869565222</v>
       </c>
       <c r="P2">
         <v>1267.5</v>
       </c>
       <c r="Q2">
-        <f>(P2/G2)*100</f>
         <v>1.3777173913043477</v>
       </c>
     </row>
@@ -3765,21 +3959,18 @@
         <v>1202.5</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K36" si="1">(J3/G3)*100</f>
         <v>1.3070652173913044</v>
       </c>
       <c r="M3">
         <v>1515</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N60" si="2">(M3/G3)*100</f>
         <v>1.6467391304347827</v>
       </c>
       <c r="P3">
         <v>1515</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q60" si="3">(P3/G3)*100</f>
         <v>1.6467391304347827</v>
       </c>
     </row>
@@ -3810,21 +4001,18 @@
         <v>540</v>
       </c>
       <c r="K4">
-        <f t="shared" si="1"/>
         <v>0.58695652173913038</v>
       </c>
       <c r="M4">
         <v>1482.5</v>
       </c>
       <c r="N4">
-        <f t="shared" si="2"/>
         <v>1.611413043478261</v>
       </c>
       <c r="P4">
         <v>1482.5</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="3"/>
         <v>1.611413043478261</v>
       </c>
     </row>
@@ -3855,33 +4043,27 @@
         <v>-1025</v>
       </c>
       <c r="K5">
-        <f t="shared" si="1"/>
         <v>-1.1141304347826086</v>
       </c>
       <c r="L5">
-        <f>SUM(K2:K5)</f>
         <v>2.7092391304347823</v>
       </c>
       <c r="M5">
         <v>1785</v>
       </c>
       <c r="N5">
-        <f t="shared" si="2"/>
         <v>1.9402173913043479</v>
       </c>
       <c r="O5">
-        <f>SUM(N2:N5)</f>
         <v>5.8206521739130439</v>
       </c>
       <c r="P5">
         <v>1800</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="3"/>
         <v>1.956521739130435</v>
       </c>
       <c r="R5">
-        <f>SUM(Q2:Q5)</f>
         <v>6.5923913043478262</v>
       </c>
     </row>
@@ -3912,21 +4094,18 @@
         <v>537.5</v>
       </c>
       <c r="K6">
-        <f t="shared" si="1"/>
         <v>0.58423913043478259</v>
       </c>
       <c r="M6">
         <v>2217.5</v>
       </c>
       <c r="N6">
-        <f t="shared" si="2"/>
         <v>2.4103260869565215</v>
       </c>
       <c r="P6">
         <v>2217.5</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="3"/>
         <v>2.4103260869565215</v>
       </c>
     </row>
@@ -3957,21 +4136,18 @@
         <v>1875</v>
       </c>
       <c r="K7">
-        <f t="shared" si="1"/>
         <v>2.0380434782608696</v>
       </c>
       <c r="M7">
         <v>2100</v>
       </c>
       <c r="N7">
-        <f t="shared" si="2"/>
         <v>2.2826086956521738</v>
       </c>
       <c r="P7">
         <v>1467.5</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="3"/>
         <v>1.5951086956521741</v>
       </c>
     </row>
@@ -4002,21 +4178,18 @@
         <v>-1045</v>
       </c>
       <c r="K8">
-        <f t="shared" si="1"/>
         <v>-1.1358695652173911</v>
       </c>
       <c r="M8">
         <v>240</v>
       </c>
       <c r="N8">
-        <f t="shared" si="2"/>
         <v>0.26086956521739135</v>
       </c>
       <c r="P8">
         <v>-670</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="3"/>
         <v>-0.72826086956521741</v>
       </c>
     </row>
@@ -4047,33 +4220,27 @@
         <v>1992.5</v>
       </c>
       <c r="K9">
-        <f t="shared" si="1"/>
         <v>2.1657608695652173</v>
       </c>
       <c r="L9">
-        <f>SUM(K6:K9)</f>
         <v>3.6521739130434785</v>
       </c>
       <c r="M9">
         <v>692.5</v>
       </c>
       <c r="N9">
-        <f t="shared" si="2"/>
         <v>0.75271739130434778</v>
       </c>
       <c r="O9">
-        <f>SUM(N6:N9)</f>
         <v>5.7065217391304346</v>
       </c>
       <c r="P9">
         <v>1535</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="3"/>
         <v>1.6684782608695652</v>
       </c>
       <c r="R9">
-        <f>SUM(Q6:Q9)</f>
         <v>4.945652173913043</v>
       </c>
     </row>
@@ -4104,21 +4271,18 @@
         <v>1577.5</v>
       </c>
       <c r="K10">
-        <f t="shared" si="1"/>
         <v>1.7146739130434783</v>
       </c>
       <c r="M10">
         <v>1512.5</v>
       </c>
       <c r="N10">
-        <f t="shared" si="2"/>
         <v>1.6440217391304346</v>
       </c>
       <c r="P10">
         <v>925</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="3"/>
         <v>1.0054347826086956</v>
       </c>
     </row>
@@ -4149,21 +4313,18 @@
         <v>3252.5</v>
       </c>
       <c r="K11">
-        <f t="shared" si="1"/>
         <v>3.5353260869565215</v>
       </c>
       <c r="M11">
         <v>-1342.5</v>
       </c>
       <c r="N11">
-        <f t="shared" si="2"/>
         <v>-1.4592391304347827</v>
       </c>
       <c r="P11">
         <v>-1342.5</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="3"/>
         <v>-1.4592391304347827</v>
       </c>
     </row>
@@ -4194,21 +4355,18 @@
         <v>1945</v>
       </c>
       <c r="K12">
-        <f t="shared" si="1"/>
         <v>2.1141304347826089</v>
       </c>
       <c r="M12">
         <v>2267.5</v>
       </c>
       <c r="N12">
-        <f t="shared" si="2"/>
         <v>2.464673913043478</v>
       </c>
       <c r="P12">
         <v>2850</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="3"/>
         <v>3.097826086956522</v>
       </c>
     </row>
@@ -4239,33 +4397,27 @@
         <v>222.5</v>
       </c>
       <c r="K13">
-        <f t="shared" si="1"/>
         <v>0.24184782608695651</v>
       </c>
       <c r="L13">
-        <f>SUM(K10:K13)</f>
         <v>7.6059782608695654</v>
       </c>
       <c r="M13">
         <v>1672.5</v>
       </c>
       <c r="N13">
-        <f t="shared" si="2"/>
         <v>1.8179347826086958</v>
       </c>
       <c r="O13">
-        <f>SUM(N10:N13)</f>
         <v>4.4673913043478262</v>
       </c>
       <c r="P13">
         <v>717.5</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="3"/>
         <v>0.77989130434782616</v>
       </c>
       <c r="R13">
-        <f>SUM(Q10:Q13)</f>
         <v>3.4239130434782608</v>
       </c>
     </row>
@@ -4296,21 +4448,18 @@
         <v>2550</v>
       </c>
       <c r="K14">
-        <f t="shared" si="1"/>
         <v>2.7717391304347827</v>
       </c>
       <c r="M14">
         <v>-495</v>
       </c>
       <c r="N14">
-        <f t="shared" si="2"/>
         <v>-0.53804347826086951</v>
       </c>
       <c r="P14">
         <v>-495</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="3"/>
         <v>-0.53804347826086951</v>
       </c>
     </row>
@@ -4341,21 +4490,18 @@
         <v>735.5</v>
       </c>
       <c r="K15">
-        <f t="shared" si="1"/>
         <v>0.79945652173913051</v>
       </c>
       <c r="M15">
         <v>1415</v>
       </c>
       <c r="N15">
-        <f t="shared" si="2"/>
         <v>1.5380434782608694</v>
       </c>
       <c r="P15">
         <v>1415</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="3"/>
         <v>1.5380434782608694</v>
       </c>
     </row>
@@ -4386,21 +4532,18 @@
         <v>1450</v>
       </c>
       <c r="K16">
-        <f t="shared" si="1"/>
         <v>1.576086956521739</v>
       </c>
       <c r="M16">
         <v>607.5</v>
       </c>
       <c r="N16">
-        <f t="shared" si="2"/>
         <v>0.66032608695652173</v>
       </c>
       <c r="P16">
         <v>607.5</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="3"/>
         <v>0.66032608695652173</v>
       </c>
     </row>
@@ -4431,33 +4574,27 @@
         <v>1837.5</v>
       </c>
       <c r="K17">
-        <f t="shared" si="1"/>
         <v>1.9972826086956521</v>
       </c>
       <c r="L17">
-        <f>SUM(K14:K17)</f>
         <v>7.144565217391305</v>
       </c>
       <c r="M17">
         <v>-210</v>
       </c>
       <c r="N17">
-        <f t="shared" si="2"/>
         <v>-0.22826086956521741</v>
       </c>
       <c r="O17">
-        <f>SUM(N14:N17)</f>
         <v>1.4320652173913042</v>
       </c>
       <c r="P17">
         <v>1037.5</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="3"/>
         <v>1.1277173913043479</v>
       </c>
       <c r="R17">
-        <f>SUM(Q14:Q17)</f>
         <v>2.7880434782608692</v>
       </c>
     </row>
@@ -4488,21 +4625,18 @@
         <v>447.5</v>
       </c>
       <c r="K18">
-        <f t="shared" si="1"/>
         <v>0.48641304347826086</v>
       </c>
       <c r="M18">
         <v>1687.5</v>
       </c>
       <c r="N18">
-        <f t="shared" si="2"/>
         <v>1.8342391304347827</v>
       </c>
       <c r="P18">
         <v>1307.5</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="3"/>
         <v>1.4211956521739131</v>
       </c>
     </row>
@@ -4533,21 +4667,18 @@
         <v>1540</v>
       </c>
       <c r="K19">
-        <f t="shared" si="1"/>
         <v>1.6739130434782608</v>
       </c>
       <c r="M19">
         <v>1227.5</v>
       </c>
       <c r="N19">
-        <f t="shared" si="2"/>
         <v>1.3342391304347827</v>
       </c>
       <c r="P19">
         <v>1227.5</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="3"/>
         <v>1.3342391304347827</v>
       </c>
     </row>
@@ -4578,21 +4709,18 @@
         <v>1715</v>
       </c>
       <c r="K20">
-        <f t="shared" si="1"/>
         <v>1.8641304347826089</v>
       </c>
       <c r="M20">
         <v>1675</v>
       </c>
       <c r="N20">
-        <f t="shared" si="2"/>
         <v>1.8206521739130435</v>
       </c>
       <c r="P20">
         <v>1507.5</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="3"/>
         <v>1.638586956521739</v>
       </c>
     </row>
@@ -4623,33 +4751,27 @@
         <v>1445</v>
       </c>
       <c r="K21">
-        <f t="shared" si="1"/>
         <v>1.5706521739130435</v>
       </c>
       <c r="L21">
-        <f>SUM(K18:K21)</f>
         <v>5.5951086956521738</v>
       </c>
       <c r="M21">
         <v>1315</v>
       </c>
       <c r="N21">
-        <f t="shared" si="2"/>
         <v>1.4293478260869565</v>
       </c>
       <c r="O21">
-        <f>SUM(N18:N21)</f>
         <v>6.4184782608695663</v>
       </c>
       <c r="P21">
         <v>1315</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="3"/>
         <v>1.4293478260869565</v>
       </c>
       <c r="R21">
-        <f>SUM(Q18:Q21)</f>
         <v>5.8233695652173907</v>
       </c>
     </row>
@@ -4680,21 +4802,18 @@
         <v>1000</v>
       </c>
       <c r="K22">
-        <f t="shared" si="1"/>
         <v>1.0869565217391304</v>
       </c>
       <c r="M22">
         <v>972.5</v>
       </c>
       <c r="N22">
-        <f t="shared" si="2"/>
         <v>1.0570652173913044</v>
       </c>
       <c r="P22">
         <v>972.5</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="3"/>
         <v>1.0570652173913044</v>
       </c>
       <c r="T22" t="s">
@@ -4728,7 +4847,6 @@
         <v>1707.5</v>
       </c>
       <c r="K23">
-        <f t="shared" si="1"/>
         <v>1.8559782608695654</v>
       </c>
       <c r="M23" s="7" t="s">
@@ -4741,7 +4859,6 @@
         <v>1405</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="3"/>
         <v>1.5271739130434783</v>
       </c>
     </row>
@@ -4772,21 +4889,18 @@
         <v>1152.5</v>
       </c>
       <c r="K24">
-        <f t="shared" si="1"/>
         <v>1.2527173913043479</v>
       </c>
       <c r="M24">
         <v>-255</v>
       </c>
       <c r="N24">
-        <f t="shared" si="2"/>
         <v>-0.27717391304347822</v>
       </c>
       <c r="P24">
         <v>-255</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="3"/>
         <v>-0.27717391304347822</v>
       </c>
     </row>
@@ -4817,33 +4931,27 @@
         <v>85</v>
       </c>
       <c r="K25">
-        <f t="shared" si="1"/>
         <v>9.2391304347826081E-2</v>
       </c>
       <c r="L25">
-        <f>SUM(K22:K25)</f>
         <v>4.2880434782608701</v>
       </c>
       <c r="M25">
         <v>697.5</v>
       </c>
       <c r="N25">
-        <f t="shared" si="2"/>
         <v>0.75815217391304346</v>
       </c>
       <c r="O25">
-        <f>SUM(N22:N25)</f>
         <v>1.5380434782608696</v>
       </c>
       <c r="P25">
         <v>1505</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="3"/>
         <v>1.6358695652173911</v>
       </c>
       <c r="R25">
-        <f>SUM(Q22:Q25)</f>
         <v>3.9429347826086958</v>
       </c>
     </row>
@@ -4874,21 +4982,18 @@
         <v>962.5</v>
       </c>
       <c r="K26">
-        <f t="shared" si="1"/>
         <v>1.0461956521739131</v>
       </c>
       <c r="M26">
         <v>127.5</v>
       </c>
       <c r="N26">
-        <f t="shared" si="2"/>
         <v>0.13858695652173911</v>
       </c>
       <c r="P26">
         <v>127.5</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="3"/>
         <v>0.13858695652173911</v>
       </c>
     </row>
@@ -4919,21 +5024,18 @@
         <v>1805</v>
       </c>
       <c r="K27">
-        <f t="shared" si="1"/>
         <v>1.9619565217391304</v>
       </c>
       <c r="M27">
         <v>892.5</v>
       </c>
       <c r="N27">
-        <f t="shared" si="2"/>
         <v>0.97010869565217395</v>
       </c>
       <c r="P27">
         <v>945</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="3"/>
         <v>1.0271739130434783</v>
       </c>
     </row>
@@ -4964,21 +5066,18 @@
         <v>547.5</v>
       </c>
       <c r="K28">
-        <f t="shared" si="1"/>
         <v>0.59510869565217395</v>
       </c>
       <c r="M28">
         <v>312.5</v>
       </c>
       <c r="N28">
-        <f t="shared" si="2"/>
         <v>0.33967391304347827</v>
       </c>
       <c r="P28">
         <v>312.5</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="3"/>
         <v>0.33967391304347827</v>
       </c>
     </row>
@@ -5009,33 +5108,27 @@
         <v>1612.5</v>
       </c>
       <c r="K29">
-        <f t="shared" si="1"/>
         <v>1.7527173913043477</v>
       </c>
       <c r="L29">
-        <f>SUM(K26:K29)</f>
         <v>5.3559782608695645</v>
       </c>
       <c r="M29">
         <v>1440</v>
       </c>
       <c r="N29">
-        <f t="shared" si="2"/>
         <v>1.5652173913043479</v>
       </c>
       <c r="O29">
-        <f>SUM(N26:N29)</f>
         <v>3.0135869565217392</v>
       </c>
       <c r="P29">
         <v>1440</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="3"/>
         <v>1.5652173913043479</v>
       </c>
       <c r="R29">
-        <f>SUM(Q26:Q29)</f>
         <v>3.0706521739130435</v>
       </c>
     </row>
@@ -5066,21 +5159,18 @@
         <v>1422.5</v>
       </c>
       <c r="K30">
-        <f t="shared" si="1"/>
         <v>1.5461956521739131</v>
       </c>
       <c r="M30">
         <v>1235</v>
       </c>
       <c r="N30">
-        <f t="shared" si="2"/>
         <v>1.3423913043478259</v>
       </c>
       <c r="P30">
         <v>1235</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="3"/>
         <v>1.3423913043478259</v>
       </c>
     </row>
@@ -5111,21 +5201,18 @@
         <v>-1045</v>
       </c>
       <c r="K31">
-        <f t="shared" si="1"/>
         <v>-1.1358695652173911</v>
       </c>
       <c r="M31">
         <v>-37.5</v>
       </c>
       <c r="N31">
-        <f t="shared" si="2"/>
         <v>-4.0760869565217392E-2</v>
       </c>
       <c r="P31">
         <v>-37.5</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="3"/>
         <v>-4.0760869565217392E-2</v>
       </c>
     </row>
@@ -5156,21 +5243,18 @@
         <v>1280</v>
       </c>
       <c r="K32">
-        <f t="shared" si="1"/>
         <v>1.3913043478260869</v>
       </c>
       <c r="M32">
         <v>1280</v>
       </c>
       <c r="N32">
-        <f t="shared" si="2"/>
         <v>1.3913043478260869</v>
       </c>
       <c r="P32">
         <v>1280</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="3"/>
         <v>1.3913043478260869</v>
       </c>
     </row>
@@ -5201,33 +5285,27 @@
         <v>1372.5</v>
       </c>
       <c r="K33">
-        <f t="shared" si="1"/>
         <v>1.4918478260869565</v>
       </c>
       <c r="L33">
-        <f>SUM(K30:K33)</f>
         <v>3.2934782608695654</v>
       </c>
       <c r="M33">
         <v>1372.5</v>
       </c>
       <c r="N33">
-        <f t="shared" si="2"/>
         <v>1.4918478260869565</v>
       </c>
       <c r="O33">
-        <f>SUM(N30:N33)</f>
         <v>4.1847826086956523</v>
       </c>
       <c r="P33">
         <v>1372.5</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="3"/>
         <v>1.4918478260869565</v>
       </c>
       <c r="R33">
-        <f>SUM(Q30:Q33)</f>
         <v>4.1847826086956523</v>
       </c>
     </row>
@@ -5258,21 +5336,18 @@
         <v>1670</v>
       </c>
       <c r="K34">
-        <f t="shared" si="1"/>
         <v>1.8152173913043479</v>
       </c>
       <c r="M34">
         <v>1670</v>
       </c>
       <c r="N34">
-        <f t="shared" si="2"/>
         <v>1.8152173913043479</v>
       </c>
       <c r="P34">
         <v>1670</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="3"/>
         <v>1.8152173913043479</v>
       </c>
     </row>
@@ -5303,21 +5378,18 @@
         <v>1802.5</v>
       </c>
       <c r="K35">
-        <f t="shared" si="1"/>
         <v>1.9592391304347825</v>
       </c>
       <c r="M35">
         <v>487.5</v>
       </c>
       <c r="N35">
-        <f t="shared" si="2"/>
         <v>0.52989130434782605</v>
       </c>
       <c r="P35">
         <v>487.5</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="3"/>
         <v>0.52989130434782605</v>
       </c>
     </row>
@@ -5348,21 +5420,18 @@
         <v>1610</v>
       </c>
       <c r="K36">
-        <f t="shared" si="1"/>
         <v>1.7500000000000002</v>
       </c>
       <c r="M36">
         <v>1795</v>
       </c>
       <c r="N36">
-        <f t="shared" si="2"/>
         <v>1.951086956521739</v>
       </c>
       <c r="P36">
         <v>1795</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="3"/>
         <v>1.951086956521739</v>
       </c>
       <c r="S36" s="15" t="s">
@@ -5396,33 +5465,27 @@
         <v>2050</v>
       </c>
       <c r="K37">
-        <f t="shared" ref="K37:K60" si="4">(J37/G37)*100</f>
         <v>2.2282608695652173</v>
       </c>
       <c r="L37">
-        <f>SUM(K34:K37)</f>
         <v>7.7527173913043477</v>
       </c>
       <c r="M37">
         <v>1690</v>
       </c>
       <c r="N37">
-        <f t="shared" si="2"/>
         <v>1.8369565217391304</v>
       </c>
       <c r="O37">
-        <f>SUM(N34:N37)</f>
         <v>6.133152173913043</v>
       </c>
       <c r="P37">
         <v>1465</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="3"/>
         <v>1.5923913043478262</v>
       </c>
       <c r="R37">
-        <f>SUM(Q34:Q37)</f>
         <v>5.8885869565217392</v>
       </c>
       <c r="S37" s="1" t="s">
@@ -5456,21 +5519,18 @@
         <v>1392.5</v>
       </c>
       <c r="K38">
-        <f t="shared" si="4"/>
         <v>1.5135869565217392</v>
       </c>
       <c r="M38">
         <v>1530</v>
       </c>
       <c r="N38">
-        <f t="shared" si="2"/>
         <v>1.6630434782608696</v>
       </c>
       <c r="P38">
         <v>1530</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="3"/>
         <v>1.6630434782608696</v>
       </c>
     </row>
@@ -5501,21 +5561,18 @@
         <v>635</v>
       </c>
       <c r="K39">
-        <f t="shared" si="4"/>
         <v>-0.12771739130434781</v>
       </c>
       <c r="M39">
         <v>182.5</v>
       </c>
       <c r="N39">
-        <f t="shared" si="2"/>
         <v>0.19836956521739132</v>
       </c>
       <c r="P39">
         <v>182.5</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="3"/>
         <v>0.19836956521739132</v>
       </c>
     </row>
@@ -5546,21 +5603,18 @@
         <v>1255</v>
       </c>
       <c r="K40">
-        <f t="shared" si="4"/>
         <v>1.3641304347826086</v>
       </c>
       <c r="M40">
         <v>1232.5</v>
       </c>
       <c r="N40">
-        <f t="shared" si="2"/>
         <v>1.3396739130434783</v>
       </c>
       <c r="P40">
         <v>915</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="3"/>
         <v>0.99456521739130432</v>
       </c>
     </row>
@@ -5591,33 +5645,27 @@
         <v>667.5</v>
       </c>
       <c r="K41">
-        <f t="shared" si="4"/>
         <v>0.72554347826086951</v>
       </c>
       <c r="L41">
-        <f>SUM(K38:K41)</f>
         <v>3.4755434782608696</v>
       </c>
       <c r="M41">
         <v>1477.5</v>
       </c>
       <c r="N41">
-        <f t="shared" si="2"/>
         <v>1.6059782608695652</v>
       </c>
       <c r="O41">
-        <f>SUM(N38:N41)</f>
         <v>4.8070652173913047</v>
       </c>
       <c r="P41">
         <v>1477.5</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="3"/>
         <v>1.6059782608695652</v>
       </c>
       <c r="R41">
-        <f>SUM(Q38:Q41)</f>
         <v>4.4619565217391308</v>
       </c>
       <c r="S41" s="1" t="s">
@@ -5651,21 +5699,18 @@
         <v>1227.5</v>
       </c>
       <c r="K42">
-        <f t="shared" si="4"/>
         <v>1.3342391304347827</v>
       </c>
       <c r="M42">
         <v>510</v>
       </c>
       <c r="N42">
-        <f t="shared" si="2"/>
         <v>0.55434782608695643</v>
       </c>
       <c r="P42">
         <v>775</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="3"/>
         <v>0.84239130434782605</v>
       </c>
       <c r="S42" s="1" t="s">
@@ -5699,21 +5744,18 @@
         <v>960</v>
       </c>
       <c r="K43">
-        <f t="shared" si="4"/>
         <v>1.0434782608695654</v>
       </c>
       <c r="M43">
         <v>1300</v>
       </c>
       <c r="N43">
-        <f t="shared" si="2"/>
         <v>1.4130434782608696</v>
       </c>
       <c r="P43">
         <v>1300</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="3"/>
         <v>1.4130434782608696</v>
       </c>
     </row>
@@ -5744,21 +5786,18 @@
         <v>1305</v>
       </c>
       <c r="K44">
-        <f t="shared" si="4"/>
         <v>1.4184782608695652</v>
       </c>
       <c r="M44">
         <v>-281</v>
       </c>
       <c r="N44">
-        <f t="shared" si="2"/>
         <v>-0.30543478260869567</v>
       </c>
       <c r="P44">
         <v>1070</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="3"/>
         <v>1.1630434782608696</v>
       </c>
     </row>
@@ -5789,33 +5828,27 @@
         <v>737.5</v>
       </c>
       <c r="K45">
-        <f t="shared" si="4"/>
         <v>0.80163043478260876</v>
       </c>
       <c r="L45">
-        <f>SUM(K42:K45)</f>
         <v>4.5978260869565215</v>
       </c>
       <c r="M45">
         <v>1135</v>
       </c>
       <c r="N45">
-        <f t="shared" si="2"/>
         <v>1.2336956521739131</v>
       </c>
       <c r="O45">
-        <f>SUM(N42:N45)</f>
         <v>2.8956521739130436</v>
       </c>
       <c r="P45">
         <v>1135</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="3"/>
         <v>1.2336956521739131</v>
       </c>
       <c r="R45">
-        <f>SUM(Q42:Q45)</f>
         <v>4.6521739130434785</v>
       </c>
     </row>
@@ -5846,21 +5879,18 @@
         <v>72.5</v>
       </c>
       <c r="K46">
-        <f t="shared" si="4"/>
         <v>7.880434782608696E-2</v>
       </c>
       <c r="M46">
         <v>1517.5</v>
       </c>
       <c r="N46">
-        <f t="shared" si="2"/>
         <v>1.6494565217391306</v>
       </c>
       <c r="P46">
         <v>1160</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="3"/>
         <v>1.2608695652173914</v>
       </c>
       <c r="S46" s="1" t="s">
@@ -5894,21 +5924,18 @@
         <v>337.5</v>
       </c>
       <c r="K47">
-        <f t="shared" si="4"/>
         <v>0.36684782608695654</v>
       </c>
       <c r="M47">
         <v>487.5</v>
       </c>
       <c r="N47">
-        <f t="shared" si="2"/>
         <v>0.52989130434782605</v>
       </c>
       <c r="P47">
         <v>1447.5</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="3"/>
         <v>1.5733695652173914</v>
       </c>
     </row>
@@ -5939,21 +5966,18 @@
         <v>1247.5</v>
       </c>
       <c r="K48">
-        <f t="shared" si="4"/>
         <v>1.3559782608695652</v>
       </c>
       <c r="M48">
         <v>1412.5</v>
       </c>
       <c r="N48">
-        <f t="shared" si="2"/>
         <v>1.5353260869565217</v>
       </c>
       <c r="P48">
         <v>1412.5</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="3"/>
         <v>1.5353260869565217</v>
       </c>
       <c r="S48" s="1" t="s">
@@ -5987,33 +6011,27 @@
         <v>660</v>
       </c>
       <c r="K49">
-        <f t="shared" si="4"/>
         <v>0.71739130434782605</v>
       </c>
       <c r="L49">
-        <f>SUM(K46:K49)</f>
         <v>2.5190217391304346</v>
       </c>
       <c r="M49">
         <v>-655</v>
       </c>
       <c r="N49">
-        <f t="shared" si="2"/>
         <v>-0.71195652173913038</v>
       </c>
       <c r="O49">
-        <f>SUM(N46:N49)</f>
         <v>3.0027173913043481</v>
       </c>
       <c r="P49">
         <v>-655</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="3"/>
         <v>-0.71195652173913038</v>
       </c>
       <c r="R49">
-        <f>SUM(Q46:Q49)</f>
         <v>3.6576086956521743</v>
       </c>
       <c r="S49" s="1" t="s">
@@ -6047,7 +6065,6 @@
         <v>1980</v>
       </c>
       <c r="K50">
-        <f t="shared" si="4"/>
         <v>2.152173913043478</v>
       </c>
       <c r="L50" t="s">
@@ -6057,14 +6074,12 @@
         <v>1235</v>
       </c>
       <c r="N50">
-        <f t="shared" si="2"/>
         <v>1.3423913043478259</v>
       </c>
       <c r="P50">
         <v>2232.5</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="3"/>
         <v>2.4266304347826084</v>
       </c>
     </row>
@@ -6095,21 +6110,18 @@
         <v>1430</v>
       </c>
       <c r="K51">
-        <f t="shared" si="4"/>
         <v>1.5543478260869565</v>
       </c>
       <c r="M51">
         <v>1520</v>
       </c>
       <c r="N51">
-        <f t="shared" si="2"/>
         <v>1.652173913043478</v>
       </c>
       <c r="P51">
         <v>1520</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="3"/>
         <v>1.652173913043478</v>
       </c>
     </row>
@@ -6140,21 +6152,18 @@
         <v>1470</v>
       </c>
       <c r="K52">
-        <f t="shared" si="4"/>
         <v>1.5978260869565215</v>
       </c>
       <c r="M52" s="12" t="s">
         <v>806</v>
       </c>
       <c r="N52">
-        <f t="shared" si="2"/>
         <v>-0.57336956521739135</v>
       </c>
       <c r="P52">
         <v>-40</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="3"/>
         <v>-4.3478260869565216E-2</v>
       </c>
     </row>
@@ -6185,33 +6194,27 @@
         <v>-227.5</v>
       </c>
       <c r="K53">
-        <f t="shared" si="4"/>
         <v>-0.24728260869565219</v>
       </c>
       <c r="L53">
-        <f>SUM(K50:K53)</f>
         <v>5.0570652173913038</v>
       </c>
       <c r="M53">
         <v>1370</v>
       </c>
       <c r="N53">
-        <f t="shared" si="2"/>
         <v>1.4891304347826086</v>
       </c>
       <c r="O53">
-        <f>SUM(N50:N53)</f>
         <v>3.9103260869565206</v>
       </c>
       <c r="P53">
         <v>1370</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="3"/>
         <v>1.4891304347826086</v>
       </c>
       <c r="R53">
-        <f>SUM(Q50:Q53)</f>
         <v>5.524456521739129</v>
       </c>
     </row>
@@ -6242,21 +6245,18 @@
         <v>1662.5</v>
       </c>
       <c r="K54">
-        <f t="shared" si="4"/>
         <v>1.8070652173913042</v>
       </c>
       <c r="M54">
         <v>515</v>
       </c>
       <c r="N54">
-        <f t="shared" si="2"/>
         <v>0.55978260869565222</v>
       </c>
       <c r="P54">
         <v>845</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="3"/>
         <v>0.91847826086956519</v>
       </c>
     </row>
@@ -6287,21 +6287,18 @@
         <v>-3467.5</v>
       </c>
       <c r="K55">
-        <f t="shared" si="4"/>
         <v>-3.7690217391304346</v>
       </c>
       <c r="M55">
         <v>-4947.5</v>
       </c>
       <c r="N55">
-        <f t="shared" si="2"/>
         <v>-5.3777173913043477</v>
       </c>
       <c r="P55">
         <v>-4947.5</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="3"/>
         <v>-5.3777173913043477</v>
       </c>
     </row>
@@ -6332,21 +6329,18 @@
         <v>-645</v>
       </c>
       <c r="K56">
-        <f t="shared" si="4"/>
         <v>-0.70108695652173914</v>
       </c>
       <c r="M56">
         <v>2052.5</v>
       </c>
       <c r="N56">
-        <f t="shared" si="2"/>
         <v>2.2309782608695654</v>
       </c>
       <c r="P56">
         <v>2052.5</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="3"/>
         <v>2.2309782608695654</v>
       </c>
     </row>
@@ -6377,33 +6371,27 @@
         <v>1717.5</v>
       </c>
       <c r="K57">
-        <f t="shared" si="4"/>
         <v>1.8668478260869565</v>
       </c>
       <c r="L57">
-        <f>SUM(K54:K57)</f>
         <v>-0.79619565217391308</v>
       </c>
       <c r="M57">
         <v>-2650</v>
       </c>
       <c r="N57">
-        <f t="shared" si="2"/>
         <v>-2.8804347826086958</v>
       </c>
       <c r="O57">
-        <f>SUM(N54:N57)</f>
         <v>-5.4673913043478262</v>
       </c>
       <c r="P57">
         <v>-455</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="3"/>
         <v>-0.49456521739130438</v>
       </c>
       <c r="R57">
-        <f>SUM(Q54:Q57)</f>
         <v>-2.7228260869565211</v>
       </c>
     </row>
@@ -6434,21 +6422,18 @@
         <v>2045</v>
       </c>
       <c r="K58">
-        <f t="shared" si="4"/>
         <v>2.222826086956522</v>
       </c>
       <c r="M58">
         <v>2037.5</v>
       </c>
       <c r="N58">
-        <f t="shared" si="2"/>
         <v>2.2146739130434785</v>
       </c>
       <c r="P58">
         <v>2037.5</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="3"/>
         <v>2.2146739130434785</v>
       </c>
     </row>
@@ -6479,21 +6464,18 @@
         <v>1112.5</v>
       </c>
       <c r="K59">
-        <f t="shared" si="4"/>
         <v>1.2092391304347825</v>
       </c>
       <c r="M59">
         <v>2560</v>
       </c>
       <c r="N59">
-        <f t="shared" si="2"/>
         <v>2.7826086956521738</v>
       </c>
       <c r="P59">
         <v>2560</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="3"/>
         <v>2.7826086956521738</v>
       </c>
     </row>
@@ -6524,21 +6506,18 @@
         <v>625</v>
       </c>
       <c r="K60">
-        <f t="shared" si="4"/>
         <v>0.67934782608695654</v>
       </c>
       <c r="M60">
         <v>1105</v>
       </c>
       <c r="N60">
-        <f t="shared" si="2"/>
         <v>1.201086956521739</v>
       </c>
       <c r="P60">
         <v>845</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="3"/>
         <v>0.91847826086956519</v>
       </c>
     </row>
@@ -6559,7 +6538,7 @@
         <v>1.6</v>
       </c>
       <c r="F61">
-        <f t="shared" ref="F61:F64" si="5">(B61+D61-C61-E61)*50</f>
+        <f t="shared" ref="F61:F64" si="1">(B61+D61-C61-E61)*50</f>
         <v>2050</v>
       </c>
       <c r="G61">
@@ -6569,33 +6548,27 @@
         <v>1475</v>
       </c>
       <c r="K61">
-        <f>(J61/G61)*100</f>
         <v>1.6032608695652175</v>
       </c>
       <c r="L61">
-        <f>SUM(K58:K61)</f>
         <v>5.7146739130434794</v>
       </c>
       <c r="M61" s="12" t="s">
         <v>183</v>
       </c>
       <c r="N61">
-        <f>(M61/G61)*100</f>
         <v>-5.4347826086956523</v>
       </c>
       <c r="O61">
-        <f>SUM(N58:N61)</f>
         <v>0.76358695652173925</v>
       </c>
       <c r="P61" s="12" t="s">
         <v>182</v>
       </c>
       <c r="Q61">
-        <f>(P61/G61)*100</f>
         <v>-1.4782608695652173</v>
       </c>
       <c r="R61">
-        <f>SUM(Q58:Q61)</f>
         <v>4.4375</v>
       </c>
     </row>
@@ -6616,7 +6589,7 @@
         <v>3</v>
       </c>
       <c r="F62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>2705</v>
       </c>
       <c r="G62">
@@ -6626,21 +6599,18 @@
         <v>2540</v>
       </c>
       <c r="K62">
-        <f t="shared" ref="K62:K67" si="6">(J62/G62)*100</f>
         <v>2.7608695652173916</v>
       </c>
       <c r="M62">
         <v>347.5</v>
       </c>
       <c r="N62">
-        <f t="shared" ref="N62:N67" si="7">(M62/G62)*100</f>
         <v>0.37771739130434778</v>
       </c>
       <c r="P62">
         <v>1477.5</v>
       </c>
       <c r="Q62">
-        <f t="shared" ref="Q62:Q67" si="8">(P62/G62)*100</f>
         <v>1.6059782608695652</v>
       </c>
     </row>
@@ -6661,7 +6631,7 @@
         <v>3.65</v>
       </c>
       <c r="F63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>3554.9999999999995</v>
       </c>
       <c r="G63">
@@ -6671,21 +6641,18 @@
         <v>2587.5</v>
       </c>
       <c r="K63">
-        <f t="shared" si="6"/>
         <v>2.8125</v>
       </c>
       <c r="M63">
         <v>2720</v>
       </c>
       <c r="N63">
-        <f t="shared" si="7"/>
         <v>2.9565217391304346</v>
       </c>
       <c r="P63">
         <v>1595</v>
       </c>
       <c r="Q63">
-        <f t="shared" si="8"/>
         <v>1.7336956521739131</v>
       </c>
     </row>
@@ -6706,7 +6673,7 @@
         <v>2.75</v>
       </c>
       <c r="F64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>2737.5</v>
       </c>
       <c r="G64">
@@ -6716,21 +6683,18 @@
         <v>-1602.5</v>
       </c>
       <c r="K64">
-        <f t="shared" si="6"/>
         <v>-1.7418478260869568</v>
       </c>
       <c r="M64">
         <v>-2962.5</v>
       </c>
       <c r="N64">
-        <f t="shared" si="7"/>
         <v>-3.2201086956521738</v>
       </c>
       <c r="P64">
         <v>-1160</v>
       </c>
       <c r="Q64">
-        <f t="shared" si="8"/>
         <v>-1.2608695652173914</v>
       </c>
     </row>
@@ -6761,33 +6725,27 @@
         <v>3502.5</v>
       </c>
       <c r="K65">
-        <f t="shared" si="6"/>
         <v>3.8070652173913042</v>
       </c>
       <c r="L65">
-        <f>SUM(K62:K65)</f>
         <v>7.6385869565217384</v>
       </c>
       <c r="M65">
         <v>2737.5</v>
       </c>
       <c r="N65">
-        <f t="shared" si="7"/>
         <v>2.9755434782608696</v>
       </c>
       <c r="O65">
-        <f>SUM(N62:N65)</f>
         <v>3.089673913043478</v>
       </c>
       <c r="P65">
         <v>2540</v>
       </c>
       <c r="Q65">
-        <f t="shared" si="8"/>
         <v>2.7608695652173916</v>
       </c>
       <c r="R65">
-        <f>SUM(Q62:Q65)</f>
         <v>4.8396739130434785</v>
       </c>
     </row>
@@ -6818,21 +6776,18 @@
         <v>2285</v>
       </c>
       <c r="K66">
-        <f t="shared" si="6"/>
         <v>2.4836956521739131</v>
       </c>
       <c r="M66">
         <v>2667.5</v>
       </c>
       <c r="N66">
-        <f t="shared" si="7"/>
         <v>2.8994565217391304</v>
       </c>
       <c r="P66">
         <v>2667.5</v>
       </c>
       <c r="Q66">
-        <f t="shared" si="8"/>
         <v>2.8994565217391304</v>
       </c>
     </row>
@@ -6863,21 +6818,18 @@
         <v>2352.5</v>
       </c>
       <c r="K67">
-        <f t="shared" si="6"/>
         <v>2.5570652173913042</v>
       </c>
       <c r="M67">
         <v>305</v>
       </c>
       <c r="N67">
-        <f t="shared" si="7"/>
         <v>0.33152173913043481</v>
       </c>
       <c r="P67">
         <v>1407.5</v>
       </c>
       <c r="Q67">
-        <f t="shared" si="8"/>
         <v>1.5298913043478262</v>
       </c>
     </row>
@@ -6892,9 +6844,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E405DE-A147-4920-AD35-489DE4E6B4B0}">
   <dimension ref="A1:BE418"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A388" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE412" sqref="AE412:AF412"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15556,9 +15508,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2668D988-44D8-4E32-8FCB-0B15E5EDAAA4}">
   <dimension ref="A1:BE624"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A596" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X621" sqref="X621"/>
+      <selection pane="bottomLeft" activeCell="B627" sqref="B627"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30991,11 +30943,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC77A329-7251-499A-9D87-F96780710E25}">
-  <dimension ref="A1:D218"/>
+  <dimension ref="A1:D212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R220" sqref="R220"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31003,16 +30955,15 @@
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -31577,7 +31528,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
-        <v>44106</v>
+        <v>44105</v>
       </c>
       <c r="B41" s="5">
         <v>44112</v>
@@ -33981,94 +33932,2585 @@
       </c>
       <c r="D212">
         <v>21350</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="5">
-        <v>45310</v>
-      </c>
-      <c r="B213" s="5">
-        <v>45316</v>
-      </c>
-      <c r="C213">
-        <v>22100</v>
-      </c>
-      <c r="D213">
-        <v>21200</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="5">
-        <v>45316</v>
-      </c>
-      <c r="B214" s="5">
-        <v>45323</v>
-      </c>
-      <c r="C214">
-        <v>22000</v>
-      </c>
-      <c r="D214">
-        <v>20900</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" s="5">
-        <v>45324</v>
-      </c>
-      <c r="B215" s="5">
-        <v>45330</v>
-      </c>
-      <c r="C215">
-        <v>22400</v>
-      </c>
-      <c r="D215">
-        <v>21450</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" s="5">
-        <v>45331</v>
-      </c>
-      <c r="B216" s="5">
-        <v>45337</v>
-      </c>
-      <c r="C216">
-        <v>22200</v>
-      </c>
-      <c r="D216">
-        <v>21200</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" s="5">
-        <v>45338</v>
-      </c>
-      <c r="B217" s="5">
-        <v>45344</v>
-      </c>
-      <c r="C217">
-        <v>22450</v>
-      </c>
-      <c r="D217">
-        <v>21550</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" s="5">
-        <v>45345</v>
-      </c>
-      <c r="B218" s="5">
-        <v>45351</v>
-      </c>
-      <c r="C218">
-        <v>22700</v>
-      </c>
-      <c r="D218">
-        <v>21800</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79D554C-32E4-4850-8281-0B395C874923}">
+  <dimension ref="A1:AB67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="27.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>44896</v>
+      </c>
+      <c r="B2">
+        <v>1775</v>
+      </c>
+      <c r="C2">
+        <v>572.5</v>
+      </c>
+      <c r="D2">
+        <v>1267.5</v>
+      </c>
+      <c r="E2">
+        <v>1.9293478260869565</v>
+      </c>
+      <c r="F2">
+        <v>0.62228260869565222</v>
+      </c>
+      <c r="G2">
+        <v>1.3777173913043477</v>
+      </c>
+      <c r="K2">
+        <f>B2</f>
+        <v>1775</v>
+      </c>
+      <c r="L2">
+        <f>C2</f>
+        <v>572.5</v>
+      </c>
+      <c r="M2">
+        <f>D2</f>
+        <v>1267.5</v>
+      </c>
+      <c r="S2" s="5"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>44903</v>
+      </c>
+      <c r="B3">
+        <v>1202.5</v>
+      </c>
+      <c r="C3">
+        <v>1515</v>
+      </c>
+      <c r="D3">
+        <v>1515</v>
+      </c>
+      <c r="E3">
+        <v>1.3070652173913044</v>
+      </c>
+      <c r="F3">
+        <v>1.6467391304347827</v>
+      </c>
+      <c r="G3">
+        <v>1.6467391304347827</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:M5" si="0">B3+K2</f>
+        <v>2977.5</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>2087.5</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>2782.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>44910</v>
+      </c>
+      <c r="B4">
+        <v>540</v>
+      </c>
+      <c r="C4">
+        <v>1482.5</v>
+      </c>
+      <c r="D4">
+        <v>1482.5</v>
+      </c>
+      <c r="E4">
+        <v>0.58695652173913038</v>
+      </c>
+      <c r="F4">
+        <v>1.611413043478261</v>
+      </c>
+      <c r="G4">
+        <v>1.611413043478261</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>3517.5</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>3570</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>44917</v>
+      </c>
+      <c r="B5">
+        <v>-1025</v>
+      </c>
+      <c r="C5">
+        <v>1785</v>
+      </c>
+      <c r="D5">
+        <v>1800</v>
+      </c>
+      <c r="E5">
+        <v>-1.1141304347826086</v>
+      </c>
+      <c r="F5">
+        <v>1.9402173913043479</v>
+      </c>
+      <c r="G5">
+        <v>1.956521739130435</v>
+      </c>
+      <c r="H5">
+        <v>2.7092391304347823</v>
+      </c>
+      <c r="I5">
+        <v>5.8206521739130439</v>
+      </c>
+      <c r="J5">
+        <v>6.5923913043478262</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>2492.5</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>5355</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>6065</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>44924</v>
+      </c>
+      <c r="B6">
+        <v>537.5</v>
+      </c>
+      <c r="C6">
+        <v>2217.5</v>
+      </c>
+      <c r="D6">
+        <v>2217.5</v>
+      </c>
+      <c r="E6">
+        <v>0.58423913043478259</v>
+      </c>
+      <c r="F6">
+        <v>2.4103260869565215</v>
+      </c>
+      <c r="G6">
+        <v>2.4103260869565215</v>
+      </c>
+      <c r="K6">
+        <f>B6+K5</f>
+        <v>3030</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ref="L6:M67" si="1">C6+L5</f>
+        <v>7572.5</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>8282.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>44931</v>
+      </c>
+      <c r="B7">
+        <v>1875</v>
+      </c>
+      <c r="C7">
+        <v>2100</v>
+      </c>
+      <c r="D7">
+        <v>1467.5</v>
+      </c>
+      <c r="E7">
+        <v>2.0380434782608696</v>
+      </c>
+      <c r="F7">
+        <v>2.2826086956521738</v>
+      </c>
+      <c r="G7">
+        <v>1.5951086956521741</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7:K67" si="2">B7+K6</f>
+        <v>4905</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>9672.5</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>9750</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>44938</v>
+      </c>
+      <c r="B8">
+        <v>-1045</v>
+      </c>
+      <c r="C8">
+        <v>240</v>
+      </c>
+      <c r="D8">
+        <v>-670</v>
+      </c>
+      <c r="E8">
+        <v>-1.1358695652173911</v>
+      </c>
+      <c r="F8">
+        <v>0.26086956521739135</v>
+      </c>
+      <c r="G8">
+        <v>-0.72826086956521741</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>3860</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>9912.5</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>9080</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>44945</v>
+      </c>
+      <c r="B9">
+        <v>1992.5</v>
+      </c>
+      <c r="C9">
+        <v>692.5</v>
+      </c>
+      <c r="D9">
+        <v>1535</v>
+      </c>
+      <c r="E9">
+        <v>2.1657608695652173</v>
+      </c>
+      <c r="F9">
+        <v>0.75271739130434778</v>
+      </c>
+      <c r="G9">
+        <v>1.6684782608695652</v>
+      </c>
+      <c r="H9">
+        <v>3.6521739130434785</v>
+      </c>
+      <c r="I9">
+        <v>5.7065217391304346</v>
+      </c>
+      <c r="J9">
+        <v>4.945652173913043</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>5852.5</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>10605</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>10615</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>44951</v>
+      </c>
+      <c r="B10">
+        <v>1577.5</v>
+      </c>
+      <c r="C10">
+        <v>1512.5</v>
+      </c>
+      <c r="D10">
+        <v>925</v>
+      </c>
+      <c r="E10">
+        <v>1.7146739130434783</v>
+      </c>
+      <c r="F10">
+        <v>1.6440217391304346</v>
+      </c>
+      <c r="G10">
+        <v>1.0054347826086956</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>7430</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>12117.5</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>11540</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>44959</v>
+      </c>
+      <c r="B11">
+        <v>3252.5</v>
+      </c>
+      <c r="C11">
+        <v>-1342.5</v>
+      </c>
+      <c r="D11">
+        <v>-1342.5</v>
+      </c>
+      <c r="E11">
+        <v>3.5353260869565215</v>
+      </c>
+      <c r="F11">
+        <v>-1.4592391304347827</v>
+      </c>
+      <c r="G11">
+        <v>-1.4592391304347827</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>10682.5</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>10775</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>10197.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>44966</v>
+      </c>
+      <c r="B12">
+        <v>1945</v>
+      </c>
+      <c r="C12">
+        <v>2267.5</v>
+      </c>
+      <c r="D12">
+        <v>2850</v>
+      </c>
+      <c r="E12">
+        <v>2.1141304347826089</v>
+      </c>
+      <c r="F12">
+        <v>2.464673913043478</v>
+      </c>
+      <c r="G12">
+        <v>3.097826086956522</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>12627.5</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>13042.5</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>13047.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>44973</v>
+      </c>
+      <c r="B13">
+        <v>222.5</v>
+      </c>
+      <c r="C13">
+        <v>1672.5</v>
+      </c>
+      <c r="D13">
+        <v>717.5</v>
+      </c>
+      <c r="E13">
+        <v>0.24184782608695651</v>
+      </c>
+      <c r="F13">
+        <v>1.8179347826086958</v>
+      </c>
+      <c r="G13">
+        <v>0.77989130434782616</v>
+      </c>
+      <c r="H13">
+        <v>7.6059782608695654</v>
+      </c>
+      <c r="I13">
+        <v>4.4673913043478262</v>
+      </c>
+      <c r="J13">
+        <v>3.4239130434782608</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>12850</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>14715</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>13765</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>44980</v>
+      </c>
+      <c r="B14">
+        <v>2550</v>
+      </c>
+      <c r="C14">
+        <v>-495</v>
+      </c>
+      <c r="D14">
+        <v>-495</v>
+      </c>
+      <c r="E14">
+        <v>2.7717391304347827</v>
+      </c>
+      <c r="F14">
+        <v>-0.53804347826086951</v>
+      </c>
+      <c r="G14">
+        <v>-0.53804347826086951</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>15400</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>14220</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>13270</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>44987</v>
+      </c>
+      <c r="B15">
+        <v>735.5</v>
+      </c>
+      <c r="C15">
+        <v>1415</v>
+      </c>
+      <c r="D15">
+        <v>1415</v>
+      </c>
+      <c r="E15">
+        <v>0.79945652173913051</v>
+      </c>
+      <c r="F15">
+        <v>1.5380434782608694</v>
+      </c>
+      <c r="G15">
+        <v>1.5380434782608694</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>16135.5</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>15635</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>14685</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>44994</v>
+      </c>
+      <c r="B16">
+        <v>1450</v>
+      </c>
+      <c r="C16">
+        <v>607.5</v>
+      </c>
+      <c r="D16">
+        <v>607.5</v>
+      </c>
+      <c r="E16">
+        <v>1.576086956521739</v>
+      </c>
+      <c r="F16">
+        <v>0.66032608695652173</v>
+      </c>
+      <c r="G16">
+        <v>0.66032608695652173</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>17585.5</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>16242.5</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>15292.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>45001</v>
+      </c>
+      <c r="B17">
+        <v>1837.5</v>
+      </c>
+      <c r="C17">
+        <v>-210</v>
+      </c>
+      <c r="D17">
+        <v>1037.5</v>
+      </c>
+      <c r="E17">
+        <v>1.9972826086956521</v>
+      </c>
+      <c r="F17">
+        <v>-0.22826086956521741</v>
+      </c>
+      <c r="G17">
+        <v>1.1277173913043479</v>
+      </c>
+      <c r="H17">
+        <v>7.144565217391305</v>
+      </c>
+      <c r="I17">
+        <v>1.4320652173913042</v>
+      </c>
+      <c r="J17">
+        <v>2.7880434782608692</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>19423</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>16032.5</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>16330</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>45008</v>
+      </c>
+      <c r="B18">
+        <v>447.5</v>
+      </c>
+      <c r="C18">
+        <v>1687.5</v>
+      </c>
+      <c r="D18">
+        <v>1307.5</v>
+      </c>
+      <c r="E18">
+        <v>0.48641304347826086</v>
+      </c>
+      <c r="F18">
+        <v>1.8342391304347827</v>
+      </c>
+      <c r="G18">
+        <v>1.4211956521739131</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>19870.5</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>17720</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>17637.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>45014</v>
+      </c>
+      <c r="B19">
+        <v>1540</v>
+      </c>
+      <c r="C19">
+        <v>1227.5</v>
+      </c>
+      <c r="D19">
+        <v>1227.5</v>
+      </c>
+      <c r="E19">
+        <v>1.6739130434782608</v>
+      </c>
+      <c r="F19">
+        <v>1.3342391304347827</v>
+      </c>
+      <c r="G19">
+        <v>1.3342391304347827</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>21410.5</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>18947.5</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>18865</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>45022</v>
+      </c>
+      <c r="B20">
+        <v>1715</v>
+      </c>
+      <c r="C20">
+        <v>1675</v>
+      </c>
+      <c r="D20">
+        <v>1507.5</v>
+      </c>
+      <c r="E20">
+        <v>1.8641304347826089</v>
+      </c>
+      <c r="F20">
+        <v>1.8206521739130435</v>
+      </c>
+      <c r="G20">
+        <v>1.638586956521739</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>23125.5</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>20622.5</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>20372.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>45029</v>
+      </c>
+      <c r="B21">
+        <v>1445</v>
+      </c>
+      <c r="C21">
+        <v>1315</v>
+      </c>
+      <c r="D21">
+        <v>1315</v>
+      </c>
+      <c r="E21">
+        <v>1.5706521739130435</v>
+      </c>
+      <c r="F21">
+        <v>1.4293478260869565</v>
+      </c>
+      <c r="G21">
+        <v>1.4293478260869565</v>
+      </c>
+      <c r="H21">
+        <v>5.5951086956521738</v>
+      </c>
+      <c r="I21">
+        <v>6.4184782608695663</v>
+      </c>
+      <c r="J21">
+        <v>5.8233695652173907</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>24570.5</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>21937.5</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>21687.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>45036</v>
+      </c>
+      <c r="B22">
+        <v>1000</v>
+      </c>
+      <c r="C22">
+        <v>972.5</v>
+      </c>
+      <c r="D22">
+        <v>972.5</v>
+      </c>
+      <c r="E22">
+        <v>1.0869565217391304</v>
+      </c>
+      <c r="F22">
+        <v>1.0570652173913044</v>
+      </c>
+      <c r="G22">
+        <v>1.0570652173913044</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="2"/>
+        <v>25570.5</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>22910</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>22660</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>45043</v>
+      </c>
+      <c r="B23">
+        <v>1707.5</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1405</v>
+      </c>
+      <c r="E23">
+        <v>1.8559782608695654</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1.5271739130434783</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>27278</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>22910</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>24065</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>45050</v>
+      </c>
+      <c r="B24">
+        <v>1152.5</v>
+      </c>
+      <c r="C24">
+        <v>-255</v>
+      </c>
+      <c r="D24">
+        <v>-255</v>
+      </c>
+      <c r="E24">
+        <v>1.2527173913043479</v>
+      </c>
+      <c r="F24">
+        <v>-0.27717391304347822</v>
+      </c>
+      <c r="G24">
+        <v>-0.27717391304347822</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>28430.5</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>22655</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>23810</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>45057</v>
+      </c>
+      <c r="B25">
+        <v>85</v>
+      </c>
+      <c r="C25">
+        <v>697.5</v>
+      </c>
+      <c r="D25">
+        <v>1505</v>
+      </c>
+      <c r="E25">
+        <v>9.2391304347826081E-2</v>
+      </c>
+      <c r="F25">
+        <v>0.75815217391304346</v>
+      </c>
+      <c r="G25">
+        <v>1.6358695652173911</v>
+      </c>
+      <c r="H25">
+        <v>4.2880434782608701</v>
+      </c>
+      <c r="I25">
+        <v>1.5380434782608696</v>
+      </c>
+      <c r="J25">
+        <v>3.9429347826086958</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>28515.5</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>23352.5</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>25315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>45064</v>
+      </c>
+      <c r="B26">
+        <v>962.5</v>
+      </c>
+      <c r="C26">
+        <v>127.5</v>
+      </c>
+      <c r="D26">
+        <v>127.5</v>
+      </c>
+      <c r="E26">
+        <v>1.0461956521739131</v>
+      </c>
+      <c r="F26">
+        <v>0.13858695652173911</v>
+      </c>
+      <c r="G26">
+        <v>0.13858695652173911</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="2"/>
+        <v>29478</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>23480</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>25442.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>45071</v>
+      </c>
+      <c r="B27">
+        <v>1805</v>
+      </c>
+      <c r="C27">
+        <v>892.5</v>
+      </c>
+      <c r="D27">
+        <v>945</v>
+      </c>
+      <c r="E27">
+        <v>1.9619565217391304</v>
+      </c>
+      <c r="F27">
+        <v>0.97010869565217395</v>
+      </c>
+      <c r="G27">
+        <v>1.0271739130434783</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="2"/>
+        <v>31283</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="1"/>
+        <v>24372.5</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="1"/>
+        <v>26387.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>45078</v>
+      </c>
+      <c r="B28">
+        <v>547.5</v>
+      </c>
+      <c r="C28">
+        <v>312.5</v>
+      </c>
+      <c r="D28">
+        <v>312.5</v>
+      </c>
+      <c r="E28">
+        <v>0.59510869565217395</v>
+      </c>
+      <c r="F28">
+        <v>0.33967391304347827</v>
+      </c>
+      <c r="G28">
+        <v>0.33967391304347827</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="2"/>
+        <v>31830.5</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="1"/>
+        <v>24685</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="1"/>
+        <v>26700</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>45085</v>
+      </c>
+      <c r="B29">
+        <v>1612.5</v>
+      </c>
+      <c r="C29">
+        <v>1440</v>
+      </c>
+      <c r="D29">
+        <v>1440</v>
+      </c>
+      <c r="E29">
+        <v>1.7527173913043477</v>
+      </c>
+      <c r="F29">
+        <v>1.5652173913043479</v>
+      </c>
+      <c r="G29">
+        <v>1.5652173913043479</v>
+      </c>
+      <c r="H29">
+        <v>5.3559782608695645</v>
+      </c>
+      <c r="I29">
+        <v>3.0135869565217392</v>
+      </c>
+      <c r="J29">
+        <v>3.0706521739130435</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="2"/>
+        <v>33443</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="1"/>
+        <v>26125</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="1"/>
+        <v>28140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>45092</v>
+      </c>
+      <c r="B30">
+        <v>1422.5</v>
+      </c>
+      <c r="C30">
+        <v>1235</v>
+      </c>
+      <c r="D30">
+        <v>1235</v>
+      </c>
+      <c r="E30">
+        <v>1.5461956521739131</v>
+      </c>
+      <c r="F30">
+        <v>1.3423913043478259</v>
+      </c>
+      <c r="G30">
+        <v>1.3423913043478259</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="2"/>
+        <v>34865.5</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="1"/>
+        <v>27360</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="1"/>
+        <v>29375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>45099</v>
+      </c>
+      <c r="B31">
+        <v>-1045</v>
+      </c>
+      <c r="C31">
+        <v>-37.5</v>
+      </c>
+      <c r="D31">
+        <v>-37.5</v>
+      </c>
+      <c r="E31">
+        <v>-1.1358695652173911</v>
+      </c>
+      <c r="F31">
+        <v>-4.0760869565217392E-2</v>
+      </c>
+      <c r="G31">
+        <v>-4.0760869565217392E-2</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="2"/>
+        <v>33820.5</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="1"/>
+        <v>27322.5</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="1"/>
+        <v>29337.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>45106</v>
+      </c>
+      <c r="B32">
+        <v>1280</v>
+      </c>
+      <c r="C32">
+        <v>1280</v>
+      </c>
+      <c r="D32">
+        <v>1280</v>
+      </c>
+      <c r="E32">
+        <v>1.3913043478260869</v>
+      </c>
+      <c r="F32">
+        <v>1.3913043478260869</v>
+      </c>
+      <c r="G32">
+        <v>1.3913043478260869</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="2"/>
+        <v>35100.5</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="1"/>
+        <v>28602.5</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="1"/>
+        <v>30617.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>45113</v>
+      </c>
+      <c r="B33">
+        <v>1372.5</v>
+      </c>
+      <c r="C33">
+        <v>1372.5</v>
+      </c>
+      <c r="D33">
+        <v>1372.5</v>
+      </c>
+      <c r="E33">
+        <v>1.4918478260869565</v>
+      </c>
+      <c r="F33">
+        <v>1.4918478260869565</v>
+      </c>
+      <c r="G33">
+        <v>1.4918478260869565</v>
+      </c>
+      <c r="H33">
+        <v>3.2934782608695654</v>
+      </c>
+      <c r="I33">
+        <v>4.1847826086956523</v>
+      </c>
+      <c r="J33">
+        <v>4.1847826086956523</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="2"/>
+        <v>36473</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="1"/>
+        <v>29975</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="1"/>
+        <v>31990</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>45120</v>
+      </c>
+      <c r="B34">
+        <v>1670</v>
+      </c>
+      <c r="C34">
+        <v>1670</v>
+      </c>
+      <c r="D34">
+        <v>1670</v>
+      </c>
+      <c r="E34">
+        <v>1.8152173913043479</v>
+      </c>
+      <c r="F34">
+        <v>1.8152173913043479</v>
+      </c>
+      <c r="G34">
+        <v>1.8152173913043479</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="2"/>
+        <v>38143</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="1"/>
+        <v>31645</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="1"/>
+        <v>33660</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>45127</v>
+      </c>
+      <c r="B35">
+        <v>1802.5</v>
+      </c>
+      <c r="C35">
+        <v>487.5</v>
+      </c>
+      <c r="D35">
+        <v>487.5</v>
+      </c>
+      <c r="E35">
+        <v>1.9592391304347825</v>
+      </c>
+      <c r="F35">
+        <v>0.52989130434782605</v>
+      </c>
+      <c r="G35">
+        <v>0.52989130434782605</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="2"/>
+        <v>39945.5</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="1"/>
+        <v>32132.5</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="1"/>
+        <v>34147.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>45134</v>
+      </c>
+      <c r="B36">
+        <v>1610</v>
+      </c>
+      <c r="C36">
+        <v>1795</v>
+      </c>
+      <c r="D36">
+        <v>1795</v>
+      </c>
+      <c r="E36">
+        <v>1.7500000000000002</v>
+      </c>
+      <c r="F36">
+        <v>1.951086956521739</v>
+      </c>
+      <c r="G36">
+        <v>1.951086956521739</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="2"/>
+        <v>41555.5</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="1"/>
+        <v>33927.5</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="1"/>
+        <v>35942.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>45141</v>
+      </c>
+      <c r="B37">
+        <v>2050</v>
+      </c>
+      <c r="C37">
+        <v>1690</v>
+      </c>
+      <c r="D37">
+        <v>1465</v>
+      </c>
+      <c r="E37">
+        <v>2.2282608695652173</v>
+      </c>
+      <c r="F37">
+        <v>1.8369565217391304</v>
+      </c>
+      <c r="G37">
+        <v>1.5923913043478262</v>
+      </c>
+      <c r="H37">
+        <v>7.7527173913043477</v>
+      </c>
+      <c r="I37">
+        <v>6.133152173913043</v>
+      </c>
+      <c r="J37">
+        <v>5.8885869565217392</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="2"/>
+        <v>43605.5</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="1"/>
+        <v>35617.5</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="1"/>
+        <v>37407.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>45148</v>
+      </c>
+      <c r="B38">
+        <v>1392.5</v>
+      </c>
+      <c r="C38">
+        <v>1530</v>
+      </c>
+      <c r="D38">
+        <v>1530</v>
+      </c>
+      <c r="E38">
+        <v>1.5135869565217392</v>
+      </c>
+      <c r="F38">
+        <v>1.6630434782608696</v>
+      </c>
+      <c r="G38">
+        <v>1.6630434782608696</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="2"/>
+        <v>44998</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="1"/>
+        <v>37147.5</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="1"/>
+        <v>38937.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>45155</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>635</v>
+      </c>
+      <c r="C39">
+        <v>182.5</v>
+      </c>
+      <c r="D39">
+        <v>182.5</v>
+      </c>
+      <c r="E39">
+        <v>-0.12771739130434781</v>
+      </c>
+      <c r="F39">
+        <v>0.19836956521739132</v>
+      </c>
+      <c r="G39">
+        <v>0.19836956521739132</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="2"/>
+        <v>44880.5</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="1"/>
+        <v>37330</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="1"/>
+        <v>39120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>45162</v>
+      </c>
+      <c r="B40">
+        <v>1255</v>
+      </c>
+      <c r="C40">
+        <v>1232.5</v>
+      </c>
+      <c r="D40">
+        <v>915</v>
+      </c>
+      <c r="E40">
+        <v>1.3641304347826086</v>
+      </c>
+      <c r="F40">
+        <v>1.3396739130434783</v>
+      </c>
+      <c r="G40">
+        <v>0.99456521739130432</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="2"/>
+        <v>46135.5</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="1"/>
+        <v>38562.5</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="1"/>
+        <v>40035</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>45169</v>
+      </c>
+      <c r="B41">
+        <v>667.5</v>
+      </c>
+      <c r="C41">
+        <v>1477.5</v>
+      </c>
+      <c r="D41">
+        <v>1477.5</v>
+      </c>
+      <c r="E41">
+        <v>0.72554347826086951</v>
+      </c>
+      <c r="F41">
+        <v>1.6059782608695652</v>
+      </c>
+      <c r="G41">
+        <v>1.6059782608695652</v>
+      </c>
+      <c r="H41">
+        <v>3.4755434782608696</v>
+      </c>
+      <c r="I41">
+        <v>4.8070652173913047</v>
+      </c>
+      <c r="J41">
+        <v>4.4619565217391308</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="2"/>
+        <v>46803</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="1"/>
+        <v>40040</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="1"/>
+        <v>41512.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>45176</v>
+      </c>
+      <c r="B42">
+        <v>1227.5</v>
+      </c>
+      <c r="C42">
+        <v>510</v>
+      </c>
+      <c r="D42">
+        <v>775</v>
+      </c>
+      <c r="E42">
+        <v>1.3342391304347827</v>
+      </c>
+      <c r="F42">
+        <v>0.55434782608695643</v>
+      </c>
+      <c r="G42">
+        <v>0.84239130434782605</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="2"/>
+        <v>48030.5</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="1"/>
+        <v>40550</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="1"/>
+        <v>42287.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>45183</v>
+      </c>
+      <c r="B43">
+        <v>960</v>
+      </c>
+      <c r="C43">
+        <v>1300</v>
+      </c>
+      <c r="D43">
+        <v>1300</v>
+      </c>
+      <c r="E43">
+        <v>1.0434782608695654</v>
+      </c>
+      <c r="F43">
+        <v>1.4130434782608696</v>
+      </c>
+      <c r="G43">
+        <v>1.4130434782608696</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="2"/>
+        <v>48990.5</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="1"/>
+        <v>41850</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="1"/>
+        <v>43587.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>45190</v>
+      </c>
+      <c r="B44">
+        <v>1305</v>
+      </c>
+      <c r="C44">
+        <v>-281</v>
+      </c>
+      <c r="D44">
+        <v>1070</v>
+      </c>
+      <c r="E44">
+        <v>1.4184782608695652</v>
+      </c>
+      <c r="F44">
+        <v>-0.30543478260869567</v>
+      </c>
+      <c r="G44">
+        <v>1.1630434782608696</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="2"/>
+        <v>50295.5</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="1"/>
+        <v>41569</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="1"/>
+        <v>44657.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>45197</v>
+      </c>
+      <c r="B45">
+        <v>737.5</v>
+      </c>
+      <c r="C45">
+        <v>1135</v>
+      </c>
+      <c r="D45">
+        <v>1135</v>
+      </c>
+      <c r="E45">
+        <v>0.80163043478260876</v>
+      </c>
+      <c r="F45">
+        <v>1.2336956521739131</v>
+      </c>
+      <c r="G45">
+        <v>1.2336956521739131</v>
+      </c>
+      <c r="H45">
+        <v>4.5978260869565215</v>
+      </c>
+      <c r="I45">
+        <v>2.8956521739130436</v>
+      </c>
+      <c r="J45">
+        <v>4.6521739130434785</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="2"/>
+        <v>51033</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="1"/>
+        <v>42704</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="1"/>
+        <v>45792.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>45204</v>
+      </c>
+      <c r="B46">
+        <v>72.5</v>
+      </c>
+      <c r="C46">
+        <v>1517.5</v>
+      </c>
+      <c r="D46">
+        <v>1160</v>
+      </c>
+      <c r="E46">
+        <v>7.880434782608696E-2</v>
+      </c>
+      <c r="F46">
+        <v>1.6494565217391306</v>
+      </c>
+      <c r="G46">
+        <v>1.2608695652173914</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="2"/>
+        <v>51105.5</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="1"/>
+        <v>44221.5</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="1"/>
+        <v>46952.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>45211</v>
+      </c>
+      <c r="B47">
+        <v>337.5</v>
+      </c>
+      <c r="C47">
+        <v>487.5</v>
+      </c>
+      <c r="D47">
+        <v>1447.5</v>
+      </c>
+      <c r="E47">
+        <v>0.36684782608695654</v>
+      </c>
+      <c r="F47">
+        <v>0.52989130434782605</v>
+      </c>
+      <c r="G47">
+        <v>1.5733695652173914</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="2"/>
+        <v>51443</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="1"/>
+        <v>44709</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="1"/>
+        <v>48400</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>45218</v>
+      </c>
+      <c r="B48">
+        <v>1247.5</v>
+      </c>
+      <c r="C48">
+        <v>1412.5</v>
+      </c>
+      <c r="D48">
+        <v>1412.5</v>
+      </c>
+      <c r="E48">
+        <v>1.3559782608695652</v>
+      </c>
+      <c r="F48">
+        <v>1.5353260869565217</v>
+      </c>
+      <c r="G48">
+        <v>1.5353260869565217</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="2"/>
+        <v>52690.5</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="1"/>
+        <v>46121.5</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="1"/>
+        <v>49812.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>45225</v>
+      </c>
+      <c r="B49">
+        <v>660</v>
+      </c>
+      <c r="C49">
+        <v>-655</v>
+      </c>
+      <c r="D49">
+        <v>-655</v>
+      </c>
+      <c r="E49">
+        <v>0.71739130434782605</v>
+      </c>
+      <c r="F49">
+        <v>-0.71195652173913038</v>
+      </c>
+      <c r="G49">
+        <v>-0.71195652173913038</v>
+      </c>
+      <c r="H49">
+        <v>2.5190217391304346</v>
+      </c>
+      <c r="I49">
+        <v>3.0027173913043481</v>
+      </c>
+      <c r="J49">
+        <v>3.6576086956521743</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="2"/>
+        <v>53350.5</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="1"/>
+        <v>45466.5</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="1"/>
+        <v>49157.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>45232</v>
+      </c>
+      <c r="B50">
+        <v>1980</v>
+      </c>
+      <c r="C50">
+        <v>1235</v>
+      </c>
+      <c r="D50">
+        <v>2232.5</v>
+      </c>
+      <c r="E50">
+        <v>2.152173913043478</v>
+      </c>
+      <c r="F50">
+        <v>1.3423913043478259</v>
+      </c>
+      <c r="G50">
+        <v>2.4266304347826084</v>
+      </c>
+      <c r="H50" t="s">
+        <v>14</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="2"/>
+        <v>55330.5</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="1"/>
+        <v>46701.5</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="1"/>
+        <v>51390</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>45239</v>
+      </c>
+      <c r="B51">
+        <v>1430</v>
+      </c>
+      <c r="C51">
+        <v>1520</v>
+      </c>
+      <c r="D51">
+        <v>1520</v>
+      </c>
+      <c r="E51">
+        <v>1.5543478260869565</v>
+      </c>
+      <c r="F51">
+        <v>1.652173913043478</v>
+      </c>
+      <c r="G51">
+        <v>1.652173913043478</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="2"/>
+        <v>56760.5</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="1"/>
+        <v>48221.5</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="1"/>
+        <v>52910</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>45246</v>
+      </c>
+      <c r="B52">
+        <v>1470</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>806</v>
+      </c>
+      <c r="D52">
+        <v>-40</v>
+      </c>
+      <c r="E52">
+        <v>1.5978260869565215</v>
+      </c>
+      <c r="F52">
+        <v>-0.57336956521739135</v>
+      </c>
+      <c r="G52">
+        <v>-4.3478260869565216E-2</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="2"/>
+        <v>58230.5</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="1"/>
+        <v>47694</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="1"/>
+        <v>52870</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>45253</v>
+      </c>
+      <c r="B53">
+        <v>-227.5</v>
+      </c>
+      <c r="C53">
+        <v>1370</v>
+      </c>
+      <c r="D53">
+        <v>1370</v>
+      </c>
+      <c r="E53">
+        <v>-0.24728260869565219</v>
+      </c>
+      <c r="F53">
+        <v>1.4891304347826086</v>
+      </c>
+      <c r="G53">
+        <v>1.4891304347826086</v>
+      </c>
+      <c r="H53">
+        <v>5.0570652173913038</v>
+      </c>
+      <c r="I53">
+        <v>3.9103260869565206</v>
+      </c>
+      <c r="J53">
+        <v>5.524456521739129</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="2"/>
+        <v>58003</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="1"/>
+        <v>49064</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="1"/>
+        <v>54240</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>45260</v>
+      </c>
+      <c r="B54">
+        <v>1662.5</v>
+      </c>
+      <c r="C54">
+        <v>515</v>
+      </c>
+      <c r="D54">
+        <v>845</v>
+      </c>
+      <c r="E54">
+        <v>1.8070652173913042</v>
+      </c>
+      <c r="F54">
+        <v>0.55978260869565222</v>
+      </c>
+      <c r="G54">
+        <v>0.91847826086956519</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="2"/>
+        <v>59665.5</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="1"/>
+        <v>49579</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="1"/>
+        <v>55085</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>45267</v>
+      </c>
+      <c r="B55">
+        <v>-3467.5</v>
+      </c>
+      <c r="C55">
+        <v>-4947.5</v>
+      </c>
+      <c r="D55">
+        <v>-4947.5</v>
+      </c>
+      <c r="E55">
+        <v>-3.7690217391304346</v>
+      </c>
+      <c r="F55">
+        <v>-5.3777173913043477</v>
+      </c>
+      <c r="G55">
+        <v>-5.3777173913043477</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="2"/>
+        <v>56198</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="1"/>
+        <v>44631.5</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="1"/>
+        <v>50137.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>45274</v>
+      </c>
+      <c r="B56">
+        <v>-645</v>
+      </c>
+      <c r="C56">
+        <v>2052.5</v>
+      </c>
+      <c r="D56">
+        <v>2052.5</v>
+      </c>
+      <c r="E56">
+        <v>-0.70108695652173914</v>
+      </c>
+      <c r="F56">
+        <v>2.2309782608695654</v>
+      </c>
+      <c r="G56">
+        <v>2.2309782608695654</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="2"/>
+        <v>55553</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="1"/>
+        <v>46684</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="1"/>
+        <v>52190</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>45281</v>
+      </c>
+      <c r="B57">
+        <v>1717.5</v>
+      </c>
+      <c r="C57">
+        <v>-2650</v>
+      </c>
+      <c r="D57">
+        <v>-455</v>
+      </c>
+      <c r="E57">
+        <v>1.8668478260869565</v>
+      </c>
+      <c r="F57">
+        <v>-2.8804347826086958</v>
+      </c>
+      <c r="G57">
+        <v>-0.49456521739130438</v>
+      </c>
+      <c r="H57">
+        <v>-0.79619565217391308</v>
+      </c>
+      <c r="I57">
+        <v>-5.4673913043478262</v>
+      </c>
+      <c r="J57">
+        <v>-2.7228260869565211</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="2"/>
+        <v>57270.5</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="1"/>
+        <v>44034</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="1"/>
+        <v>51735</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>45288</v>
+      </c>
+      <c r="B58">
+        <v>2045</v>
+      </c>
+      <c r="C58">
+        <v>2037.5</v>
+      </c>
+      <c r="D58">
+        <v>2037.5</v>
+      </c>
+      <c r="E58">
+        <v>2.222826086956522</v>
+      </c>
+      <c r="F58">
+        <v>2.2146739130434785</v>
+      </c>
+      <c r="G58">
+        <v>2.2146739130434785</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="2"/>
+        <v>59315.5</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="1"/>
+        <v>46071.5</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="1"/>
+        <v>53772.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>45295</v>
+      </c>
+      <c r="B59">
+        <v>1112.5</v>
+      </c>
+      <c r="C59">
+        <v>2560</v>
+      </c>
+      <c r="D59">
+        <v>2560</v>
+      </c>
+      <c r="E59">
+        <v>1.2092391304347825</v>
+      </c>
+      <c r="F59">
+        <v>2.7826086956521738</v>
+      </c>
+      <c r="G59">
+        <v>2.7826086956521738</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="2"/>
+        <v>60428</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="1"/>
+        <v>48631.5</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="1"/>
+        <v>56332.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>45302</v>
+      </c>
+      <c r="B60">
+        <v>625</v>
+      </c>
+      <c r="C60">
+        <v>1105</v>
+      </c>
+      <c r="D60">
+        <v>845</v>
+      </c>
+      <c r="E60">
+        <v>0.67934782608695654</v>
+      </c>
+      <c r="F60">
+        <v>1.201086956521739</v>
+      </c>
+      <c r="G60">
+        <v>0.91847826086956519</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="2"/>
+        <v>61053</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="1"/>
+        <v>49736.5</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="1"/>
+        <v>57177.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>45309</v>
+      </c>
+      <c r="B61">
+        <v>1475</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="E61">
+        <v>1.6032608695652175</v>
+      </c>
+      <c r="F61">
+        <v>-5.4347826086956523</v>
+      </c>
+      <c r="G61">
+        <v>-1.4782608695652173</v>
+      </c>
+      <c r="H61">
+        <v>5.7146739130434794</v>
+      </c>
+      <c r="I61">
+        <v>0.76358695652173925</v>
+      </c>
+      <c r="J61">
+        <v>4.4375</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="2"/>
+        <v>62528</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="1"/>
+        <v>44736.5</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="1"/>
+        <v>55817.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>45316</v>
+      </c>
+      <c r="B62" s="4">
+        <v>2540</v>
+      </c>
+      <c r="C62">
+        <v>347.5</v>
+      </c>
+      <c r="D62">
+        <v>1477.5</v>
+      </c>
+      <c r="E62">
+        <v>2.7608695652173916</v>
+      </c>
+      <c r="F62">
+        <v>0.37771739130434778</v>
+      </c>
+      <c r="G62">
+        <v>1.6059782608695652</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="2"/>
+        <v>65068</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="1"/>
+        <v>45084</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="1"/>
+        <v>57295</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>45323</v>
+      </c>
+      <c r="B63">
+        <v>2587.5</v>
+      </c>
+      <c r="C63">
+        <v>2720</v>
+      </c>
+      <c r="D63">
+        <v>1595</v>
+      </c>
+      <c r="E63">
+        <v>2.8125</v>
+      </c>
+      <c r="F63">
+        <v>2.9565217391304346</v>
+      </c>
+      <c r="G63">
+        <v>1.7336956521739131</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="2"/>
+        <v>67655.5</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="1"/>
+        <v>47804</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="1"/>
+        <v>58890</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>45330</v>
+      </c>
+      <c r="B64">
+        <v>-1602.5</v>
+      </c>
+      <c r="C64">
+        <v>-2962.5</v>
+      </c>
+      <c r="D64">
+        <v>-1160</v>
+      </c>
+      <c r="E64">
+        <v>-1.7418478260869568</v>
+      </c>
+      <c r="F64">
+        <v>-3.2201086956521738</v>
+      </c>
+      <c r="G64">
+        <v>-1.2608695652173914</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="2"/>
+        <v>66053</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="1"/>
+        <v>44841.5</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="1"/>
+        <v>57730</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <v>45337</v>
+      </c>
+      <c r="B65">
+        <v>3502.5</v>
+      </c>
+      <c r="C65">
+        <v>2737.5</v>
+      </c>
+      <c r="D65">
+        <v>2540</v>
+      </c>
+      <c r="E65">
+        <v>3.8070652173913042</v>
+      </c>
+      <c r="F65">
+        <v>2.9755434782608696</v>
+      </c>
+      <c r="G65">
+        <v>2.7608695652173916</v>
+      </c>
+      <c r="H65">
+        <v>7.6385869565217384</v>
+      </c>
+      <c r="I65">
+        <v>3.089673913043478</v>
+      </c>
+      <c r="J65">
+        <v>4.8396739130434785</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="2"/>
+        <v>69555.5</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="1"/>
+        <v>47579</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="1"/>
+        <v>60270</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>45344</v>
+      </c>
+      <c r="B66">
+        <v>2285</v>
+      </c>
+      <c r="C66">
+        <v>2667.5</v>
+      </c>
+      <c r="D66">
+        <v>2667.5</v>
+      </c>
+      <c r="E66">
+        <v>2.4836956521739131</v>
+      </c>
+      <c r="F66">
+        <v>2.8994565217391304</v>
+      </c>
+      <c r="G66">
+        <v>2.8994565217391304</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="2"/>
+        <v>71840.5</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="1"/>
+        <v>50246.5</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="1"/>
+        <v>62937.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>45351</v>
+      </c>
+      <c r="B67">
+        <v>2352.5</v>
+      </c>
+      <c r="C67">
+        <v>305</v>
+      </c>
+      <c r="D67">
+        <v>1407.5</v>
+      </c>
+      <c r="E67">
+        <v>2.5570652173913042</v>
+      </c>
+      <c r="F67">
+        <v>0.33152173913043481</v>
+      </c>
+      <c r="G67">
+        <v>1.5298913043478262</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="2"/>
+        <v>74193</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="1"/>
+        <v>50551.5</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="1"/>
+        <v>64345</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Zerodha_GUI/Kite_Zerodha-main/Kite_Zerodha-main/Startjee.xlsx
+++ b/Zerodha_GUI/Kite_Zerodha-main/Kite_Zerodha-main/Startjee.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ashu\Finance\algo_trading\Zerodha_GUI\Kite_Zerodha-main\Kite_Zerodha-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068CA312-DEBB-499A-8459-317C5FF6B5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A49C3B-C710-42B3-8E08-0D960ED6ED11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{111B81BB-D847-4952-A3F9-2C9FB2D32C52}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{111B81BB-D847-4952-A3F9-2C9FB2D32C52}"/>
   </bookViews>
   <sheets>
     <sheet name="Imp Events and Explanation" sheetId="6" r:id="rId1"/>
@@ -21,6 +21,10 @@
     <sheet name="Past_Backtesting" sheetId="12" r:id="rId6"/>
     <sheet name="Report" sheetId="13" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Fixed SL'!$A$1:$A$418</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Trailing SL'!$A$1:$A$624</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="936">
   <si>
     <t>Date</t>
   </si>
@@ -2827,6 +2831,18 @@
   </si>
   <si>
     <t>Total Credit Spread Startjee 3</t>
+  </si>
+  <si>
+    <t>Number of  Credit spread</t>
+  </si>
+  <si>
+    <t>Startjee 1</t>
+  </si>
+  <si>
+    <t>Startjee 3</t>
+  </si>
+  <si>
+    <t>Total weeks</t>
   </si>
 </sst>
 </file>
@@ -3810,9 +3826,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D20D068-022B-4B6C-B9FF-E10E1F0C75D5}">
   <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R2" sqref="R2:R67"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6845,8 +6861,8 @@
   <dimension ref="A1:BE418"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15500,6 +15516,7 @@
     </row>
     <row r="418" spans="30:36" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <autoFilter ref="A1:A418" xr:uid="{05E405DE-A147-4920-AD35-489DE4E6B4B0}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15509,8 +15526,8 @@
   <dimension ref="A1:BE624"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A596" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B627" sqref="B627"/>
+      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I246" sqref="I246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30937,6 +30954,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A624" xr:uid="{2668D988-44D8-4E32-8FCB-0B15E5EDAAA4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -30945,9 +30963,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC77A329-7251-499A-9D87-F96780710E25}">
   <dimension ref="A1:D212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1:J1048576"/>
+      <selection pane="bottomLeft" activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33942,10 +33960,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79D554C-32E4-4850-8281-0B395C874923}">
-  <dimension ref="A1:AB67"/>
+  <dimension ref="A1:AI71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55:XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33962,9 +33981,15 @@
     <col min="20" max="22" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="23" max="25" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="26" max="28" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.5703125" customWidth="1"/>
+    <col min="30" max="30" width="15.5703125" customWidth="1"/>
+    <col min="31" max="31" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.5703125" customWidth="1"/>
+    <col min="33" max="33" width="13.7109375" customWidth="1"/>
+    <col min="34" max="34" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>42</v>
       </c>
@@ -34049,8 +34074,23 @@
       <c r="AB1" s="2" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC1" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>44896</v>
       </c>
@@ -34085,8 +34125,37 @@
         <v>1267.5</v>
       </c>
       <c r="S2" s="5"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z2">
+        <v>4</v>
+      </c>
+      <c r="AB2">
+        <v>4</v>
+      </c>
+      <c r="AC2">
+        <v>2</v>
+      </c>
+      <c r="AD2">
+        <v>2</v>
+      </c>
+      <c r="AE2">
+        <v>64</v>
+      </c>
+      <c r="AF2">
+        <f>(AD2/AE2)*100</f>
+        <v>3.125</v>
+      </c>
+      <c r="AG2">
+        <v>12</v>
+      </c>
+      <c r="AH2">
+        <v>66</v>
+      </c>
+      <c r="AI2">
+        <f>(AG2/AH2)*100</f>
+        <v>18.181818181818183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>44903</v>
       </c>
@@ -34120,8 +34189,37 @@
         <f t="shared" si="0"/>
         <v>2782.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z3">
+        <v>3</v>
+      </c>
+      <c r="AB3">
+        <v>3</v>
+      </c>
+      <c r="AC3">
+        <v>3</v>
+      </c>
+      <c r="AD3">
+        <v>24</v>
+      </c>
+      <c r="AE3">
+        <v>64</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" ref="AF3:AF4" si="1">(AD3/AE3)*100</f>
+        <v>37.5</v>
+      </c>
+      <c r="AG3">
+        <v>27</v>
+      </c>
+      <c r="AH3">
+        <v>66</v>
+      </c>
+      <c r="AI3">
+        <f t="shared" ref="AI3:AI4" si="2">(AG3/AH3)*100</f>
+        <v>40.909090909090914</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>44910</v>
       </c>
@@ -34155,8 +34253,37 @@
         <f t="shared" si="0"/>
         <v>4265</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z4">
+        <v>4</v>
+      </c>
+      <c r="AB4">
+        <v>4</v>
+      </c>
+      <c r="AC4">
+        <v>4</v>
+      </c>
+      <c r="AD4">
+        <v>38</v>
+      </c>
+      <c r="AE4">
+        <v>64</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" si="1"/>
+        <v>59.375</v>
+      </c>
+      <c r="AG4">
+        <v>27</v>
+      </c>
+      <c r="AH4">
+        <v>66</v>
+      </c>
+      <c r="AI4">
+        <f t="shared" si="2"/>
+        <v>40.909090909090914</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>44917</v>
       </c>
@@ -34199,8 +34326,14 @@
         <f t="shared" si="0"/>
         <v>6065</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z5">
+        <v>3</v>
+      </c>
+      <c r="AB5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>44924</v>
       </c>
@@ -34227,15 +34360,21 @@
         <v>3030</v>
       </c>
       <c r="L6">
-        <f t="shared" ref="L6:M67" si="1">C6+L5</f>
+        <f t="shared" ref="L6:M67" si="3">C6+L5</f>
         <v>7572.5</v>
       </c>
       <c r="M6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8282.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z6">
+        <v>3</v>
+      </c>
+      <c r="AB6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>44931</v>
       </c>
@@ -34258,19 +34397,25 @@
         <v>1.5951086956521741</v>
       </c>
       <c r="K7">
-        <f t="shared" ref="K7:K67" si="2">B7+K6</f>
+        <f t="shared" ref="K7:K67" si="4">B7+K6</f>
         <v>4905</v>
       </c>
       <c r="L7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9672.5</v>
       </c>
       <c r="M7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9750</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z7">
+        <v>4</v>
+      </c>
+      <c r="AB7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>44938</v>
       </c>
@@ -34293,19 +34438,25 @@
         <v>-0.72826086956521741</v>
       </c>
       <c r="K8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3860</v>
       </c>
       <c r="L8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9912.5</v>
       </c>
       <c r="M8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9080</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z8">
+        <v>4</v>
+      </c>
+      <c r="AB8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>44945</v>
       </c>
@@ -34337,19 +34488,25 @@
         <v>4.945652173913043</v>
       </c>
       <c r="K9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5852.5</v>
       </c>
       <c r="L9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10605</v>
       </c>
       <c r="M9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10615</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z9">
+        <v>4</v>
+      </c>
+      <c r="AB9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>44951</v>
       </c>
@@ -34372,19 +34529,25 @@
         <v>1.0054347826086956</v>
       </c>
       <c r="K10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7430</v>
       </c>
       <c r="L10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12117.5</v>
       </c>
       <c r="M10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11540</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z10">
+        <v>4</v>
+      </c>
+      <c r="AB10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>44959</v>
       </c>
@@ -34407,19 +34570,25 @@
         <v>-1.4592391304347827</v>
       </c>
       <c r="K11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10682.5</v>
       </c>
       <c r="L11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10775</v>
       </c>
       <c r="M11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10197.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z11">
+        <v>4</v>
+      </c>
+      <c r="AB11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>44966</v>
       </c>
@@ -34442,19 +34611,25 @@
         <v>3.097826086956522</v>
       </c>
       <c r="K12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12627.5</v>
       </c>
       <c r="L12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13042.5</v>
       </c>
       <c r="M12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13047.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z12">
+        <v>3</v>
+      </c>
+      <c r="AB12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>44973</v>
       </c>
@@ -34486,19 +34661,25 @@
         <v>3.4239130434782608</v>
       </c>
       <c r="K13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12850</v>
       </c>
       <c r="L13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14715</v>
       </c>
       <c r="M13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13765</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z13">
+        <v>3</v>
+      </c>
+      <c r="AB13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>44980</v>
       </c>
@@ -34521,19 +34702,25 @@
         <v>-0.53804347826086951</v>
       </c>
       <c r="K14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15400</v>
       </c>
       <c r="L14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14220</v>
       </c>
       <c r="M14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13270</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z14">
+        <v>4</v>
+      </c>
+      <c r="AB14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>44987</v>
       </c>
@@ -34556,19 +34743,25 @@
         <v>1.5380434782608694</v>
       </c>
       <c r="K15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16135.5</v>
       </c>
       <c r="L15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15635</v>
       </c>
       <c r="M15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14685</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z15">
+        <v>4</v>
+      </c>
+      <c r="AB15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>44994</v>
       </c>
@@ -34591,19 +34784,25 @@
         <v>0.66032608695652173</v>
       </c>
       <c r="K16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17585.5</v>
       </c>
       <c r="L16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16242.5</v>
       </c>
       <c r="M16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15292.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Z16">
+        <v>4</v>
+      </c>
+      <c r="AB16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>45001</v>
       </c>
@@ -34635,19 +34834,25 @@
         <v>2.7880434782608692</v>
       </c>
       <c r="K17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>19423</v>
       </c>
       <c r="L17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16032.5</v>
       </c>
       <c r="M17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16330</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Z17">
+        <v>4</v>
+      </c>
+      <c r="AB17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>45008</v>
       </c>
@@ -34670,19 +34875,25 @@
         <v>1.4211956521739131</v>
       </c>
       <c r="K18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>19870.5</v>
       </c>
       <c r="L18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17720</v>
       </c>
       <c r="M18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17637.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Z18">
+        <v>4</v>
+      </c>
+      <c r="AB18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>45014</v>
       </c>
@@ -34705,19 +34916,25 @@
         <v>1.3342391304347827</v>
       </c>
       <c r="K19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>21410.5</v>
       </c>
       <c r="L19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>18947.5</v>
       </c>
       <c r="M19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>18865</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Z19">
+        <v>3</v>
+      </c>
+      <c r="AB19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>45022</v>
       </c>
@@ -34740,19 +34957,25 @@
         <v>1.638586956521739</v>
       </c>
       <c r="K20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>23125.5</v>
       </c>
       <c r="L20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20622.5</v>
       </c>
       <c r="M20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20372.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Z20">
+        <v>4</v>
+      </c>
+      <c r="AB20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>45029</v>
       </c>
@@ -34784,19 +35007,25 @@
         <v>5.8233695652173907</v>
       </c>
       <c r="K21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24570.5</v>
       </c>
       <c r="L21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>21937.5</v>
       </c>
       <c r="M21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>21687.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Z21">
+        <v>4</v>
+      </c>
+      <c r="AB21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>45036</v>
       </c>
@@ -34819,19 +35048,25 @@
         <v>1.0570652173913044</v>
       </c>
       <c r="K22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>25570.5</v>
       </c>
       <c r="L22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>22910</v>
       </c>
       <c r="M22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>22660</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Z22">
+        <v>4</v>
+      </c>
+      <c r="AB22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>45043</v>
       </c>
@@ -34854,19 +35089,25 @@
         <v>1.5271739130434783</v>
       </c>
       <c r="K23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>27278</v>
       </c>
       <c r="L23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>22910</v>
       </c>
       <c r="M23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>24065</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Z23">
+        <v>3</v>
+      </c>
+      <c r="AB23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>45050</v>
       </c>
@@ -34889,19 +35130,25 @@
         <v>-0.27717391304347822</v>
       </c>
       <c r="K24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>28430.5</v>
       </c>
       <c r="L24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>22655</v>
       </c>
       <c r="M24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>23810</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Z24">
+        <v>4</v>
+      </c>
+      <c r="AB24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>45057</v>
       </c>
@@ -34933,19 +35180,25 @@
         <v>3.9429347826086958</v>
       </c>
       <c r="K25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>28515.5</v>
       </c>
       <c r="L25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>23352.5</v>
       </c>
       <c r="M25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>25315</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Z25">
+        <v>3</v>
+      </c>
+      <c r="AB25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>45064</v>
       </c>
@@ -34968,19 +35221,25 @@
         <v>0.13858695652173911</v>
       </c>
       <c r="K26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>29478</v>
       </c>
       <c r="L26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>23480</v>
       </c>
       <c r="M26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>25442.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Z26">
+        <v>3</v>
+      </c>
+      <c r="AB26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>45071</v>
       </c>
@@ -35003,19 +35262,25 @@
         <v>1.0271739130434783</v>
       </c>
       <c r="K27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>31283</v>
       </c>
       <c r="L27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>24372.5</v>
       </c>
       <c r="M27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>26387.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Z27">
+        <v>4</v>
+      </c>
+      <c r="AB27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>45078</v>
       </c>
@@ -35038,19 +35303,25 @@
         <v>0.33967391304347827</v>
       </c>
       <c r="K28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>31830.5</v>
       </c>
       <c r="L28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>24685</v>
       </c>
       <c r="M28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>26700</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Z28">
+        <v>4</v>
+      </c>
+      <c r="AB28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>45085</v>
       </c>
@@ -35082,19 +35353,25 @@
         <v>3.0706521739130435</v>
       </c>
       <c r="K29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>33443</v>
       </c>
       <c r="L29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>26125</v>
       </c>
       <c r="M29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>28140</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Z29">
+        <v>3</v>
+      </c>
+      <c r="AB29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>45092</v>
       </c>
@@ -35117,19 +35394,25 @@
         <v>1.3423913043478259</v>
       </c>
       <c r="K30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>34865.5</v>
       </c>
       <c r="L30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>27360</v>
       </c>
       <c r="M30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>29375</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Z30">
+        <v>3</v>
+      </c>
+      <c r="AB30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>45099</v>
       </c>
@@ -35152,19 +35435,25 @@
         <v>-4.0760869565217392E-2</v>
       </c>
       <c r="K31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>33820.5</v>
       </c>
       <c r="L31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>27322.5</v>
       </c>
       <c r="M31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>29337.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Z31">
+        <v>4</v>
+      </c>
+      <c r="AB31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>45106</v>
       </c>
@@ -35187,19 +35476,22 @@
         <v>1.3913043478260869</v>
       </c>
       <c r="K32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>35100.5</v>
       </c>
       <c r="L32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>28602.5</v>
       </c>
       <c r="M32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30617.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="AB32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>45113</v>
       </c>
@@ -35231,19 +35523,25 @@
         <v>4.1847826086956523</v>
       </c>
       <c r="K33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>36473</v>
       </c>
       <c r="L33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>29975</v>
       </c>
       <c r="M33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31990</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Z33">
+        <v>4</v>
+      </c>
+      <c r="AB33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>45120</v>
       </c>
@@ -35266,19 +35564,25 @@
         <v>1.8152173913043479</v>
       </c>
       <c r="K34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>38143</v>
       </c>
       <c r="L34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31645</v>
       </c>
       <c r="M34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33660</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Z34">
+        <v>2</v>
+      </c>
+      <c r="AB34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>45127</v>
       </c>
@@ -35301,19 +35605,25 @@
         <v>0.52989130434782605</v>
       </c>
       <c r="K35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>39945.5</v>
       </c>
       <c r="L35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32132.5</v>
       </c>
       <c r="M35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>34147.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Z35">
+        <v>4</v>
+      </c>
+      <c r="AB35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>45134</v>
       </c>
@@ -35336,19 +35646,25 @@
         <v>1.951086956521739</v>
       </c>
       <c r="K36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>41555.5</v>
       </c>
       <c r="L36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33927.5</v>
       </c>
       <c r="M36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>35942.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Z36">
+        <v>2</v>
+      </c>
+      <c r="AB36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>45141</v>
       </c>
@@ -35380,19 +35696,25 @@
         <v>5.8885869565217392</v>
       </c>
       <c r="K37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>43605.5</v>
       </c>
       <c r="L37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>35617.5</v>
       </c>
       <c r="M37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>37407.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Z37">
+        <v>4</v>
+      </c>
+      <c r="AB37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>45148</v>
       </c>
@@ -35415,19 +35737,25 @@
         <v>1.6630434782608696</v>
       </c>
       <c r="K38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>44998</v>
       </c>
       <c r="L38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>37147.5</v>
       </c>
       <c r="M38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>38937.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Z38">
+        <v>3</v>
+      </c>
+      <c r="AB38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>45155</v>
       </c>
@@ -35450,19 +35778,25 @@
         <v>0.19836956521739132</v>
       </c>
       <c r="K39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>44880.5</v>
       </c>
       <c r="L39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>37330</v>
       </c>
       <c r="M39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>39120</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Z39">
+        <v>3</v>
+      </c>
+      <c r="AB39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>45162</v>
       </c>
@@ -35485,19 +35819,25 @@
         <v>0.99456521739130432</v>
       </c>
       <c r="K40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>46135.5</v>
       </c>
       <c r="L40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>38562.5</v>
       </c>
       <c r="M40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>40035</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Z40">
+        <v>3</v>
+      </c>
+      <c r="AB40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>45169</v>
       </c>
@@ -35529,19 +35869,25 @@
         <v>4.4619565217391308</v>
       </c>
       <c r="K41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>46803</v>
       </c>
       <c r="L41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>40040</v>
       </c>
       <c r="M41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>41512.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Z41">
+        <v>3</v>
+      </c>
+      <c r="AB41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>45176</v>
       </c>
@@ -35564,19 +35910,25 @@
         <v>0.84239130434782605</v>
       </c>
       <c r="K42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>48030.5</v>
       </c>
       <c r="L42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>40550</v>
       </c>
       <c r="M42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>42287.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Z42">
+        <v>4</v>
+      </c>
+      <c r="AB42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>45183</v>
       </c>
@@ -35599,19 +35951,25 @@
         <v>1.4130434782608696</v>
       </c>
       <c r="K43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>48990.5</v>
       </c>
       <c r="L43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>41850</v>
       </c>
       <c r="M43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>43587.5</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Z43">
+        <v>4</v>
+      </c>
+      <c r="AB43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>45190</v>
       </c>
@@ -35634,19 +35992,25 @@
         <v>1.1630434782608696</v>
       </c>
       <c r="K44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>50295.5</v>
       </c>
       <c r="L44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>41569</v>
       </c>
       <c r="M44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>44657.5</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Z44">
+        <v>4</v>
+      </c>
+      <c r="AB44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>45197</v>
       </c>
@@ -35678,19 +36042,25 @@
         <v>4.6521739130434785</v>
       </c>
       <c r="K45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>51033</v>
       </c>
       <c r="L45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>42704</v>
       </c>
       <c r="M45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45792.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Z45">
+        <v>4</v>
+      </c>
+      <c r="AB45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>45204</v>
       </c>
@@ -35713,19 +36083,25 @@
         <v>1.2608695652173914</v>
       </c>
       <c r="K46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>51105.5</v>
       </c>
       <c r="L46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>44221.5</v>
       </c>
       <c r="M46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>46952.5</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Z46">
+        <v>3</v>
+      </c>
+      <c r="AB46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>45211</v>
       </c>
@@ -35748,19 +36124,25 @@
         <v>1.5733695652173914</v>
       </c>
       <c r="K47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>51443</v>
       </c>
       <c r="L47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>44709</v>
       </c>
       <c r="M47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>48400</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Z47">
+        <v>3</v>
+      </c>
+      <c r="AB47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>45218</v>
       </c>
@@ -35783,19 +36165,25 @@
         <v>1.5353260869565217</v>
       </c>
       <c r="K48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>52690.5</v>
       </c>
       <c r="L48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>46121.5</v>
       </c>
       <c r="M48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>49812.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Z48">
+        <v>3</v>
+      </c>
+      <c r="AB48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>45225</v>
       </c>
@@ -35827,19 +36215,25 @@
         <v>3.6576086956521743</v>
       </c>
       <c r="K49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>53350.5</v>
       </c>
       <c r="L49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45466.5</v>
       </c>
       <c r="M49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>49157.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Z49">
+        <v>4</v>
+      </c>
+      <c r="AB49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>45232</v>
       </c>
@@ -35865,19 +36259,25 @@
         <v>14</v>
       </c>
       <c r="K50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>55330.5</v>
       </c>
       <c r="L50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>46701.5</v>
       </c>
       <c r="M50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>51390</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Z50">
+        <v>4</v>
+      </c>
+      <c r="AB50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>45239</v>
       </c>
@@ -35900,19 +36300,25 @@
         <v>1.652173913043478</v>
       </c>
       <c r="K51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>56760.5</v>
       </c>
       <c r="L51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>48221.5</v>
       </c>
       <c r="M51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>52910</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Z51">
+        <v>3</v>
+      </c>
+      <c r="AB51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>45246</v>
       </c>
@@ -35935,19 +36341,25 @@
         <v>-4.3478260869565216E-2</v>
       </c>
       <c r="K52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>58230.5</v>
       </c>
       <c r="L52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>47694</v>
       </c>
       <c r="M52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>52870</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Z52">
+        <v>4</v>
+      </c>
+      <c r="AB52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>45253</v>
       </c>
@@ -35979,19 +36391,25 @@
         <v>5.524456521739129</v>
       </c>
       <c r="K53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>58003</v>
       </c>
       <c r="L53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>49064</v>
       </c>
       <c r="M53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>54240</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Z53">
+        <v>3</v>
+      </c>
+      <c r="AB53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>45260</v>
       </c>
@@ -36014,19 +36432,25 @@
         <v>0.91847826086956519</v>
       </c>
       <c r="K54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>59665.5</v>
       </c>
       <c r="L54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>49579</v>
       </c>
       <c r="M54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>55085</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Z54">
+        <v>4</v>
+      </c>
+      <c r="AB54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>45267</v>
       </c>
@@ -36049,19 +36473,25 @@
         <v>-5.3777173913043477</v>
       </c>
       <c r="K55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>56198</v>
       </c>
       <c r="L55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>44631.5</v>
       </c>
       <c r="M55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50137.5</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Z55">
+        <v>4</v>
+      </c>
+      <c r="AB55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>45274</v>
       </c>
@@ -36084,19 +36514,25 @@
         <v>2.2309782608695654</v>
       </c>
       <c r="K56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>55553</v>
       </c>
       <c r="L56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>46684</v>
       </c>
       <c r="M56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>52190</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Z56">
+        <v>3</v>
+      </c>
+      <c r="AB56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>45281</v>
       </c>
@@ -36128,19 +36564,25 @@
         <v>-2.7228260869565211</v>
       </c>
       <c r="K57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>57270.5</v>
       </c>
       <c r="L57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>44034</v>
       </c>
       <c r="M57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>51735</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Z57">
+        <v>4</v>
+      </c>
+      <c r="AB57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>45288</v>
       </c>
@@ -36163,19 +36605,25 @@
         <v>2.2146739130434785</v>
       </c>
       <c r="K58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>59315.5</v>
       </c>
       <c r="L58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>46071.5</v>
       </c>
       <c r="M58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>53772.5</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Z58">
+        <v>4</v>
+      </c>
+      <c r="AB58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>45295</v>
       </c>
@@ -36198,19 +36646,25 @@
         <v>2.7826086956521738</v>
       </c>
       <c r="K59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60428</v>
       </c>
       <c r="L59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>48631.5</v>
       </c>
       <c r="M59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>56332.5</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Z59">
+        <v>3</v>
+      </c>
+      <c r="AB59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>45302</v>
       </c>
@@ -36233,19 +36687,25 @@
         <v>0.91847826086956519</v>
       </c>
       <c r="K60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>61053</v>
       </c>
       <c r="L60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>49736.5</v>
       </c>
       <c r="M60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>57177.5</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Z60">
+        <v>4</v>
+      </c>
+      <c r="AB60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>45309</v>
       </c>
@@ -36277,19 +36737,25 @@
         <v>4.4375</v>
       </c>
       <c r="K61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>62528</v>
       </c>
       <c r="L61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>44736.5</v>
       </c>
       <c r="M61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>55817.5</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Z61">
+        <v>4</v>
+      </c>
+      <c r="AB61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>45316</v>
       </c>
@@ -36312,19 +36778,22 @@
         <v>1.6059782608695652</v>
       </c>
       <c r="K62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>65068</v>
       </c>
       <c r="L62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45084</v>
       </c>
       <c r="M62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>57295</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="AB62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>45323</v>
       </c>
@@ -36347,19 +36816,25 @@
         <v>1.7336956521739131</v>
       </c>
       <c r="K63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>67655.5</v>
       </c>
       <c r="L63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>47804</v>
       </c>
       <c r="M63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>58890</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Z63">
+        <v>4</v>
+      </c>
+      <c r="AB63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>45330</v>
       </c>
@@ -36382,19 +36857,25 @@
         <v>-1.2608695652173914</v>
       </c>
       <c r="K64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>66053</v>
       </c>
       <c r="L64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>44841.5</v>
       </c>
       <c r="M64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>57730</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Z64">
+        <v>3</v>
+      </c>
+      <c r="AB64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>45337</v>
       </c>
@@ -36426,19 +36907,25 @@
         <v>4.8396739130434785</v>
       </c>
       <c r="K65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>69555.5</v>
       </c>
       <c r="L65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>47579</v>
       </c>
       <c r="M65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>60270</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Z65">
+        <v>4</v>
+      </c>
+      <c r="AB65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>45344</v>
       </c>
@@ -36461,19 +36948,25 @@
         <v>2.8994565217391304</v>
       </c>
       <c r="K66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>71840.5</v>
       </c>
       <c r="L66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50246.5</v>
       </c>
       <c r="M66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>62937.5</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Z66">
+        <v>3</v>
+      </c>
+      <c r="AB66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>45351</v>
       </c>
@@ -36496,16 +36989,40 @@
         <v>1.5298913043478262</v>
       </c>
       <c r="K67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>74193</v>
       </c>
       <c r="L67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50551.5</v>
       </c>
       <c r="M67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>64345</v>
+      </c>
+      <c r="Z67">
+        <v>4</v>
+      </c>
+      <c r="AB67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="L69">
+        <f>K67-M67</f>
+        <v>9848</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="L70">
+        <f>K67-L67</f>
+        <v>23641.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="L71">
+        <f>M67-L67</f>
+        <v>13793.5</v>
       </c>
     </row>
   </sheetData>

--- a/Zerodha_GUI/Kite_Zerodha-main/Kite_Zerodha-main/Startjee.xlsx
+++ b/Zerodha_GUI/Kite_Zerodha-main/Kite_Zerodha-main/Startjee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ashu\Finance\algo_trading\Zerodha_GUI\Kite_Zerodha-main\Kite_Zerodha-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A49C3B-C710-42B3-8E08-0D960ED6ED11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5970F341-A788-4445-BD6E-2357F07726F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{111B81BB-D847-4952-A3F9-2C9FB2D32C52}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{111B81BB-D847-4952-A3F9-2C9FB2D32C52}"/>
   </bookViews>
   <sheets>
     <sheet name="Imp Events and Explanation" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="935">
   <si>
     <t>Date</t>
   </si>
@@ -2291,9 +2291,6 @@
   </si>
   <si>
     <t>Put Strike</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>13-10-2023(02:20)</t>
@@ -3828,7 +3825,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6171,7 +6168,7 @@
         <v>1.5978260869565215</v>
       </c>
       <c r="M52" s="12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="N52">
         <v>-0.57336956521739135</v>
@@ -6861,8 +6858,8 @@
   <dimension ref="A1:BE418"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33:XFD33"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE96" sqref="AE96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14149,16 +14146,16 @@
     </row>
     <row r="347" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B347" t="s">
+        <v>752</v>
+      </c>
+      <c r="H347" t="s">
         <v>753</v>
       </c>
-      <c r="H347" t="s">
-        <v>754</v>
-      </c>
       <c r="AJ347" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="AK347" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="AL347">
         <v>19450</v>
@@ -14191,12 +14188,12 @@
         <v>14.1</v>
       </c>
       <c r="AQ348" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="349" spans="1:50" x14ac:dyDescent="0.25">
       <c r="H349" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="350" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -14239,10 +14236,10 @@
     </row>
     <row r="352" spans="1:50" x14ac:dyDescent="0.25">
       <c r="H352" t="s">
+        <v>763</v>
+      </c>
+      <c r="I352" t="s">
         <v>764</v>
-      </c>
-      <c r="I352" t="s">
-        <v>765</v>
       </c>
       <c r="J352">
         <v>19800</v>
@@ -14259,10 +14256,10 @@
         <v>7.6</v>
       </c>
       <c r="AD352" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AJ352" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="353" spans="1:43" x14ac:dyDescent="0.25">
@@ -14270,7 +14267,7 @@
         <v>406</v>
       </c>
       <c r="P353" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="Q353">
         <v>19750</v>
@@ -14307,10 +14304,10 @@
     </row>
     <row r="354" spans="1:43" x14ac:dyDescent="0.25">
       <c r="V354" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="W354" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="X354">
         <v>19700</v>
@@ -14327,15 +14324,15 @@
         <v>5</v>
       </c>
       <c r="AD354" t="s">
+        <v>765</v>
+      </c>
+      <c r="AJ354" t="s">
         <v>766</v>
-      </c>
-      <c r="AJ354" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="355" spans="1:43" x14ac:dyDescent="0.25">
       <c r="AC355" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="AE355">
         <v>18950</v>
@@ -14358,10 +14355,10 @@
     </row>
     <row r="356" spans="1:43" x14ac:dyDescent="0.25">
       <c r="AD356" t="s">
+        <v>768</v>
+      </c>
+      <c r="AJ356" t="s">
         <v>769</v>
-      </c>
-      <c r="AJ356" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="357" spans="1:43" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -14400,7 +14397,7 @@
     </row>
     <row r="359" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B359" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D359">
         <v>17.5</v>
@@ -14409,10 +14406,10 @@
         <v>17.5</v>
       </c>
       <c r="AJ359" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="AK359" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AL359">
         <v>18650</v>
@@ -14431,10 +14428,10 @@
     </row>
     <row r="360" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B360" t="s">
+        <v>784</v>
+      </c>
+      <c r="H360" t="s">
         <v>785</v>
-      </c>
-      <c r="H360" t="s">
-        <v>786</v>
       </c>
       <c r="AQ360" t="s">
         <v>444</v>
@@ -14458,7 +14455,7 @@
     </row>
     <row r="362" spans="1:43" x14ac:dyDescent="0.25">
       <c r="H362" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="363" spans="1:43" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -14553,10 +14550,10 @@
         <v>-24.950000000000003</v>
       </c>
       <c r="AJ368" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AK368" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="AL368">
         <v>19150</v>
@@ -14575,16 +14572,16 @@
     </row>
     <row r="369" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B369" t="s">
+        <v>797</v>
+      </c>
+      <c r="H369" t="s">
         <v>798</v>
-      </c>
-      <c r="H369" t="s">
-        <v>799</v>
       </c>
       <c r="AQ369" t="s">
         <v>370</v>
       </c>
       <c r="AR369" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="AS369">
         <v>19200</v>
@@ -14624,7 +14621,7 @@
         <v>479</v>
       </c>
       <c r="AY370" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="AZ370">
         <v>19250</v>
@@ -14643,7 +14640,7 @@
     </row>
     <row r="371" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B371" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D371">
         <v>10.65</v>
@@ -14656,7 +14653,7 @@
         <v>0</v>
       </c>
       <c r="BE371" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="372" spans="1:57" x14ac:dyDescent="0.25">
@@ -14673,10 +14670,10 @@
     </row>
     <row r="373" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B373" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H373" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="374" spans="1:57" x14ac:dyDescent="0.25">
@@ -14697,7 +14694,7 @@
     </row>
     <row r="375" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B375" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H375" t="s">
         <v>411</v>
@@ -14739,10 +14736,10 @@
     </row>
     <row r="378" spans="1:57" x14ac:dyDescent="0.25">
       <c r="H378" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AJ378" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="379" spans="1:57" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -14798,7 +14795,7 @@
         <v>541</v>
       </c>
       <c r="AK381" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="AL381">
         <v>19650</v>
@@ -14817,16 +14814,16 @@
     </row>
     <row r="382" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B382" t="s">
+        <v>820</v>
+      </c>
+      <c r="H382" t="s">
         <v>821</v>
-      </c>
-      <c r="H382" t="s">
-        <v>822</v>
       </c>
       <c r="AQ382" t="s">
         <v>501</v>
       </c>
       <c r="AR382" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AS382">
         <v>19700</v>
@@ -14871,10 +14868,10 @@
     </row>
     <row r="384" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B384" t="s">
+        <v>822</v>
+      </c>
+      <c r="H384" t="s">
         <v>823</v>
-      </c>
-      <c r="H384" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="385" spans="1:57" x14ac:dyDescent="0.25">
@@ -14946,10 +14943,10 @@
         <v>-80.25</v>
       </c>
       <c r="AJ389" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AK389" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="AL389">
         <v>19950</v>
@@ -14968,16 +14965,16 @@
     </row>
     <row r="390" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B390" t="s">
+        <v>830</v>
+      </c>
+      <c r="H390" t="s">
         <v>831</v>
-      </c>
-      <c r="H390" t="s">
-        <v>832</v>
       </c>
       <c r="AQ390" t="s">
         <v>370</v>
       </c>
       <c r="AR390" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="AS390">
         <v>20000</v>
@@ -15014,10 +15011,10 @@
         <v>-37.450000000000003</v>
       </c>
       <c r="AX391" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="AY391" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AZ391">
         <v>20050</v>
@@ -15036,13 +15033,13 @@
     </row>
     <row r="392" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B392" t="s">
+        <v>832</v>
+      </c>
+      <c r="H392" t="s">
         <v>833</v>
       </c>
-      <c r="H392" t="s">
-        <v>834</v>
-      </c>
       <c r="BE392" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="393" spans="1:57" x14ac:dyDescent="0.25">
@@ -15067,10 +15064,10 @@
     </row>
     <row r="394" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B394" t="s">
+        <v>834</v>
+      </c>
+      <c r="H394" t="s">
         <v>835</v>
-      </c>
-      <c r="H394" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="395" spans="1:57" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -15109,7 +15106,7 @@
     </row>
     <row r="397" spans="1:57" x14ac:dyDescent="0.25">
       <c r="H397" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="AJ397" t="s">
         <v>610</v>
@@ -15159,10 +15156,10 @@
     </row>
     <row r="400" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B400" t="s">
+        <v>852</v>
+      </c>
+      <c r="H400" t="s">
         <v>853</v>
-      </c>
-      <c r="H400" t="s">
-        <v>854</v>
       </c>
       <c r="AF400">
         <v>21.25</v>
@@ -15171,7 +15168,7 @@
         <v>21.25</v>
       </c>
       <c r="AK400" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="AL400">
         <v>21050</v>
@@ -15208,13 +15205,13 @@
         <v>-12.85</v>
       </c>
       <c r="AD401" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AJ401" t="s">
         <v>482</v>
       </c>
       <c r="AK401" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="AQ401" t="s">
         <v>411</v>
@@ -15222,7 +15219,7 @@
     </row>
     <row r="402" spans="1:43" x14ac:dyDescent="0.25">
       <c r="H402" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="403" spans="1:43" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -15265,16 +15262,16 @@
     </row>
     <row r="405" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B405" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H405" t="s">
         <v>546</v>
       </c>
       <c r="AJ405" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AK405" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="AL405">
         <v>20950</v>
@@ -15312,7 +15309,7 @@
     </row>
     <row r="407" spans="1:43" x14ac:dyDescent="0.25">
       <c r="H407" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="408" spans="1:43" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -15351,10 +15348,10 @@
     </row>
     <row r="410" spans="1:43" x14ac:dyDescent="0.25">
       <c r="H410" t="s">
+        <v>884</v>
+      </c>
+      <c r="AJ410" t="s">
         <v>885</v>
-      </c>
-      <c r="AJ410" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="411" spans="1:43" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -15397,10 +15394,10 @@
     </row>
     <row r="413" spans="1:43" x14ac:dyDescent="0.25">
       <c r="H413" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I413" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="J413">
         <v>22050</v>
@@ -15417,18 +15414,18 @@
         <v>21</v>
       </c>
       <c r="AD413" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="AJ413" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="414" spans="1:43" x14ac:dyDescent="0.25">
       <c r="O414" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="P414" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="Q414">
         <v>22000</v>
@@ -15464,7 +15461,7 @@
         <v>287</v>
       </c>
       <c r="W415" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="X415">
         <v>21950</v>
@@ -15481,7 +15478,7 @@
         <v>7.6</v>
       </c>
       <c r="AD415" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="AJ415" t="s">
         <v>411</v>
@@ -15508,7 +15505,7 @@
     </row>
     <row r="417" spans="30:36" x14ac:dyDescent="0.25">
       <c r="AD417" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="AJ417" t="s">
         <v>411</v>
@@ -15526,8 +15523,8 @@
   <dimension ref="A1:BE624"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I246" sqref="I246"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28188,7 +28185,7 @@
         <v>17.400000000000002</v>
       </c>
       <c r="AK509" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AL509">
         <v>19450</v>
@@ -28210,10 +28207,10 @@
         <v>45218</v>
       </c>
       <c r="B510" t="s">
+        <v>757</v>
+      </c>
+      <c r="H510" t="s">
         <v>758</v>
-      </c>
-      <c r="H510" t="s">
-        <v>759</v>
       </c>
       <c r="AF510">
         <v>22.1</v>
@@ -28263,10 +28260,10 @@
         <v>-4.95</v>
       </c>
       <c r="AD511" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="AJ511" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AM511">
         <v>15.1</v>
@@ -28302,10 +28299,10 @@
         <v>-2.3499999999999996</v>
       </c>
       <c r="AK512" t="s">
+        <v>760</v>
+      </c>
+      <c r="AQ512" t="s">
         <v>761</v>
-      </c>
-      <c r="AQ512" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="513" spans="1:49" x14ac:dyDescent="0.25">
@@ -28390,7 +28387,7 @@
         <v>12.600000000000001</v>
       </c>
       <c r="I517" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="J517">
         <v>19800</v>
@@ -28426,10 +28423,10 @@
         <v>45225</v>
       </c>
       <c r="B518" t="s">
+        <v>778</v>
+      </c>
+      <c r="H518" t="s">
         <v>779</v>
-      </c>
-      <c r="H518" t="s">
-        <v>780</v>
       </c>
       <c r="K518">
         <v>7.2</v>
@@ -28446,7 +28443,7 @@
         <v>4.8000000000000007</v>
       </c>
       <c r="P518" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="Q518">
         <v>19750</v>
@@ -28463,10 +28460,10 @@
         <v>-5.2</v>
       </c>
       <c r="AD518" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="AJ518" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="519" spans="1:49" x14ac:dyDescent="0.25">
@@ -28474,10 +28471,10 @@
         <v>45225</v>
       </c>
       <c r="I519" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="O519" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="R519">
         <v>5.2</v>
@@ -28494,7 +28491,7 @@
         <v>2.7</v>
       </c>
       <c r="W519" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="X519">
         <v>19700</v>
@@ -28530,13 +28527,13 @@
         <v>45225</v>
       </c>
       <c r="Q520" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="V520" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="W520" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="Y520">
         <v>6</v>
@@ -28572,13 +28569,13 @@
         <v>45225</v>
       </c>
       <c r="AC521" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AD521" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AJ521" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="522" spans="1:49" x14ac:dyDescent="0.25">
@@ -28605,10 +28602,10 @@
         <v>45225</v>
       </c>
       <c r="AD523" t="s">
+        <v>774</v>
+      </c>
+      <c r="AJ523" t="s">
         <v>775</v>
-      </c>
-      <c r="AJ523" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="524" spans="1:49" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -28662,10 +28659,10 @@
         <v>0.30000000000000071</v>
       </c>
       <c r="AJ526" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="AK526" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AL526">
         <v>18650</v>
@@ -28683,16 +28680,16 @@
         <v>45232</v>
       </c>
       <c r="B527" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H527" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="AQ527" t="s">
         <v>444</v>
       </c>
       <c r="AR527" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AS527">
         <v>18700</v>
@@ -28761,7 +28758,7 @@
         <v>-4.8499999999999996</v>
       </c>
       <c r="AR529" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="AX529" t="s">
         <v>652</v>
@@ -28772,10 +28769,10 @@
         <v>45232</v>
       </c>
       <c r="B530" t="s">
+        <v>789</v>
+      </c>
+      <c r="H530" t="s">
         <v>790</v>
-      </c>
-      <c r="H530" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="531" spans="1:55" x14ac:dyDescent="0.25">
@@ -28798,7 +28795,7 @@
         <v>45232</v>
       </c>
       <c r="H532" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="533" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -28855,7 +28852,7 @@
         <v>414</v>
       </c>
       <c r="AK535" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="AL535">
         <v>19050</v>
@@ -28873,13 +28870,13 @@
         <v>45239</v>
       </c>
       <c r="B536" t="s">
+        <v>793</v>
+      </c>
+      <c r="H536" t="s">
         <v>794</v>
       </c>
-      <c r="H536" t="s">
-        <v>795</v>
-      </c>
       <c r="AQ536" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="537" spans="1:55" x14ac:dyDescent="0.25">
@@ -28914,7 +28911,7 @@
         <v>45239</v>
       </c>
       <c r="H539" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="540" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -28968,10 +28965,10 @@
         <v>-10.3</v>
       </c>
       <c r="AJ542" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AK542" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="AL542">
         <v>19150</v>
@@ -28989,16 +28986,16 @@
         <v>45246</v>
       </c>
       <c r="B543" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H543" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="AQ543" t="s">
         <v>714</v>
       </c>
       <c r="AR543" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="AS543">
         <v>19200</v>
@@ -29033,7 +29030,7 @@
         <v>423</v>
       </c>
       <c r="AY544" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AZ544">
         <v>19250</v>
@@ -29065,7 +29062,7 @@
         <v>-1.0500000000000007</v>
       </c>
       <c r="BE545" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="546" spans="1:57" x14ac:dyDescent="0.25">
@@ -29088,10 +29085,10 @@
         <v>45246</v>
       </c>
       <c r="B547" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H547" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="548" spans="1:57" x14ac:dyDescent="0.25">
@@ -29156,10 +29153,10 @@
         <v>45246</v>
       </c>
       <c r="B551" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="H551" t="s">
         <v>811</v>
-      </c>
-      <c r="H551" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="552" spans="1:57" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -29215,7 +29212,7 @@
         <v>1.4000000000000004</v>
       </c>
       <c r="I554" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="J554">
         <v>20000</v>
@@ -29251,7 +29248,7 @@
         <v>45253</v>
       </c>
       <c r="B555" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H555" t="s">
         <v>288</v>
@@ -29271,10 +29268,10 @@
         <v>-8.2999999999999989</v>
       </c>
       <c r="AD555" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="AJ555" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="556" spans="1:57" x14ac:dyDescent="0.25">
@@ -29282,10 +29279,10 @@
         <v>45253</v>
       </c>
       <c r="I556" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O556" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AE556">
         <v>19300</v>
@@ -29326,10 +29323,10 @@
         <v>45253</v>
       </c>
       <c r="AD558" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="AJ558" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="559" spans="1:57" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -29386,7 +29383,7 @@
         <v>541</v>
       </c>
       <c r="AK561" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="AL561">
         <v>19650</v>
@@ -29404,16 +29401,16 @@
         <v>45260</v>
       </c>
       <c r="B562" t="s">
+        <v>824</v>
+      </c>
+      <c r="H562" t="s">
         <v>825</v>
       </c>
-      <c r="H562" t="s">
-        <v>826</v>
-      </c>
       <c r="AQ562" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="AR562" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="AS562">
         <v>19700</v>
@@ -29445,7 +29442,7 @@
         <v>-1.2</v>
       </c>
       <c r="AX563" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="564" spans="1:57" x14ac:dyDescent="0.25">
@@ -29487,10 +29484,10 @@
         <v>45260</v>
       </c>
       <c r="B566" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H566" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="567" spans="1:57" x14ac:dyDescent="0.25">
@@ -29513,7 +29510,7 @@
         <v>45260</v>
       </c>
       <c r="H568" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="569" spans="1:57" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -29567,10 +29564,10 @@
         <v>-14.850000000000001</v>
       </c>
       <c r="AJ571" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AK571" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="AL571">
         <v>19950</v>
@@ -29601,7 +29598,7 @@
         <v>370</v>
       </c>
       <c r="AR572" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AS572">
         <v>20000</v>
@@ -29619,16 +29616,16 @@
         <v>45267</v>
       </c>
       <c r="B573" t="s">
+        <v>830</v>
+      </c>
+      <c r="H573" t="s">
         <v>831</v>
       </c>
-      <c r="H573" t="s">
-        <v>832</v>
-      </c>
       <c r="AX573" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="AY573" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="AZ573">
         <v>20050</v>
@@ -29660,7 +29657,7 @@
         <v>-37.450000000000003</v>
       </c>
       <c r="BE574" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="575" spans="1:57" x14ac:dyDescent="0.25">
@@ -29687,10 +29684,10 @@
         <v>45267</v>
       </c>
       <c r="B576" t="s">
+        <v>839</v>
+      </c>
+      <c r="H576" t="s">
         <v>840</v>
-      </c>
-      <c r="H576" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="577" spans="1:42" x14ac:dyDescent="0.25">
@@ -29717,10 +29714,10 @@
         <v>45267</v>
       </c>
       <c r="B578" t="s">
+        <v>841</v>
+      </c>
+      <c r="H578" t="s">
         <v>842</v>
-      </c>
-      <c r="H578" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="579" spans="1:42" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -29778,7 +29775,7 @@
         <v>-1.5</v>
       </c>
       <c r="I581" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="J581">
         <v>21250</v>
@@ -29814,10 +29811,10 @@
         <v>45274</v>
       </c>
       <c r="B582" t="s">
+        <v>846</v>
+      </c>
+      <c r="H582" t="s">
         <v>847</v>
-      </c>
-      <c r="H582" t="s">
-        <v>848</v>
       </c>
       <c r="K582">
         <v>19.649999999999999</v>
@@ -29834,10 +29831,10 @@
         <v>-12.550000000000004</v>
       </c>
       <c r="AD582" t="s">
+        <v>848</v>
+      </c>
+      <c r="AJ582" t="s">
         <v>849</v>
-      </c>
-      <c r="AJ582" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="583" spans="1:42" x14ac:dyDescent="0.25">
@@ -29845,10 +29842,10 @@
         <v>45274</v>
       </c>
       <c r="I583" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="O583" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="AE583">
         <v>20500</v>
@@ -29965,10 +29962,10 @@
         <v>45274</v>
       </c>
       <c r="AD589" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="AJ589" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="590" spans="1:42" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -30040,7 +30037,7 @@
         <v>16.350000000000001</v>
       </c>
       <c r="AK592" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AL592">
         <v>21050</v>
@@ -30062,16 +30059,16 @@
         <v>45281</v>
       </c>
       <c r="B593" t="s">
+        <v>858</v>
+      </c>
+      <c r="H593" t="s">
         <v>859</v>
       </c>
-      <c r="H593" t="s">
-        <v>860</v>
-      </c>
       <c r="AD593" t="s">
+        <v>864</v>
+      </c>
+      <c r="AJ593" t="s">
         <v>865</v>
-      </c>
-      <c r="AJ593" t="s">
-        <v>866</v>
       </c>
       <c r="AM593">
         <v>21.25</v>
@@ -30088,7 +30085,7 @@
         <v>15.35</v>
       </c>
       <c r="AR593" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="AS593">
         <v>21100</v>
@@ -30124,7 +30121,7 @@
         <v>-10.75</v>
       </c>
       <c r="AK594" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="AM594">
         <v>21.25</v>
@@ -30155,7 +30152,7 @@
         <v>20.5</v>
       </c>
       <c r="AY594" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="AZ594">
         <v>21150</v>
@@ -30177,19 +30174,19 @@
         <v>45281</v>
       </c>
       <c r="B595" t="s">
+        <v>860</v>
+      </c>
+      <c r="H595" t="s">
         <v>861</v>
       </c>
-      <c r="H595" t="s">
-        <v>862</v>
-      </c>
       <c r="AQ595" t="s">
+        <v>866</v>
+      </c>
+      <c r="AR595" t="s">
+        <v>864</v>
+      </c>
+      <c r="AX595" t="s">
         <v>867</v>
-      </c>
-      <c r="AR595" t="s">
-        <v>865</v>
-      </c>
-      <c r="AX595" t="s">
-        <v>868</v>
       </c>
       <c r="BA595">
         <v>5.5</v>
@@ -30225,10 +30222,10 @@
         <v>-8.15</v>
       </c>
       <c r="AY596" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="BE596" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="597" spans="1:57" x14ac:dyDescent="0.25">
@@ -30255,10 +30252,10 @@
         <v>45281</v>
       </c>
       <c r="B598" t="s">
+        <v>862</v>
+      </c>
+      <c r="H598" t="s">
         <v>863</v>
-      </c>
-      <c r="H598" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="599" spans="1:57" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -30330,7 +30327,7 @@
         <v>-14.249999999999996</v>
       </c>
       <c r="AK601" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="AL601">
         <v>20950</v>
@@ -30352,10 +30349,10 @@
         <v>45288</v>
       </c>
       <c r="B602" t="s">
+        <v>872</v>
+      </c>
+      <c r="H602" t="s">
         <v>873</v>
-      </c>
-      <c r="H602" t="s">
-        <v>874</v>
       </c>
       <c r="AF602">
         <v>24.55</v>
@@ -30386,7 +30383,7 @@
         <v>-20.099999999999998</v>
       </c>
       <c r="AR602" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AS602">
         <v>21000</v>
@@ -30422,10 +30419,10 @@
         <v>-11.85</v>
       </c>
       <c r="AD603" t="s">
+        <v>878</v>
+      </c>
+      <c r="AJ603" t="s">
         <v>879</v>
-      </c>
-      <c r="AJ603" t="s">
-        <v>880</v>
       </c>
       <c r="AM603">
         <v>26.2</v>
@@ -30456,7 +30453,7 @@
         <v>1.4499999999999997</v>
       </c>
       <c r="AY603" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="AZ603">
         <v>21050</v>
@@ -30492,16 +30489,16 @@
         <v>8.25</v>
       </c>
       <c r="AK604" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="AQ604" t="s">
+        <v>880</v>
+      </c>
+      <c r="AR604" t="s">
         <v>881</v>
       </c>
-      <c r="AR604" t="s">
+      <c r="AX604" t="s">
         <v>882</v>
-      </c>
-      <c r="AX604" t="s">
-        <v>883</v>
       </c>
       <c r="BA604">
         <v>1.5</v>
@@ -30523,16 +30520,16 @@
         <v>45288</v>
       </c>
       <c r="B605" t="s">
+        <v>874</v>
+      </c>
+      <c r="H605" t="s">
         <v>875</v>
       </c>
-      <c r="H605" t="s">
-        <v>876</v>
-      </c>
       <c r="AY605" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="BE605" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="606" spans="1:57" x14ac:dyDescent="0.25">
@@ -30559,10 +30556,10 @@
         <v>45288</v>
       </c>
       <c r="B607" t="s">
+        <v>876</v>
+      </c>
+      <c r="H607" t="s">
         <v>877</v>
-      </c>
-      <c r="H607" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="608" spans="1:57" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -30634,7 +30631,7 @@
         <v>15.6</v>
       </c>
       <c r="AK610" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="AL610">
         <v>21350</v>
@@ -30656,10 +30653,10 @@
         <v>45295</v>
       </c>
       <c r="B611" t="s">
+        <v>886</v>
+      </c>
+      <c r="H611" t="s">
         <v>887</v>
-      </c>
-      <c r="H611" t="s">
-        <v>888</v>
       </c>
       <c r="AF611">
         <v>29</v>
@@ -30676,10 +30673,10 @@
         <v>16</v>
       </c>
       <c r="AK611" t="s">
+        <v>890</v>
+      </c>
+      <c r="AQ611" t="s">
         <v>891</v>
-      </c>
-      <c r="AQ611" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="612" spans="1:43" x14ac:dyDescent="0.25">
@@ -30697,10 +30694,10 @@
         <v>7.6</v>
       </c>
       <c r="AD612" t="s">
+        <v>888</v>
+      </c>
+      <c r="AJ612" t="s">
         <v>889</v>
-      </c>
-      <c r="AJ612" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="613" spans="1:43" x14ac:dyDescent="0.25">
@@ -30748,10 +30745,10 @@
         <v>45302</v>
       </c>
       <c r="H616" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I616" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="J616">
         <v>22050</v>
@@ -30790,7 +30787,7 @@
         <v>7.6</v>
       </c>
       <c r="P617" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="Q617">
         <v>22000</v>
@@ -30807,10 +30804,10 @@
         <v>-9.75</v>
       </c>
       <c r="AD617" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="AJ617" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="618" spans="1:43" x14ac:dyDescent="0.25">
@@ -30818,7 +30815,7 @@
         <v>45302</v>
       </c>
       <c r="O618" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="R618">
         <v>9.75</v>
@@ -30854,10 +30851,10 @@
         <v>45302</v>
       </c>
       <c r="P619" t="s">
+        <v>902</v>
+      </c>
+      <c r="V619" t="s">
         <v>903</v>
-      </c>
-      <c r="V619" t="s">
-        <v>904</v>
       </c>
       <c r="AF619">
         <v>15.4</v>
@@ -30898,10 +30895,10 @@
         <v>45302</v>
       </c>
       <c r="AD621" t="s">
+        <v>898</v>
+      </c>
+      <c r="AJ621" t="s">
         <v>899</v>
-      </c>
-      <c r="AJ621" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="622" spans="1:43" x14ac:dyDescent="0.25">
@@ -30947,25 +30944,26 @@
         <v>45302</v>
       </c>
       <c r="AD624" t="s">
+        <v>900</v>
+      </c>
+      <c r="AJ624" t="s">
         <v>901</v>
-      </c>
-      <c r="AJ624" t="s">
-        <v>902</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A624" xr:uid="{2668D988-44D8-4E32-8FCB-0B15E5EDAAA4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC77A329-7251-499A-9D87-F96780710E25}">
-  <dimension ref="A1:D212"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M33" sqref="M33"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31000,2956 +30998,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>43833</v>
+        <v>44939</v>
       </c>
       <c r="B2" s="5">
-        <v>43839</v>
+        <v>44945</v>
       </c>
       <c r="C2">
-        <v>12450</v>
+        <v>18200</v>
       </c>
       <c r="D2">
-        <v>12050</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>43840</v>
-      </c>
-      <c r="B3" s="5">
-        <v>43846</v>
-      </c>
-      <c r="C3">
-        <v>12450</v>
-      </c>
-      <c r="D3">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>43847</v>
-      </c>
-      <c r="B4" s="5">
-        <v>43853</v>
-      </c>
-      <c r="C4">
-        <v>12550</v>
-      </c>
-      <c r="D4">
-        <v>12150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>43854</v>
-      </c>
-      <c r="B5" s="5">
-        <v>43860</v>
-      </c>
-      <c r="C5">
-        <v>12400</v>
-      </c>
-      <c r="D5">
-        <v>11900</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>43861</v>
-      </c>
-      <c r="B6" s="5">
-        <v>43867</v>
-      </c>
-      <c r="C6">
-        <v>12500</v>
-      </c>
-      <c r="D6">
-        <v>11600</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>43868</v>
-      </c>
-      <c r="B7" s="5">
-        <v>43874</v>
-      </c>
-      <c r="C7">
-        <v>12350</v>
-      </c>
-      <c r="D7">
-        <v>11850</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>43875</v>
-      </c>
-      <c r="B8" s="5">
-        <v>43881</v>
-      </c>
-      <c r="C8">
-        <v>12450</v>
-      </c>
-      <c r="D8">
-        <v>12050</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>43881</v>
-      </c>
-      <c r="B9" s="5">
-        <v>43888</v>
-      </c>
-      <c r="C9">
-        <v>12350</v>
-      </c>
-      <c r="D9">
-        <v>11850</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>43889</v>
-      </c>
-      <c r="B10" s="5">
-        <v>43895</v>
-      </c>
-      <c r="C10">
-        <v>11700</v>
-      </c>
-      <c r="D10">
-        <v>10800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>43896</v>
-      </c>
-      <c r="B11" s="5">
-        <v>43902</v>
-      </c>
-      <c r="C11">
-        <v>11300</v>
-      </c>
-      <c r="D11">
-        <v>10200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>43903</v>
-      </c>
-      <c r="B12" s="5">
-        <v>43909</v>
-      </c>
-      <c r="C12" t="s">
-        <v>752</v>
-      </c>
-      <c r="D12" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>43910</v>
-      </c>
-      <c r="B13" s="5">
-        <v>43916</v>
-      </c>
-      <c r="C13">
-        <v>9450</v>
-      </c>
-      <c r="D13">
-        <v>7100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>43917</v>
-      </c>
-      <c r="B14" s="5">
-        <v>43922</v>
-      </c>
-      <c r="C14">
-        <v>9900</v>
-      </c>
-      <c r="D14">
-        <v>7800</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>43924</v>
-      </c>
-      <c r="B15" s="5">
-        <v>43930</v>
-      </c>
-      <c r="C15">
-        <v>8750</v>
-      </c>
-      <c r="D15">
-        <v>7400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>43930</v>
-      </c>
-      <c r="B16" s="5">
-        <v>43937</v>
-      </c>
-      <c r="C16">
-        <v>9600</v>
-      </c>
-      <c r="D16">
-        <v>8200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>43938</v>
-      </c>
-      <c r="B17" s="5">
-        <v>43944</v>
-      </c>
-      <c r="C17">
-        <v>9850</v>
-      </c>
-      <c r="D17">
-        <v>8750</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>43945</v>
-      </c>
-      <c r="B18" s="5">
-        <v>43951</v>
-      </c>
-      <c r="C18">
-        <v>9600</v>
-      </c>
-      <c r="D18">
-        <v>8650</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>43951</v>
-      </c>
-      <c r="B19" s="5">
-        <v>43958</v>
-      </c>
-      <c r="C19">
-        <v>10100</v>
-      </c>
-      <c r="D19">
-        <v>9300</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>43959</v>
-      </c>
-      <c r="B20" s="5">
-        <v>43965</v>
-      </c>
-      <c r="C20">
-        <v>9800</v>
-      </c>
-      <c r="D20">
-        <v>8900</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>43966</v>
-      </c>
-      <c r="B21" s="5">
-        <v>43972</v>
-      </c>
-      <c r="C21">
-        <v>9600</v>
-      </c>
-      <c r="D21">
-        <v>8650</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>43973</v>
-      </c>
-      <c r="B22" s="5">
-        <v>43979</v>
-      </c>
-      <c r="C22">
-        <v>9400</v>
-      </c>
-      <c r="D22">
-        <v>8650</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>43980</v>
-      </c>
-      <c r="B23" s="5">
-        <v>43986</v>
-      </c>
-      <c r="C23">
-        <v>9800</v>
-      </c>
-      <c r="D23">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>43987</v>
-      </c>
-      <c r="B24" s="5">
-        <v>43993</v>
-      </c>
-      <c r="C24">
-        <v>10500</v>
-      </c>
-      <c r="D24">
-        <v>9650</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>43994</v>
-      </c>
-      <c r="B25" s="5">
-        <v>44000</v>
-      </c>
-      <c r="C25">
-        <v>10100</v>
-      </c>
-      <c r="D25">
-        <v>9050</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>44001</v>
-      </c>
-      <c r="B26" s="5">
-        <v>44007</v>
-      </c>
-      <c r="C26">
-        <v>10550</v>
-      </c>
-      <c r="D26">
-        <v>9650</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>44008</v>
-      </c>
-      <c r="B27" s="5">
-        <v>44014</v>
-      </c>
-      <c r="C27">
-        <v>10750</v>
-      </c>
-      <c r="D27">
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>44015</v>
-      </c>
-      <c r="B28" s="5">
-        <v>44021</v>
-      </c>
-      <c r="C28">
-        <v>10950</v>
-      </c>
-      <c r="D28">
-        <v>10200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>44022</v>
-      </c>
-      <c r="B29" s="5">
-        <v>44028</v>
-      </c>
-      <c r="C29">
-        <v>11100</v>
-      </c>
-      <c r="D29">
-        <v>10400</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>44029</v>
-      </c>
-      <c r="B30" s="5">
-        <v>44035</v>
-      </c>
-      <c r="C30">
-        <v>11100</v>
-      </c>
-      <c r="D30">
-        <v>10450</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>44036</v>
-      </c>
-      <c r="B31" s="5">
-        <v>44042</v>
-      </c>
-      <c r="C31">
-        <v>11450</v>
-      </c>
-      <c r="D31">
-        <v>10700</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
-        <v>44043</v>
-      </c>
-      <c r="B32" s="5">
-        <v>44049</v>
-      </c>
-      <c r="C32">
-        <v>11450</v>
-      </c>
-      <c r="D32">
-        <v>10650</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>44050</v>
-      </c>
-      <c r="B33" s="5">
-        <v>44056</v>
-      </c>
-      <c r="C33">
-        <v>11500</v>
-      </c>
-      <c r="D33">
-        <v>10850</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <v>44057</v>
-      </c>
-      <c r="B34" s="5">
-        <v>44063</v>
-      </c>
-      <c r="C34">
-        <v>11600</v>
-      </c>
-      <c r="D34">
-        <v>11050</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <v>44064</v>
-      </c>
-      <c r="B35" s="5">
-        <v>44070</v>
-      </c>
-      <c r="C35">
-        <v>11650</v>
-      </c>
-      <c r="D35">
-        <v>11050</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
-        <v>44071</v>
-      </c>
-      <c r="B36" s="5">
-        <v>44077</v>
-      </c>
-      <c r="C36">
-        <v>11850</v>
-      </c>
-      <c r="D36">
-        <v>11300</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
-        <v>44078</v>
-      </c>
-      <c r="B37" s="5">
-        <v>44084</v>
-      </c>
-      <c r="C37">
-        <v>11700</v>
-      </c>
-      <c r="D37">
-        <v>10950</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
-        <v>44085</v>
-      </c>
-      <c r="B38" s="5">
-        <v>44091</v>
-      </c>
-      <c r="C38">
-        <v>11750</v>
-      </c>
-      <c r="D38">
-        <v>11100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
-        <v>44092</v>
-      </c>
-      <c r="B39" s="5">
-        <v>44098</v>
-      </c>
-      <c r="C39">
-        <v>11800</v>
-      </c>
-      <c r="D39">
-        <v>11200</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
-        <v>44099</v>
-      </c>
-      <c r="B40" s="5">
-        <v>44105</v>
-      </c>
-      <c r="C40">
-        <v>11250</v>
-      </c>
-      <c r="D40">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
-        <v>44105</v>
-      </c>
-      <c r="B41" s="5">
-        <v>44112</v>
-      </c>
-      <c r="C41">
-        <v>11650</v>
-      </c>
-      <c r="D41">
-        <v>11050</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
-        <v>44113</v>
-      </c>
-      <c r="B42" s="5">
-        <v>44119</v>
-      </c>
-      <c r="C42">
-        <v>12200</v>
-      </c>
-      <c r="D42">
-        <v>11500</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
-        <v>44120</v>
-      </c>
-      <c r="B43" s="5">
-        <v>44126</v>
-      </c>
-      <c r="C43">
-        <v>12100</v>
-      </c>
-      <c r="D43">
-        <v>11400</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
-        <v>44127</v>
-      </c>
-      <c r="B44" s="5">
-        <v>44133</v>
-      </c>
-      <c r="C44">
-        <v>12250</v>
-      </c>
-      <c r="D44">
-        <v>11600</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
-        <v>44134</v>
-      </c>
-      <c r="B45" s="5">
-        <v>44140</v>
-      </c>
-      <c r="C45">
-        <v>12100</v>
-      </c>
-      <c r="D45">
-        <v>11200</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
-        <v>44141</v>
-      </c>
-      <c r="B46" s="5">
-        <v>44147</v>
-      </c>
-      <c r="C46">
-        <v>12450</v>
-      </c>
-      <c r="D46">
-        <v>11750</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
-        <v>44148</v>
-      </c>
-      <c r="B47" s="5">
-        <v>44154</v>
-      </c>
-      <c r="C47">
-        <v>12950</v>
-      </c>
-      <c r="D47">
-        <v>12300</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
-        <v>44155</v>
-      </c>
-      <c r="B48" s="5">
-        <v>44161</v>
-      </c>
-      <c r="C48">
-        <v>13150</v>
-      </c>
-      <c r="D48">
-        <v>12500</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
-        <v>44162</v>
-      </c>
-      <c r="B49" s="5">
-        <v>44168</v>
-      </c>
-      <c r="C49">
-        <v>13350</v>
-      </c>
-      <c r="D49">
-        <v>12650</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
-        <v>44169</v>
-      </c>
-      <c r="B50" s="5">
-        <v>44175</v>
-      </c>
-      <c r="C50">
-        <v>13500</v>
-      </c>
-      <c r="D50">
-        <v>12850</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
-        <v>44176</v>
-      </c>
-      <c r="B51" s="5">
-        <v>44182</v>
-      </c>
-      <c r="C51">
-        <v>13850</v>
-      </c>
-      <c r="D51">
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
-        <v>44183</v>
-      </c>
-      <c r="B52" s="5">
-        <v>44189</v>
-      </c>
-      <c r="C52">
-        <v>14050</v>
-      </c>
-      <c r="D52">
-        <v>13400</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
-        <v>44189</v>
-      </c>
-      <c r="B53" s="5">
-        <v>44196</v>
-      </c>
-      <c r="C53">
-        <v>14000</v>
-      </c>
-      <c r="D53">
-        <v>13300</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
-        <v>44197</v>
-      </c>
-      <c r="B54" s="5">
-        <v>44203</v>
-      </c>
-      <c r="C54">
-        <v>14350</v>
-      </c>
-      <c r="D54">
-        <v>13600</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
-        <v>44204</v>
-      </c>
-      <c r="B55" s="5">
-        <v>44210</v>
-      </c>
-      <c r="C55">
-        <v>14550</v>
-      </c>
-      <c r="D55">
-        <v>13900</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
-        <v>44211</v>
-      </c>
-      <c r="B56" s="5">
-        <v>44217</v>
-      </c>
-      <c r="C56">
-        <v>14950</v>
-      </c>
-      <c r="D56">
-        <v>14150</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
-        <v>44218</v>
-      </c>
-      <c r="B57" s="5">
-        <v>44224</v>
-      </c>
-      <c r="C57">
-        <v>14950</v>
-      </c>
-      <c r="D57">
-        <v>14100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
-        <v>44225</v>
-      </c>
-      <c r="B58" s="5">
-        <v>44231</v>
-      </c>
-      <c r="C58">
-        <v>14500</v>
-      </c>
-      <c r="D58">
-        <v>13350</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="5">
-        <v>44232</v>
-      </c>
-      <c r="B59" s="5">
-        <v>44238</v>
-      </c>
-      <c r="C59">
-        <v>15400</v>
-      </c>
-      <c r="D59">
-        <v>14450</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
-        <v>44239</v>
-      </c>
-      <c r="B60" s="5">
-        <v>44245</v>
-      </c>
-      <c r="C60">
-        <v>15550</v>
-      </c>
-      <c r="D60">
-        <v>14800</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="5">
-        <v>44246</v>
-      </c>
-      <c r="B61" s="5">
-        <v>44252</v>
-      </c>
-      <c r="C61">
-        <v>15400</v>
-      </c>
-      <c r="D61">
-        <v>14600</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
-        <v>44253</v>
-      </c>
-      <c r="B62" s="5">
-        <v>44259</v>
-      </c>
-      <c r="C62">
-        <v>15300</v>
-      </c>
-      <c r="D62">
-        <v>14300</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="5">
-        <v>44260</v>
-      </c>
-      <c r="B63" s="5">
-        <v>44266</v>
-      </c>
-      <c r="C63">
-        <v>15500</v>
-      </c>
-      <c r="D63">
-        <v>14300</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
-        <v>44267</v>
-      </c>
-      <c r="B64" s="5">
-        <v>44273</v>
-      </c>
-      <c r="C64">
-        <v>15700</v>
-      </c>
-      <c r="D64">
-        <v>14850</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="5">
-        <v>44274</v>
-      </c>
-      <c r="B65" s="5">
-        <v>44280</v>
-      </c>
-      <c r="C65">
-        <v>14950</v>
-      </c>
-      <c r="D65">
-        <v>13850</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="5">
-        <v>44281</v>
-      </c>
-      <c r="B66" s="5">
-        <v>44287</v>
-      </c>
-      <c r="C66">
-        <v>14950</v>
-      </c>
-      <c r="D66">
-        <v>13950</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="5">
-        <v>44287</v>
-      </c>
-      <c r="B67" s="5">
-        <v>44294</v>
-      </c>
-      <c r="C67">
-        <v>15200</v>
-      </c>
-      <c r="D67">
-        <v>14350</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="5">
-        <v>44295</v>
-      </c>
-      <c r="B68" s="5">
-        <v>44301</v>
-      </c>
-      <c r="C68">
-        <v>15250</v>
-      </c>
-      <c r="D68">
-        <v>14300</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="5">
-        <v>44302</v>
-      </c>
-      <c r="B69" s="5">
-        <v>44308</v>
-      </c>
-      <c r="C69">
-        <v>15000</v>
-      </c>
-      <c r="D69">
-        <v>14100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="5">
-        <v>44309</v>
-      </c>
-      <c r="B70" s="5">
-        <v>44315</v>
-      </c>
-      <c r="C70">
-        <v>14800</v>
-      </c>
-      <c r="D70">
-        <v>13800</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="5">
-        <v>44316</v>
-      </c>
-      <c r="B71" s="5">
-        <v>44322</v>
-      </c>
-      <c r="C71">
-        <v>15250</v>
-      </c>
-      <c r="D71">
-        <v>14200</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="5">
-        <v>44323</v>
-      </c>
-      <c r="B72" s="5">
-        <v>44328</v>
-      </c>
-      <c r="C72">
-        <v>15200</v>
-      </c>
-      <c r="D72">
-        <v>14400</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="5">
-        <v>44330</v>
-      </c>
-      <c r="B73" s="5">
-        <v>44336</v>
-      </c>
-      <c r="C73">
-        <v>15100</v>
-      </c>
-      <c r="D73">
-        <v>14300</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="5">
-        <v>44337</v>
-      </c>
-      <c r="B74" s="5">
-        <v>44343</v>
-      </c>
-      <c r="C74">
-        <v>15350</v>
-      </c>
-      <c r="D74">
-        <v>14650</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="5">
-        <v>44344</v>
-      </c>
-      <c r="B75" s="5">
-        <v>44350</v>
-      </c>
-      <c r="C75">
-        <v>15750</v>
-      </c>
-      <c r="D75">
-        <v>15100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="5">
-        <v>44351</v>
-      </c>
-      <c r="B76" s="5">
-        <v>44357</v>
-      </c>
-      <c r="C76">
-        <v>16000</v>
-      </c>
-      <c r="D76">
-        <v>15350</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="5">
-        <v>44358</v>
-      </c>
-      <c r="B77" s="5">
-        <v>44364</v>
-      </c>
-      <c r="C77">
-        <v>16100</v>
-      </c>
-      <c r="D77">
-        <v>15500</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="5">
-        <v>44365</v>
-      </c>
-      <c r="B78" s="5">
-        <v>44371</v>
-      </c>
-      <c r="C78">
-        <v>16000</v>
-      </c>
-      <c r="D78">
-        <v>15350</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="5">
-        <v>44372</v>
-      </c>
-      <c r="B79" s="5">
-        <v>44378</v>
-      </c>
-      <c r="C79">
-        <v>16150</v>
-      </c>
-      <c r="D79">
-        <v>15450</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="5">
-        <v>44379</v>
-      </c>
-      <c r="B80" s="5">
-        <v>44385</v>
-      </c>
-      <c r="C80">
-        <v>15950</v>
-      </c>
-      <c r="D80">
-        <v>15400</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="5">
-        <v>44386</v>
-      </c>
-      <c r="B81" s="5">
-        <v>44392</v>
-      </c>
-      <c r="C81">
-        <v>15950</v>
-      </c>
-      <c r="D81">
-        <v>15350</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="5">
-        <v>44393</v>
-      </c>
-      <c r="B82" s="5">
-        <v>44399</v>
-      </c>
-      <c r="C82">
-        <v>16200</v>
-      </c>
-      <c r="D82">
-        <v>15650</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="5">
-        <v>44400</v>
-      </c>
-      <c r="B83" s="5">
-        <v>44406</v>
-      </c>
-      <c r="C83">
-        <v>16100</v>
-      </c>
-      <c r="D83">
-        <v>15600</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="5">
-        <v>44407</v>
-      </c>
-      <c r="B84" s="5">
-        <v>44413</v>
-      </c>
-      <c r="C84">
-        <v>16050</v>
-      </c>
-      <c r="D84">
-        <v>15500</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="5">
-        <v>44414</v>
-      </c>
-      <c r="B85" s="5">
-        <v>44420</v>
-      </c>
-      <c r="C85">
-        <v>16600</v>
-      </c>
-      <c r="D85">
-        <v>15950</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="5">
-        <v>44421</v>
-      </c>
-      <c r="B86" s="5">
-        <v>44426</v>
-      </c>
-      <c r="C86">
-        <v>16650</v>
-      </c>
-      <c r="D86">
-        <v>16150</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="5">
-        <v>44428</v>
-      </c>
-      <c r="B87" s="5">
-        <v>44434</v>
-      </c>
-      <c r="C87">
-        <v>16700</v>
-      </c>
-      <c r="D87">
-        <v>16050</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="5">
-        <v>44435</v>
-      </c>
-      <c r="B88" s="5">
-        <v>44441</v>
-      </c>
-      <c r="C88">
-        <v>16900</v>
-      </c>
-      <c r="D88">
-        <v>16350</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="5">
-        <v>44442</v>
-      </c>
-      <c r="B89" s="5">
-        <v>44448</v>
-      </c>
-      <c r="C89">
-        <v>17650</v>
-      </c>
-      <c r="D89">
-        <v>16950</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="5">
-        <v>44448</v>
-      </c>
-      <c r="B90" s="5">
-        <v>44455</v>
-      </c>
-      <c r="C90">
-        <v>17650</v>
-      </c>
-      <c r="D90">
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="5">
-        <v>44456</v>
-      </c>
-      <c r="B91" s="5">
-        <v>44462</v>
-      </c>
-      <c r="C91">
-        <v>18050</v>
-      </c>
-      <c r="D91">
-        <v>17400</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="5">
-        <v>44463</v>
-      </c>
-      <c r="B92" s="5">
-        <v>44469</v>
-      </c>
-      <c r="C92">
-        <v>18350</v>
-      </c>
-      <c r="D92">
-        <v>17550</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="5">
-        <v>44470</v>
-      </c>
-      <c r="B93" s="5">
-        <v>44476</v>
-      </c>
-      <c r="C93">
-        <v>17900</v>
-      </c>
-      <c r="D93">
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="5">
-        <v>44477</v>
-      </c>
-      <c r="B94" s="5">
-        <v>44483</v>
-      </c>
-      <c r="C94">
-        <v>18200</v>
-      </c>
-      <c r="D94">
         <v>17450</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="5">
-        <v>44483</v>
-      </c>
-      <c r="B95" s="5">
-        <v>44490</v>
-      </c>
-      <c r="C95">
-        <v>18650</v>
-      </c>
-      <c r="D95">
-        <v>17850</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="5">
-        <v>44491</v>
-      </c>
-      <c r="B96" s="5">
-        <v>44497</v>
-      </c>
-      <c r="C96">
-        <v>18700</v>
-      </c>
-      <c r="D96">
-        <v>17850</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="5">
-        <v>44498</v>
-      </c>
-      <c r="B97" s="5">
-        <v>44503</v>
-      </c>
-      <c r="C97">
-        <v>18200</v>
-      </c>
-      <c r="D97">
-        <v>17150</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="5">
-        <v>44503</v>
-      </c>
-      <c r="B98" s="5">
-        <v>44511</v>
-      </c>
-      <c r="C98">
-        <v>18400</v>
-      </c>
-      <c r="D98">
-        <v>17550</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="5">
-        <v>44512</v>
-      </c>
-      <c r="B99" s="5">
-        <v>44518</v>
-      </c>
-      <c r="C99">
-        <v>18300</v>
-      </c>
-      <c r="D99">
-        <v>17600</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="5">
-        <v>44518</v>
-      </c>
-      <c r="B100" s="5">
-        <v>44525</v>
-      </c>
-      <c r="C100">
-        <v>18300</v>
-      </c>
-      <c r="D100">
-        <v>17500</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="5">
-        <v>44526</v>
-      </c>
-      <c r="B101" s="5">
-        <v>44532</v>
-      </c>
-      <c r="C101">
-        <v>17700</v>
-      </c>
-      <c r="D101">
-        <v>16850</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="5">
-        <v>44533</v>
-      </c>
-      <c r="B102" s="5">
-        <v>44539</v>
-      </c>
-      <c r="C102">
-        <v>17850</v>
-      </c>
-      <c r="D102">
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="5">
-        <v>44540</v>
-      </c>
-      <c r="B103" s="5">
-        <v>44546</v>
-      </c>
-      <c r="C103">
-        <v>17850</v>
-      </c>
-      <c r="D103">
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="5">
-        <v>44547</v>
-      </c>
-      <c r="B104" s="5">
-        <v>44553</v>
-      </c>
-      <c r="C104">
-        <v>17600</v>
-      </c>
-      <c r="D104">
-        <v>16750</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="5">
-        <v>44554</v>
-      </c>
-      <c r="B105" s="5">
-        <v>44560</v>
-      </c>
-      <c r="C105">
-        <v>17450</v>
-      </c>
-      <c r="D105">
-        <v>16600</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="5">
-        <v>44561</v>
-      </c>
-      <c r="B106" s="5">
-        <v>44567</v>
-      </c>
-      <c r="C106">
-        <v>17650</v>
-      </c>
-      <c r="D106">
-        <v>16850</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="5">
-        <v>44568</v>
-      </c>
-      <c r="B107" s="5">
-        <v>44574</v>
-      </c>
-      <c r="C107">
-        <v>18250</v>
-      </c>
-      <c r="D107">
-        <v>17400</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="5">
-        <v>44575</v>
-      </c>
-      <c r="B108" s="5">
-        <v>44581</v>
-      </c>
-      <c r="C108">
-        <v>18500</v>
-      </c>
-      <c r="D108">
-        <v>17750</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="5">
-        <v>44582</v>
-      </c>
-      <c r="B109" s="5">
-        <v>44588</v>
-      </c>
-      <c r="C109">
-        <v>18000</v>
-      </c>
-      <c r="D109">
-        <v>17050</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="5">
-        <v>44589</v>
-      </c>
-      <c r="B110" s="5">
-        <v>44595</v>
-      </c>
-      <c r="C110">
-        <v>18000</v>
-      </c>
-      <c r="D110">
-        <v>16600</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="5">
-        <v>44596</v>
-      </c>
-      <c r="B111" s="5">
-        <v>44602</v>
-      </c>
-      <c r="C111">
-        <v>17950</v>
-      </c>
-      <c r="D111">
-        <v>16950</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="5">
-        <v>44603</v>
-      </c>
-      <c r="B112" s="5">
-        <v>44609</v>
-      </c>
-      <c r="C112">
-        <v>17850</v>
-      </c>
-      <c r="D112">
-        <v>16950</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="5">
-        <v>44610</v>
-      </c>
-      <c r="B113" s="5">
-        <v>44616</v>
-      </c>
-      <c r="C113">
-        <v>17800</v>
-      </c>
-      <c r="D113">
-        <v>16500</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="5">
-        <v>44617</v>
-      </c>
-      <c r="B114" s="5">
-        <v>44623</v>
-      </c>
-      <c r="C114">
-        <v>17200</v>
-      </c>
-      <c r="D114">
-        <v>15750</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="5">
-        <v>44624</v>
-      </c>
-      <c r="B115" s="5">
-        <v>44630</v>
-      </c>
-      <c r="C115">
-        <v>16950</v>
-      </c>
-      <c r="D115">
-        <v>15450</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="5">
-        <v>44631</v>
-      </c>
-      <c r="B116" s="5">
-        <v>44637</v>
-      </c>
-      <c r="C116">
-        <v>17150</v>
-      </c>
-      <c r="D116">
-        <v>15850</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="5">
-        <v>44637</v>
-      </c>
-      <c r="B117" s="5">
-        <v>44644</v>
-      </c>
-      <c r="C117">
-        <v>17800</v>
-      </c>
-      <c r="D117">
-        <v>16550</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="5">
-        <v>44645</v>
-      </c>
-      <c r="B118" s="5">
-        <v>44651</v>
-      </c>
-      <c r="C118">
-        <v>17750</v>
-      </c>
-      <c r="D118">
-        <v>16700</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="5">
-        <v>44652</v>
-      </c>
-      <c r="B119" s="5">
-        <v>44658</v>
-      </c>
-      <c r="C119">
-        <v>17900</v>
-      </c>
-      <c r="D119">
-        <v>16950</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="5">
-        <v>44659</v>
-      </c>
-      <c r="B120" s="5">
-        <v>44664</v>
-      </c>
-      <c r="C120">
-        <v>18100</v>
-      </c>
-      <c r="D120">
-        <v>17250</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="5">
-        <v>44664</v>
-      </c>
-      <c r="B121" s="5">
-        <v>44672</v>
-      </c>
-      <c r="C121">
-        <v>18050</v>
-      </c>
-      <c r="D121">
-        <v>17250</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="5">
-        <v>44673</v>
-      </c>
-      <c r="B122" s="5">
-        <v>44679</v>
-      </c>
-      <c r="C122">
-        <v>17600</v>
-      </c>
-      <c r="D122">
-        <v>16750</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="5">
-        <v>44680</v>
-      </c>
-      <c r="B123" s="5">
-        <v>44686</v>
-      </c>
-      <c r="C123">
-        <v>17700</v>
-      </c>
-      <c r="D123">
-        <v>16900</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="5">
-        <v>44687</v>
-      </c>
-      <c r="B124" s="5">
-        <v>44693</v>
-      </c>
-      <c r="C124">
-        <v>16900</v>
-      </c>
-      <c r="D124">
-        <v>15850</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="5">
-        <v>44694</v>
-      </c>
-      <c r="B125" s="5">
-        <v>44700</v>
-      </c>
-      <c r="C125">
-        <v>16450</v>
-      </c>
-      <c r="D125">
-        <v>15400</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="5">
-        <v>44701</v>
-      </c>
-      <c r="B126" s="5">
-        <v>44707</v>
-      </c>
-      <c r="C126">
-        <v>16550</v>
-      </c>
-      <c r="D126">
-        <v>15500</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="5">
-        <v>44708</v>
-      </c>
-      <c r="B127" s="5">
-        <v>44714</v>
-      </c>
-      <c r="C127">
-        <v>16750</v>
-      </c>
-      <c r="D127">
-        <v>15750</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="5">
-        <v>44715</v>
-      </c>
-      <c r="B128" s="5">
-        <v>44721</v>
-      </c>
-      <c r="C128">
-        <v>17200</v>
-      </c>
-      <c r="D128">
-        <v>16300</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="5">
-        <v>44722</v>
-      </c>
-      <c r="B129" s="5">
-        <v>44728</v>
-      </c>
-      <c r="C129">
-        <v>16700</v>
-      </c>
-      <c r="D129">
-        <v>15850</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="5">
-        <v>44729</v>
-      </c>
-      <c r="B130" s="5">
-        <v>44735</v>
-      </c>
-      <c r="C130">
-        <v>15800</v>
-      </c>
-      <c r="D130">
-        <v>14700</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="5">
-        <v>44736</v>
-      </c>
-      <c r="B131" s="5">
-        <v>44742</v>
-      </c>
-      <c r="C131">
-        <v>16200</v>
-      </c>
-      <c r="D131">
-        <v>15200</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="5">
-        <v>44743</v>
-      </c>
-      <c r="B132" s="5">
-        <v>44749</v>
-      </c>
-      <c r="C132">
-        <v>16100</v>
-      </c>
-      <c r="D132">
-        <v>15150</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="5">
-        <v>44750</v>
-      </c>
-      <c r="B133" s="5">
-        <v>44756</v>
-      </c>
-      <c r="C133">
-        <v>16600</v>
-      </c>
-      <c r="D133">
-        <v>15750</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="5">
-        <v>44757</v>
-      </c>
-      <c r="B134" s="5">
-        <v>44763</v>
-      </c>
-      <c r="C134">
-        <v>16350</v>
-      </c>
-      <c r="D134">
-        <v>15650</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="5">
-        <v>44764</v>
-      </c>
-      <c r="B135" s="5">
-        <v>44770</v>
-      </c>
-      <c r="C135">
-        <v>17000</v>
-      </c>
-      <c r="D135">
-        <v>16300</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="5">
-        <v>44771</v>
-      </c>
-      <c r="B136" s="5">
-        <v>44777</v>
-      </c>
-      <c r="C136">
-        <v>17500</v>
-      </c>
-      <c r="D136">
-        <v>16700</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="5">
-        <v>44778</v>
-      </c>
-      <c r="B137" s="5">
-        <v>44784</v>
-      </c>
-      <c r="C137">
-        <v>17850</v>
-      </c>
-      <c r="D137">
-        <v>16900</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="5">
-        <v>44785</v>
-      </c>
-      <c r="B138" s="5">
-        <v>44791</v>
-      </c>
-      <c r="C138">
-        <v>17950</v>
-      </c>
-      <c r="D138">
-        <v>17300</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="5">
-        <v>44792</v>
-      </c>
-      <c r="B139" s="5">
-        <v>44798</v>
-      </c>
-      <c r="C139">
-        <v>18300</v>
-      </c>
-      <c r="D139">
-        <v>17600</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="5">
-        <v>44799</v>
-      </c>
-      <c r="B140" s="5">
-        <v>44805</v>
-      </c>
-      <c r="C140">
-        <v>18050</v>
-      </c>
-      <c r="D140">
-        <v>17250</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="5">
-        <v>44806</v>
-      </c>
-      <c r="B141" s="5">
-        <v>44812</v>
-      </c>
-      <c r="C141">
-        <v>18050</v>
-      </c>
-      <c r="D141">
-        <v>17100</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="5">
-        <v>44813</v>
-      </c>
-      <c r="B142" s="5">
-        <v>44819</v>
-      </c>
-      <c r="C142">
-        <v>18250</v>
-      </c>
-      <c r="D142">
-        <v>17500</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="5">
-        <v>44820</v>
-      </c>
-      <c r="B143" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C143">
-        <v>18200</v>
-      </c>
-      <c r="D143">
-        <v>17300</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="5">
-        <v>44827</v>
-      </c>
-      <c r="B144" s="5">
-        <v>44833</v>
-      </c>
-      <c r="C144">
-        <v>18000</v>
-      </c>
-      <c r="D144">
-        <v>17050</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="5">
-        <v>44834</v>
-      </c>
-      <c r="B145" s="5">
-        <v>44840</v>
-      </c>
-      <c r="C145">
-        <v>17300</v>
-      </c>
-      <c r="D145">
-        <v>16250</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="5">
-        <v>44841</v>
-      </c>
-      <c r="B146" s="5">
-        <v>44847</v>
-      </c>
-      <c r="C146">
-        <v>17700</v>
-      </c>
-      <c r="D146">
-        <v>16850</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="5">
-        <v>44848</v>
-      </c>
-      <c r="B147" s="5">
-        <v>44854</v>
-      </c>
-      <c r="C147">
-        <v>17700</v>
-      </c>
-      <c r="D147">
-        <v>16900</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="5">
-        <v>44855</v>
-      </c>
-      <c r="B148" s="5">
-        <v>44861</v>
-      </c>
-      <c r="C148">
-        <v>17950</v>
-      </c>
-      <c r="D148">
-        <v>17250</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="5">
-        <v>44862</v>
-      </c>
-      <c r="B149" s="5">
-        <v>44868</v>
-      </c>
-      <c r="C149">
-        <v>18150</v>
-      </c>
-      <c r="D149">
-        <v>17400</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="5">
-        <v>44869</v>
-      </c>
-      <c r="B150" s="5">
-        <v>44875</v>
-      </c>
-      <c r="C150">
-        <v>18450</v>
-      </c>
-      <c r="D150">
-        <v>17700</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="5">
-        <v>44876</v>
-      </c>
-      <c r="B151" s="5">
-        <v>44882</v>
-      </c>
-      <c r="C151">
-        <v>18600</v>
-      </c>
-      <c r="D151">
-        <v>17950</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="5">
-        <v>44883</v>
-      </c>
-      <c r="B152" s="5">
-        <v>44889</v>
-      </c>
-      <c r="C152">
-        <v>18650</v>
-      </c>
-      <c r="D152">
-        <v>18050</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="5">
-        <v>44890</v>
-      </c>
-      <c r="B153" s="5">
-        <v>44896</v>
-      </c>
-      <c r="C153">
-        <v>18800</v>
-      </c>
-      <c r="D153">
-        <v>18200</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="5">
-        <v>44897</v>
-      </c>
-      <c r="B154" s="5">
-        <v>44903</v>
-      </c>
-      <c r="C154">
-        <v>19100</v>
-      </c>
-      <c r="D154">
-        <v>18450</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="5">
-        <v>44904</v>
-      </c>
-      <c r="B155" s="5">
-        <v>44910</v>
-      </c>
-      <c r="C155">
-        <v>18950</v>
-      </c>
-      <c r="D155">
-        <v>18400</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="5">
-        <v>44911</v>
-      </c>
-      <c r="B156" s="5">
-        <v>44917</v>
-      </c>
-      <c r="C156">
-        <v>18700</v>
-      </c>
-      <c r="D156">
-        <v>18050</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="5">
-        <v>44918</v>
-      </c>
-      <c r="B157" s="5">
-        <v>44924</v>
-      </c>
-      <c r="C157">
-        <v>18450</v>
-      </c>
-      <c r="D157">
-        <v>17600</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="5">
-        <v>44925</v>
-      </c>
-      <c r="B158" s="5">
-        <v>44931</v>
-      </c>
-      <c r="C158">
-        <v>18550</v>
-      </c>
-      <c r="D158">
-        <v>17900</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="5">
-        <v>44932</v>
-      </c>
-      <c r="B159" s="5">
-        <v>44938</v>
-      </c>
-      <c r="C159">
-        <v>18350</v>
-      </c>
-      <c r="D159">
-        <v>17650</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="5">
-        <v>44939</v>
-      </c>
-      <c r="B160" s="5">
-        <v>44945</v>
-      </c>
-      <c r="C160">
-        <v>18200</v>
-      </c>
-      <c r="D160">
-        <v>17450</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="5">
-        <v>44946</v>
-      </c>
-      <c r="B161" s="5">
-        <v>44952</v>
-      </c>
-      <c r="C161">
-        <v>18400</v>
-      </c>
-      <c r="D161">
-        <v>17800</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="5">
-        <v>44953</v>
-      </c>
-      <c r="B162" s="5">
-        <v>44959</v>
-      </c>
-      <c r="C162">
-        <v>18350</v>
-      </c>
-      <c r="D162">
-        <v>17300</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="5">
-        <v>44960</v>
-      </c>
-      <c r="B163" s="5">
-        <v>44966</v>
-      </c>
-      <c r="C163">
-        <v>18100</v>
-      </c>
-      <c r="D163">
-        <v>17300</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="5">
-        <v>44967</v>
-      </c>
-      <c r="B164" s="5">
-        <v>44973</v>
-      </c>
-      <c r="C164">
-        <v>18150</v>
-      </c>
-      <c r="D164">
-        <v>17550</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="5">
-        <v>44974</v>
-      </c>
-      <c r="B165" s="5">
-        <v>44980</v>
-      </c>
-      <c r="C165">
-        <v>18250</v>
-      </c>
-      <c r="D165">
-        <v>17650</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="5">
-        <v>44981</v>
-      </c>
-      <c r="B166" s="5">
-        <v>44987</v>
-      </c>
-      <c r="C166">
-        <v>17900</v>
-      </c>
-      <c r="D166">
-        <v>17300</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="5">
-        <v>44988</v>
-      </c>
-      <c r="B167" s="5">
-        <v>44994</v>
-      </c>
-      <c r="C167">
-        <v>17700</v>
-      </c>
-      <c r="D167">
-        <v>17200</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="5">
-        <v>44995</v>
-      </c>
-      <c r="B168" s="5">
-        <v>45001</v>
-      </c>
-      <c r="C168">
-        <v>17700</v>
-      </c>
-      <c r="D168">
-        <v>17050</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="5">
-        <v>45002</v>
-      </c>
-      <c r="B169" s="5">
-        <v>45008</v>
-      </c>
-      <c r="C169">
-        <v>17500</v>
-      </c>
-      <c r="D169">
-        <v>16700</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="5">
-        <v>45009</v>
-      </c>
-      <c r="B170" s="5">
-        <v>45015</v>
-      </c>
-      <c r="C170">
-        <v>17400</v>
-      </c>
-      <c r="D170">
-        <v>16750</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="5">
-        <v>45016</v>
-      </c>
-      <c r="B171" s="5">
-        <v>45022</v>
-      </c>
-      <c r="C171">
-        <v>17550</v>
-      </c>
-      <c r="D171">
-        <v>16900</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="5">
-        <v>45022</v>
-      </c>
-      <c r="B172" s="5">
-        <v>45029</v>
-      </c>
-      <c r="C172">
-        <v>17800</v>
-      </c>
-      <c r="D172">
-        <v>17200</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="5">
-        <v>45029</v>
-      </c>
-      <c r="B173" s="5">
-        <v>45036</v>
-      </c>
-      <c r="C173">
-        <v>18100</v>
-      </c>
-      <c r="D173">
-        <v>17500</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="5">
-        <v>45037</v>
-      </c>
-      <c r="B174" s="5">
-        <v>45043</v>
-      </c>
-      <c r="C174">
-        <v>17900</v>
-      </c>
-      <c r="D174">
-        <v>17400</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="5">
-        <v>45044</v>
-      </c>
-      <c r="B175" s="5">
-        <v>45050</v>
-      </c>
-      <c r="C175">
-        <v>18200</v>
-      </c>
-      <c r="D175">
-        <v>17700</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="5">
-        <v>45051</v>
-      </c>
-      <c r="B176" s="5">
-        <v>45057</v>
-      </c>
-      <c r="C176">
-        <v>18450</v>
-      </c>
-      <c r="D176">
-        <v>17900</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="5">
-        <v>45058</v>
-      </c>
-      <c r="B177" s="5">
-        <v>45064</v>
-      </c>
-      <c r="C177">
-        <v>18550</v>
-      </c>
-      <c r="D177">
-        <v>17950</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="5">
-        <v>45065</v>
-      </c>
-      <c r="B178" s="5">
-        <v>45071</v>
-      </c>
-      <c r="C178">
-        <v>18450</v>
-      </c>
-      <c r="D178">
-        <v>17900</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="5">
-        <v>45072</v>
-      </c>
-      <c r="B179" s="5">
-        <v>45078</v>
-      </c>
-      <c r="C179">
-        <v>18600</v>
-      </c>
-      <c r="D179">
-        <v>18050</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="5">
-        <v>45079</v>
-      </c>
-      <c r="B180" s="5">
-        <v>45085</v>
-      </c>
-      <c r="C180">
-        <v>18850</v>
-      </c>
-      <c r="D180">
-        <v>18300</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="5">
-        <v>45086</v>
-      </c>
-      <c r="B181" s="5">
-        <v>45092</v>
-      </c>
-      <c r="C181">
-        <v>18950</v>
-      </c>
-      <c r="D181">
-        <v>18400</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="5">
-        <v>45093</v>
-      </c>
-      <c r="B182" s="5">
-        <v>45099</v>
-      </c>
-      <c r="C182">
-        <v>19000</v>
-      </c>
-      <c r="D182">
-        <v>18500</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="5">
-        <v>45100</v>
-      </c>
-      <c r="B183" s="5">
-        <v>45106</v>
-      </c>
-      <c r="C183">
-        <v>19000</v>
-      </c>
-      <c r="D183">
-        <v>18450</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="5">
-        <v>45107</v>
-      </c>
-      <c r="B184" s="5">
-        <v>45113</v>
-      </c>
-      <c r="C184">
-        <v>19350</v>
-      </c>
-      <c r="D184">
-        <v>18800</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="5">
-        <v>45114</v>
-      </c>
-      <c r="B185" s="5">
-        <v>45120</v>
-      </c>
-      <c r="C185">
-        <v>19750</v>
-      </c>
-      <c r="D185">
-        <v>19150</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="5">
-        <v>45121</v>
-      </c>
-      <c r="B186" s="5">
-        <v>45127</v>
-      </c>
-      <c r="C186">
-        <v>19750</v>
-      </c>
-      <c r="D186">
-        <v>19200</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="5">
-        <v>45128</v>
-      </c>
-      <c r="B187" s="5">
-        <v>45134</v>
-      </c>
-      <c r="C187">
-        <v>20200</v>
-      </c>
-      <c r="D187">
-        <v>19500</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="5">
-        <v>45135</v>
-      </c>
-      <c r="B188" s="5">
-        <v>45141</v>
-      </c>
-      <c r="C188">
-        <v>19950</v>
-      </c>
-      <c r="D188">
-        <v>19300</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="5">
-        <v>45142</v>
-      </c>
-      <c r="B189" s="5">
-        <v>45148</v>
-      </c>
-      <c r="C189">
-        <v>19800</v>
-      </c>
-      <c r="D189">
-        <v>19200</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="5">
-        <v>45149</v>
-      </c>
-      <c r="B190" s="5">
-        <v>45155</v>
-      </c>
-      <c r="C190">
-        <v>19800</v>
-      </c>
-      <c r="D190">
-        <v>19200</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="5">
-        <v>45156</v>
-      </c>
-      <c r="B191" s="5">
-        <v>45162</v>
-      </c>
-      <c r="C191">
-        <v>19600</v>
-      </c>
-      <c r="D191">
-        <v>19000</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="5">
-        <v>45163</v>
-      </c>
-      <c r="B192" s="5">
-        <v>45169</v>
-      </c>
-      <c r="C192">
-        <v>19550</v>
-      </c>
-      <c r="D192">
-        <v>18950</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="5">
-        <v>45170</v>
-      </c>
-      <c r="B193" s="5">
-        <v>45176</v>
-      </c>
-      <c r="C193">
-        <v>19600</v>
-      </c>
-      <c r="D193">
-        <v>19000</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="5">
-        <v>45177</v>
-      </c>
-      <c r="B194" s="5">
-        <v>45183</v>
-      </c>
-      <c r="C194">
-        <v>20000</v>
-      </c>
-      <c r="D194">
-        <v>19500</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="5">
-        <v>45184</v>
-      </c>
-      <c r="B195" s="5">
-        <v>45190</v>
-      </c>
-      <c r="C195">
-        <v>20450</v>
-      </c>
-      <c r="D195">
-        <v>19850</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="5">
-        <v>45191</v>
-      </c>
-      <c r="B196" s="5">
-        <v>45197</v>
-      </c>
-      <c r="C196">
-        <v>20100</v>
-      </c>
-      <c r="D196">
-        <v>19500</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="5">
-        <v>45198</v>
-      </c>
-      <c r="B197" s="5">
-        <v>45204</v>
-      </c>
-      <c r="C197">
-        <v>19900</v>
-      </c>
-      <c r="D197">
-        <v>19250</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="5">
-        <v>45205</v>
-      </c>
-      <c r="B198" s="5">
-        <v>45211</v>
-      </c>
-      <c r="C198">
-        <v>19900</v>
-      </c>
-      <c r="D198">
-        <v>19300</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="5">
-        <v>45212</v>
-      </c>
-      <c r="B199" s="5">
-        <v>45218</v>
-      </c>
-      <c r="C199">
-        <v>20000</v>
-      </c>
-      <c r="D199">
-        <v>19400</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="5">
-        <v>45219</v>
-      </c>
-      <c r="B200" s="5">
-        <v>45225</v>
-      </c>
-      <c r="C200">
-        <v>19850</v>
-      </c>
-      <c r="D200">
-        <v>19250</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="5">
-        <v>45226</v>
-      </c>
-      <c r="B201" s="5">
-        <v>45232</v>
-      </c>
-      <c r="C201">
-        <v>19300</v>
-      </c>
-      <c r="D201">
-        <v>18600</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="5">
-        <v>45233</v>
-      </c>
-      <c r="B202" s="5">
-        <v>45239</v>
-      </c>
-      <c r="C202">
-        <v>19550</v>
-      </c>
-      <c r="D202">
-        <v>19000</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="5">
-        <v>45240</v>
-      </c>
-      <c r="B203" s="5">
-        <v>45246</v>
-      </c>
-      <c r="C203">
-        <v>19600</v>
-      </c>
-      <c r="D203">
-        <v>19100</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="5">
-        <v>45247</v>
-      </c>
-      <c r="B204" s="5">
-        <v>45253</v>
-      </c>
-      <c r="C204">
-        <v>20050</v>
-      </c>
-      <c r="D204">
-        <v>19450</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="5">
-        <v>45254</v>
-      </c>
-      <c r="B205" s="5">
-        <v>45260</v>
-      </c>
-      <c r="C205">
-        <v>20100</v>
-      </c>
-      <c r="D205">
-        <v>19600</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="5">
-        <v>45261</v>
-      </c>
-      <c r="B206" s="5">
-        <v>45267</v>
-      </c>
-      <c r="C206">
-        <v>20600</v>
-      </c>
-      <c r="D206">
-        <v>19900</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="5">
-        <v>45268</v>
-      </c>
-      <c r="B207" s="5">
-        <v>45274</v>
-      </c>
-      <c r="C207">
-        <v>21300</v>
-      </c>
-      <c r="D207">
-        <v>20650</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="5">
-        <v>45275</v>
-      </c>
-      <c r="B208" s="5">
-        <v>45281</v>
-      </c>
-      <c r="C208">
-        <v>21650</v>
-      </c>
-      <c r="D208">
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="5">
-        <v>45282</v>
-      </c>
-      <c r="B209" s="5">
-        <v>45288</v>
-      </c>
-      <c r="C209">
-        <v>21700</v>
-      </c>
-      <c r="D209">
-        <v>20900</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="5">
-        <v>45289</v>
-      </c>
-      <c r="B210" s="5">
-        <v>45295</v>
-      </c>
-      <c r="C210">
-        <v>22200</v>
-      </c>
-      <c r="D210">
-        <v>21300</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" s="5">
-        <v>45296</v>
-      </c>
-      <c r="B211" s="5">
-        <v>45302</v>
-      </c>
-      <c r="C211">
-        <v>22100</v>
-      </c>
-      <c r="D211">
-        <v>21400</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" s="5">
-        <v>45303</v>
-      </c>
-      <c r="B212" s="5">
-        <v>45309</v>
-      </c>
-      <c r="C212">
-        <v>22100</v>
-      </c>
-      <c r="D212">
-        <v>21350</v>
       </c>
     </row>
   </sheetData>
@@ -33962,9 +31020,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79D554C-32E4-4850-8281-0B395C874923}">
   <dimension ref="A1:AI71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+    <sheetView topLeftCell="W1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A55" sqref="A55:XFD55"/>
+      <selection pane="bottomLeft" activeCell="AF49" sqref="AF49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33994,100 +31052,100 @@
         <v>42</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>905</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>907</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>908</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>910</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>911</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>913</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>915</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>916</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>917</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>918</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>919</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>920</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>921</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>922</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>923</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>925</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>926</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>927</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>928</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>929</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>930</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>931</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>932</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="AG1" s="2" t="s">
         <v>933</v>
       </c>
-      <c r="AE1" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>934</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
@@ -36326,7 +33384,7 @@
         <v>1470</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D52">
         <v>-40</v>

--- a/Zerodha_GUI/Kite_Zerodha-main/Kite_Zerodha-main/Startjee.xlsx
+++ b/Zerodha_GUI/Kite_Zerodha-main/Kite_Zerodha-main/Startjee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ashu\Finance\algo_trading\Zerodha_GUI\Kite_Zerodha-main\Kite_Zerodha-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5970F341-A788-4445-BD6E-2357F07726F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD219FC8-03CD-4A57-9A1C-7F78174CAB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{111B81BB-D847-4952-A3F9-2C9FB2D32C52}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="936">
   <si>
     <t>Date</t>
   </si>
@@ -2840,6 +2840,9 @@
   </si>
   <si>
     <t>Total weeks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -3825,7 +3828,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6858,8 +6861,8 @@
   <dimension ref="A1:BE418"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE96" sqref="AE96"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15522,9 +15525,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2668D988-44D8-4E32-8FCB-0B15E5EDAAA4}">
   <dimension ref="A1:BE624"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32:XFD32"/>
+    <sheetView topLeftCell="AE1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AM119" sqref="AM119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18840,6 +18843,9 @@
       <c r="A105" s="5">
         <v>44931</v>
       </c>
+      <c r="E105" t="s">
+        <v>935</v>
+      </c>
       <c r="K105">
         <v>13.1</v>
       </c>
@@ -30963,7 +30969,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30998,16 +31004,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>44939</v>
+        <v>45121</v>
       </c>
       <c r="B2" s="5">
-        <v>44945</v>
+        <v>45127</v>
       </c>
       <c r="C2">
-        <v>18200</v>
+        <v>19750</v>
       </c>
       <c r="D2">
-        <v>17450</v>
+        <v>19200</v>
       </c>
     </row>
   </sheetData>

--- a/Zerodha_GUI/Kite_Zerodha-main/Kite_Zerodha-main/Startjee.xlsx
+++ b/Zerodha_GUI/Kite_Zerodha-main/Kite_Zerodha-main/Startjee.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ashu\Finance\algo_trading\Zerodha_GUI\Kite_Zerodha-main\Kite_Zerodha-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD219FC8-03CD-4A57-9A1C-7F78174CAB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D587E8C2-A3FA-4D96-9C6C-E8AED94D47D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{111B81BB-D847-4952-A3F9-2C9FB2D32C52}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{111B81BB-D847-4952-A3F9-2C9FB2D32C52}"/>
   </bookViews>
   <sheets>
     <sheet name="Imp Events and Explanation" sheetId="6" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Trailing SL" sheetId="11" r:id="rId5"/>
     <sheet name="Past_Backtesting" sheetId="12" r:id="rId6"/>
     <sheet name="Report" sheetId="13" r:id="rId7"/>
+    <sheet name="Checks done" sheetId="14" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Fixed SL'!$A$1:$A$418</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="951">
   <si>
     <t>Date</t>
   </si>
@@ -2843,6 +2844,51 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Movement Type</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Neutral movement</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trending up with 3 credit spreads </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trending up with 4 credit spreads </t>
+  </si>
+  <si>
+    <t>Trending up with Morning SL hit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trending up with 3 credit spreads SL hit in reverse direction </t>
+  </si>
+  <si>
+    <t>Trending Down with 3 credit spreads with 1 credit hit in reverse direction</t>
+  </si>
+  <si>
+    <t>Trending Down with 3 credit spreads with 3 credit hit in reverse direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trending Down with random SL hit during reversal </t>
+  </si>
+  <si>
+    <t>Trending Down with all 4 credit spreads used.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High volatile having all SL credit spreads SL hit </t>
+  </si>
+  <si>
+    <t>Not Done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High Gaps events </t>
   </si>
 </sst>
 </file>
@@ -3828,7 +3874,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD7"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6861,8 +6907,8 @@
   <dimension ref="A1:BE418"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42:XFD42"/>
+      <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15525,9 +15571,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2668D988-44D8-4E32-8FCB-0B15E5EDAAA4}">
   <dimension ref="A1:BE624"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AM119" sqref="AM119"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A174" sqref="A174:XFD174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30969,7 +31015,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomLeft" activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31004,16 +31050,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>45121</v>
+        <v>44974</v>
       </c>
       <c r="B2" s="5">
-        <v>45127</v>
+        <v>44980</v>
       </c>
       <c r="C2">
-        <v>19750</v>
+        <v>18250</v>
       </c>
       <c r="D2">
-        <v>19200</v>
+        <v>17650</v>
       </c>
     </row>
   </sheetData>
@@ -34094,4 +34140,119 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1038C2B1-FD4B-405F-A983-721EBFEAF8B7}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>938</v>
+      </c>
+      <c r="B2" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>940</v>
+      </c>
+      <c r="B3" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>941</v>
+      </c>
+      <c r="B4" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>942</v>
+      </c>
+      <c r="B5" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="B6" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B7" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="B8" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="B9" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B10" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B11" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="B12" t="s">
+        <v>949</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Zerodha_GUI/Kite_Zerodha-main/Kite_Zerodha-main/Startjee.xlsx
+++ b/Zerodha_GUI/Kite_Zerodha-main/Kite_Zerodha-main/Startjee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ashu\Finance\algo_trading\Zerodha_GUI\Kite_Zerodha-main\Kite_Zerodha-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D587E8C2-A3FA-4D96-9C6C-E8AED94D47D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8984011-D653-4253-B6FB-573127FC5998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{111B81BB-D847-4952-A3F9-2C9FB2D32C52}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Trailing SL" sheetId="11" r:id="rId5"/>
     <sheet name="Past_Backtesting" sheetId="12" r:id="rId6"/>
     <sheet name="Report" sheetId="13" r:id="rId7"/>
-    <sheet name="Checks done" sheetId="14" r:id="rId8"/>
+    <sheet name="Comparision_real_backtest_data" sheetId="15" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Fixed SL'!$A$1:$A$418</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="941">
   <si>
     <t>Date</t>
   </si>
@@ -2846,49 +2846,19 @@
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>Movement Type</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Neutral movement</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trending up with 3 credit spreads </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trending up with 4 credit spreads </t>
-  </si>
-  <si>
-    <t>Trending up with Morning SL hit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trending up with 3 credit spreads SL hit in reverse direction </t>
-  </si>
-  <si>
-    <t>Trending Down with 3 credit spreads with 1 credit hit in reverse direction</t>
-  </si>
-  <si>
-    <t>Trending Down with 3 credit spreads with 3 credit hit in reverse direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trending Down with random SL hit during reversal </t>
-  </si>
-  <si>
-    <t>Trending Down with all 4 credit spreads used.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High volatile having all SL credit spreads SL hit </t>
-  </si>
-  <si>
-    <t>Not Done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High Gaps events </t>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Margin Used</t>
+  </si>
+  <si>
+    <t>Call Credit spread used</t>
+  </si>
+  <si>
+    <t>Put Credit spread used</t>
+  </si>
+  <si>
+    <t>Net P_L Real</t>
   </si>
 </sst>
 </file>
@@ -3323,7 +3293,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3568,8 +3538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD4A05BE-0829-4916-8CBE-3D9085460AC4}">
   <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3874,7 +3844,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD14"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6907,7 +6877,7 @@
   <dimension ref="A1:BE418"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
@@ -15572,8 +15542,8 @@
   <dimension ref="A1:BE624"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A174" sqref="A174:XFD174"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G143" sqref="G143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31011,55 +30981,872 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC77A329-7251-499A-9D87-F96780710E25}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q15" sqref="Q15"/>
+      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>749</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>748</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>750</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
+        <v>44890</v>
+      </c>
+      <c r="B2" s="5">
+        <v>44896</v>
+      </c>
+      <c r="C2">
+        <v>18800</v>
+      </c>
+      <c r="D2">
+        <v>18200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>44897</v>
+      </c>
+      <c r="B3" s="5">
+        <v>44903</v>
+      </c>
+      <c r="C3">
+        <v>19100</v>
+      </c>
+      <c r="D3">
+        <v>18450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>44904</v>
+      </c>
+      <c r="B4" s="5">
+        <v>44910</v>
+      </c>
+      <c r="C4">
+        <v>18950</v>
+      </c>
+      <c r="D4">
+        <v>18400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>44911</v>
+      </c>
+      <c r="B5" s="5">
+        <v>44917</v>
+      </c>
+      <c r="C5">
+        <v>18700</v>
+      </c>
+      <c r="D5">
+        <v>18050</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>44918</v>
+      </c>
+      <c r="B6" s="5">
+        <v>44924</v>
+      </c>
+      <c r="C6">
+        <v>18450</v>
+      </c>
+      <c r="D6">
+        <v>17600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>44925</v>
+      </c>
+      <c r="B7" s="5">
+        <v>44931</v>
+      </c>
+      <c r="C7">
+        <v>18550</v>
+      </c>
+      <c r="D7">
+        <v>17900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>44932</v>
+      </c>
+      <c r="B8" s="5">
+        <v>44938</v>
+      </c>
+      <c r="C8">
+        <v>18350</v>
+      </c>
+      <c r="D8">
+        <v>17650</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>44939</v>
+      </c>
+      <c r="B9" s="5">
+        <v>44945</v>
+      </c>
+      <c r="C9">
+        <v>18200</v>
+      </c>
+      <c r="D9">
+        <v>17450</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>44946</v>
+      </c>
+      <c r="B10" s="5">
+        <v>44952</v>
+      </c>
+      <c r="C10">
+        <v>18400</v>
+      </c>
+      <c r="D10">
+        <v>17800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>44953</v>
+      </c>
+      <c r="B11" s="5">
+        <v>44959</v>
+      </c>
+      <c r="C11">
+        <v>18450</v>
+      </c>
+      <c r="D11">
+        <v>17650</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>44960</v>
+      </c>
+      <c r="B12" s="5">
+        <v>44966</v>
+      </c>
+      <c r="C12">
+        <v>18100</v>
+      </c>
+      <c r="D12">
+        <v>17300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>44967</v>
+      </c>
+      <c r="B13" s="5">
+        <v>44973</v>
+      </c>
+      <c r="C13">
+        <v>18150</v>
+      </c>
+      <c r="D13">
+        <v>17550</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>44974</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B14" s="5">
         <v>44980</v>
       </c>
-      <c r="C2">
+      <c r="C14">
         <v>18250</v>
       </c>
-      <c r="D2">
+      <c r="D14">
         <v>17650</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>44981</v>
+      </c>
+      <c r="B15" s="5">
+        <v>44987</v>
+      </c>
+      <c r="C15">
+        <v>17900</v>
+      </c>
+      <c r="D15">
+        <v>17300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>44988</v>
+      </c>
+      <c r="B16" s="5">
+        <v>44994</v>
+      </c>
+      <c r="C16">
+        <v>17700</v>
+      </c>
+      <c r="D16">
+        <v>17200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>44995</v>
+      </c>
+      <c r="B17" s="5">
+        <v>45001</v>
+      </c>
+      <c r="C17">
+        <v>17700</v>
+      </c>
+      <c r="D17">
+        <v>17050</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>45002</v>
+      </c>
+      <c r="B18" s="5">
+        <v>45008</v>
+      </c>
+      <c r="C18">
+        <v>17500</v>
+      </c>
+      <c r="D18">
+        <v>16700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>45009</v>
+      </c>
+      <c r="B19" s="5">
+        <v>45015</v>
+      </c>
+      <c r="C19">
+        <v>17400</v>
+      </c>
+      <c r="D19">
+        <v>16750</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>45016</v>
+      </c>
+      <c r="B20" s="5">
+        <v>45022</v>
+      </c>
+      <c r="C20">
+        <v>17550</v>
+      </c>
+      <c r="D20">
+        <v>16900</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>45022</v>
+      </c>
+      <c r="B21" s="5">
+        <v>45029</v>
+      </c>
+      <c r="C21">
+        <v>17800</v>
+      </c>
+      <c r="D21">
+        <v>17200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>45029</v>
+      </c>
+      <c r="B22" s="5">
+        <v>45036</v>
+      </c>
+      <c r="C22">
+        <v>18100</v>
+      </c>
+      <c r="D22">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>45037</v>
+      </c>
+      <c r="B23" s="5">
+        <v>45043</v>
+      </c>
+      <c r="C23">
+        <v>17900</v>
+      </c>
+      <c r="D23">
+        <v>17400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>45044</v>
+      </c>
+      <c r="B24" s="5">
+        <v>45050</v>
+      </c>
+      <c r="C24">
+        <v>18200</v>
+      </c>
+      <c r="D24">
+        <v>17700</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>45051</v>
+      </c>
+      <c r="B25" s="5">
+        <v>45057</v>
+      </c>
+      <c r="C25">
+        <v>18450</v>
+      </c>
+      <c r="D25">
+        <v>17900</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>45058</v>
+      </c>
+      <c r="B26" s="5">
+        <v>45064</v>
+      </c>
+      <c r="C26">
+        <v>18550</v>
+      </c>
+      <c r="D26">
+        <v>17950</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>45065</v>
+      </c>
+      <c r="B27" s="5">
+        <v>45071</v>
+      </c>
+      <c r="C27">
+        <v>18450</v>
+      </c>
+      <c r="D27">
+        <v>17900</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>45072</v>
+      </c>
+      <c r="B28" s="5">
+        <v>45078</v>
+      </c>
+      <c r="C28">
+        <v>18600</v>
+      </c>
+      <c r="D28">
+        <v>18050</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>45079</v>
+      </c>
+      <c r="B29" s="5">
+        <v>45085</v>
+      </c>
+      <c r="C29">
+        <v>18850</v>
+      </c>
+      <c r="D29">
+        <v>18300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>45086</v>
+      </c>
+      <c r="B30" s="5">
+        <v>45092</v>
+      </c>
+      <c r="C30">
+        <v>18950</v>
+      </c>
+      <c r="D30">
+        <v>18400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>45093</v>
+      </c>
+      <c r="B31" s="5">
+        <v>45099</v>
+      </c>
+      <c r="C31">
+        <v>19000</v>
+      </c>
+      <c r="D31">
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>45100</v>
+      </c>
+      <c r="B32" s="5">
+        <v>45106</v>
+      </c>
+      <c r="C32">
+        <v>19000</v>
+      </c>
+      <c r="D32">
+        <v>18450</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>45107</v>
+      </c>
+      <c r="B33" s="5">
+        <v>45113</v>
+      </c>
+      <c r="C33">
+        <v>19350</v>
+      </c>
+      <c r="D33">
+        <v>18800</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>45114</v>
+      </c>
+      <c r="B34" s="5">
+        <v>45120</v>
+      </c>
+      <c r="C34">
+        <v>19750</v>
+      </c>
+      <c r="D34">
+        <v>19150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>45121</v>
+      </c>
+      <c r="B35" s="5">
+        <v>45127</v>
+      </c>
+      <c r="C35">
+        <v>19750</v>
+      </c>
+      <c r="D35">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>45128</v>
+      </c>
+      <c r="B36" s="5">
+        <v>45134</v>
+      </c>
+      <c r="C36">
+        <v>20200</v>
+      </c>
+      <c r="D36">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>45135</v>
+      </c>
+      <c r="B37" s="5">
+        <v>45141</v>
+      </c>
+      <c r="C37">
+        <v>19950</v>
+      </c>
+      <c r="D37">
+        <v>19300</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>45142</v>
+      </c>
+      <c r="B38" s="5">
+        <v>45148</v>
+      </c>
+      <c r="C38">
+        <v>19800</v>
+      </c>
+      <c r="D38">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>45149</v>
+      </c>
+      <c r="B39" s="5">
+        <v>45155</v>
+      </c>
+      <c r="C39">
+        <v>19800</v>
+      </c>
+      <c r="D39">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>45156</v>
+      </c>
+      <c r="B40" s="5">
+        <v>45162</v>
+      </c>
+      <c r="C40">
+        <v>19600</v>
+      </c>
+      <c r="D40">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>45163</v>
+      </c>
+      <c r="B41" s="5">
+        <v>45169</v>
+      </c>
+      <c r="C41">
+        <v>19550</v>
+      </c>
+      <c r="D41">
+        <v>18950</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>45170</v>
+      </c>
+      <c r="B42" s="5">
+        <v>45176</v>
+      </c>
+      <c r="C42">
+        <v>19600</v>
+      </c>
+      <c r="D42">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>45177</v>
+      </c>
+      <c r="B43" s="5">
+        <v>45183</v>
+      </c>
+      <c r="C43">
+        <v>20000</v>
+      </c>
+      <c r="D43">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>45184</v>
+      </c>
+      <c r="B44" s="5">
+        <v>45190</v>
+      </c>
+      <c r="C44">
+        <v>20450</v>
+      </c>
+      <c r="D44">
+        <v>19850</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>45191</v>
+      </c>
+      <c r="B45" s="5">
+        <v>45197</v>
+      </c>
+      <c r="C45">
+        <v>20100</v>
+      </c>
+      <c r="D45">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>45198</v>
+      </c>
+      <c r="B46" s="5">
+        <v>45204</v>
+      </c>
+      <c r="C46">
+        <v>19900</v>
+      </c>
+      <c r="D46">
+        <v>19250</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>45205</v>
+      </c>
+      <c r="B47" s="5">
+        <v>45211</v>
+      </c>
+      <c r="C47">
+        <v>19900</v>
+      </c>
+      <c r="D47">
+        <v>19300</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>45212</v>
+      </c>
+      <c r="B48" s="5">
+        <v>45218</v>
+      </c>
+      <c r="C48">
+        <v>20000</v>
+      </c>
+      <c r="D48">
+        <v>19400</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>45219</v>
+      </c>
+      <c r="B49" s="5">
+        <v>45225</v>
+      </c>
+      <c r="C49">
+        <v>19850</v>
+      </c>
+      <c r="D49">
+        <v>19250</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>45226</v>
+      </c>
+      <c r="B50" s="5">
+        <v>45232</v>
+      </c>
+      <c r="C50">
+        <v>19300</v>
+      </c>
+      <c r="D50">
+        <v>18600</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>45233</v>
+      </c>
+      <c r="B51" s="5">
+        <v>45239</v>
+      </c>
+      <c r="C51">
+        <v>19550</v>
+      </c>
+      <c r="D51">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>45240</v>
+      </c>
+      <c r="B52" s="5">
+        <v>45246</v>
+      </c>
+      <c r="C52">
+        <v>19600</v>
+      </c>
+      <c r="D52">
+        <v>19100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>45247</v>
+      </c>
+      <c r="B53" s="5">
+        <v>45253</v>
+      </c>
+      <c r="C53">
+        <v>20050</v>
+      </c>
+      <c r="D53">
+        <v>19450</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>45254</v>
+      </c>
+      <c r="B54" s="5">
+        <v>45260</v>
+      </c>
+      <c r="C54">
+        <v>20100</v>
+      </c>
+      <c r="D54">
+        <v>19600</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>45261</v>
+      </c>
+      <c r="B55" s="5">
+        <v>45267</v>
+      </c>
+      <c r="C55">
+        <v>20600</v>
+      </c>
+      <c r="D55">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>45268</v>
+      </c>
+      <c r="B56" s="5">
+        <v>45274</v>
+      </c>
+      <c r="C56">
+        <v>21300</v>
+      </c>
+      <c r="D56">
+        <v>20650</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>45275</v>
+      </c>
+      <c r="B57" s="5">
+        <v>45281</v>
+      </c>
+      <c r="C57">
+        <v>21650</v>
+      </c>
+      <c r="D57">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>45282</v>
+      </c>
+      <c r="B58" s="5">
+        <v>45288</v>
+      </c>
+      <c r="C58">
+        <v>21700</v>
+      </c>
+      <c r="D58">
+        <v>20900</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>45289</v>
+      </c>
+      <c r="B59" s="5">
+        <v>45295</v>
+      </c>
+      <c r="C59">
+        <v>22200</v>
+      </c>
+      <c r="D59">
+        <v>21300</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>45296</v>
+      </c>
+      <c r="B60" s="5">
+        <v>45302</v>
+      </c>
+      <c r="C60">
+        <v>22100</v>
+      </c>
+      <c r="D60">
+        <v>21400</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>45303</v>
+      </c>
+      <c r="B61" s="5">
+        <v>45309</v>
+      </c>
+      <c r="C61">
+        <v>22100</v>
+      </c>
+      <c r="D61">
+        <v>21350</v>
       </c>
     </row>
   </sheetData>
@@ -31072,9 +31859,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79D554C-32E4-4850-8281-0B395C874923}">
   <dimension ref="A1:AI71"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF49" sqref="AF49"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33788,7 +34575,7 @@
         <v>845</v>
       </c>
       <c r="E60">
-        <v>0.67934782608695654</v>
+        <v>0.67934782608695699</v>
       </c>
       <c r="F60">
         <v>1.201086956521739</v>
@@ -34143,113 +34930,46 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1038C2B1-FD4B-405F-A983-721EBFEAF8B7}">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F77133-D8A7-4072-B33D-60604D8AE3BE}">
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>936</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>938</v>
+      </c>
+      <c r="F1" t="s">
+        <v>939</v>
+      </c>
+      <c r="G1" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>938</v>
-      </c>
-      <c r="B2" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="H1" t="s">
         <v>940</v>
-      </c>
-      <c r="B3" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>941</v>
-      </c>
-      <c r="B4" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>942</v>
-      </c>
-      <c r="B5" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="B6" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>944</v>
-      </c>
-      <c r="B7" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="B8" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>946</v>
-      </c>
-      <c r="B9" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>947</v>
-      </c>
-      <c r="B10" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>948</v>
-      </c>
-      <c r="B11" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>950</v>
-      </c>
-      <c r="B12" t="s">
-        <v>949</v>
       </c>
     </row>
   </sheetData>

--- a/Zerodha_GUI/Kite_Zerodha-main/Kite_Zerodha-main/Startjee.xlsx
+++ b/Zerodha_GUI/Kite_Zerodha-main/Kite_Zerodha-main/Startjee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ashu\Finance\algo_trading\Zerodha_GUI\Kite_Zerodha-main\Kite_Zerodha-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460466E1-8AB0-4D8B-9F5E-F5EE2AEA7BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AEDC09-EA8D-4C37-AA81-9E30FAC5163C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{111B81BB-D847-4952-A3F9-2C9FB2D32C52}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="5" xr2:uid="{111B81BB-D847-4952-A3F9-2C9FB2D32C52}"/>
   </bookViews>
   <sheets>
     <sheet name="Imp Events and Explanation" sheetId="6" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="Fixed SL" sheetId="10" r:id="rId4"/>
     <sheet name="Trailing SL" sheetId="11" r:id="rId5"/>
     <sheet name="Past_Backtesting" sheetId="12" r:id="rId6"/>
-    <sheet name="Report" sheetId="13" r:id="rId7"/>
-    <sheet name="Comparision_real_backtest_data" sheetId="15" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="17" r:id="rId7"/>
+    <sheet name="Report" sheetId="13" r:id="rId8"/>
+    <sheet name="Historical_Strikes_copy" sheetId="15" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Fixed SL'!$A$1:$A$418</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="936">
   <si>
     <t>Date</t>
   </si>
@@ -2908,7 +2909,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2941,7 +2942,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2967,8 +2968,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -30978,7 +30983,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U8" sqref="U8"/>
+      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31004,17 +31009,17 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
-        <v>43938</v>
-      </c>
-      <c r="B2" s="17">
-        <v>43944</v>
-      </c>
-      <c r="C2" s="18">
-        <v>9850</v>
-      </c>
-      <c r="D2" s="18">
-        <v>8750</v>
+      <c r="A2" s="5">
+        <v>45499</v>
+      </c>
+      <c r="B2" s="5">
+        <v>45505</v>
+      </c>
+      <c r="C2">
+        <v>24850</v>
+      </c>
+      <c r="D2">
+        <v>24000</v>
       </c>
     </row>
   </sheetData>
@@ -31024,12 +31029,3236 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{881ADC67-8579-4923-A735-51C104EF913E}">
+  <dimension ref="A1:D229"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5">
+        <v>43833</v>
+      </c>
+      <c r="B1" s="5">
+        <v>43839</v>
+      </c>
+      <c r="C1">
+        <v>12450</v>
+      </c>
+      <c r="D1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>43840</v>
+      </c>
+      <c r="B2" s="5">
+        <v>43846</v>
+      </c>
+      <c r="C2">
+        <v>12450</v>
+      </c>
+      <c r="D2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>43847</v>
+      </c>
+      <c r="B3" s="5">
+        <v>43853</v>
+      </c>
+      <c r="C3">
+        <v>12550</v>
+      </c>
+      <c r="D3">
+        <v>12100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>43854</v>
+      </c>
+      <c r="B4" s="5">
+        <v>43860</v>
+      </c>
+      <c r="C4">
+        <v>12400</v>
+      </c>
+      <c r="D4">
+        <v>11900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>43861</v>
+      </c>
+      <c r="B5" s="5">
+        <v>43867</v>
+      </c>
+      <c r="C5">
+        <v>12500</v>
+      </c>
+      <c r="D5">
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>43868</v>
+      </c>
+      <c r="B6" s="5">
+        <v>43874</v>
+      </c>
+      <c r="C6">
+        <v>12350</v>
+      </c>
+      <c r="D6">
+        <v>11850</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>43875</v>
+      </c>
+      <c r="B7" s="13">
+        <v>43881</v>
+      </c>
+      <c r="C7" s="4">
+        <v>12450</v>
+      </c>
+      <c r="D7" s="4">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>43881</v>
+      </c>
+      <c r="B8" s="5">
+        <v>43888</v>
+      </c>
+      <c r="C8">
+        <v>12350</v>
+      </c>
+      <c r="D8">
+        <v>11850</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>43896</v>
+      </c>
+      <c r="B9" s="5">
+        <v>43902</v>
+      </c>
+      <c r="C9">
+        <v>11300</v>
+      </c>
+      <c r="D9">
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>43910</v>
+      </c>
+      <c r="B10" s="5">
+        <v>43916</v>
+      </c>
+      <c r="C10">
+        <v>9450</v>
+      </c>
+      <c r="D10">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>43917</v>
+      </c>
+      <c r="B11" s="5">
+        <v>43922</v>
+      </c>
+      <c r="C11">
+        <v>9900</v>
+      </c>
+      <c r="D11">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>43924</v>
+      </c>
+      <c r="B12" s="5">
+        <v>43930</v>
+      </c>
+      <c r="C12">
+        <v>8750</v>
+      </c>
+      <c r="D12">
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>43930</v>
+      </c>
+      <c r="B13" s="5">
+        <v>43937</v>
+      </c>
+      <c r="C13">
+        <v>9600</v>
+      </c>
+      <c r="D13">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>43938</v>
+      </c>
+      <c r="B14" s="17">
+        <v>43944</v>
+      </c>
+      <c r="C14" s="18">
+        <v>9850</v>
+      </c>
+      <c r="D14" s="18">
+        <v>8750</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>43945</v>
+      </c>
+      <c r="B15" s="5">
+        <v>43951</v>
+      </c>
+      <c r="C15">
+        <v>9600</v>
+      </c>
+      <c r="D15">
+        <v>8650</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>43951</v>
+      </c>
+      <c r="B16" s="5">
+        <v>43958</v>
+      </c>
+      <c r="C16">
+        <v>10100</v>
+      </c>
+      <c r="D16">
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>43959</v>
+      </c>
+      <c r="B17" s="5">
+        <v>43965</v>
+      </c>
+      <c r="C17">
+        <v>9800</v>
+      </c>
+      <c r="D17">
+        <v>8900</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>43966</v>
+      </c>
+      <c r="B18" s="13">
+        <v>43972</v>
+      </c>
+      <c r="C18" s="4">
+        <v>9600</v>
+      </c>
+      <c r="D18" s="4">
+        <v>8650</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>43973</v>
+      </c>
+      <c r="B19" s="5">
+        <v>43979</v>
+      </c>
+      <c r="C19">
+        <v>9400</v>
+      </c>
+      <c r="D19">
+        <v>8650</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>43980</v>
+      </c>
+      <c r="B20" s="5">
+        <v>43986</v>
+      </c>
+      <c r="C20">
+        <v>9800</v>
+      </c>
+      <c r="D20">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>43987</v>
+      </c>
+      <c r="B21" s="5">
+        <v>43993</v>
+      </c>
+      <c r="C21">
+        <v>10500</v>
+      </c>
+      <c r="D21">
+        <v>9650</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>43994</v>
+      </c>
+      <c r="B22" s="5">
+        <v>44000</v>
+      </c>
+      <c r="C22">
+        <v>10100</v>
+      </c>
+      <c r="D22">
+        <v>9050</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>44001</v>
+      </c>
+      <c r="B23" s="5">
+        <v>44007</v>
+      </c>
+      <c r="C23">
+        <v>10550</v>
+      </c>
+      <c r="D23">
+        <v>9650</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>44008</v>
+      </c>
+      <c r="B24" s="5">
+        <v>44014</v>
+      </c>
+      <c r="C24">
+        <v>10750</v>
+      </c>
+      <c r="D24">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>44015</v>
+      </c>
+      <c r="B25" s="5">
+        <v>44021</v>
+      </c>
+      <c r="C25">
+        <v>10950</v>
+      </c>
+      <c r="D25">
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>44022</v>
+      </c>
+      <c r="B26" s="5">
+        <v>44028</v>
+      </c>
+      <c r="C26">
+        <v>11100</v>
+      </c>
+      <c r="D26">
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>44029</v>
+      </c>
+      <c r="B27" s="5">
+        <v>44035</v>
+      </c>
+      <c r="C27">
+        <v>11100</v>
+      </c>
+      <c r="D27">
+        <v>10450</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>44036</v>
+      </c>
+      <c r="B28" s="5">
+        <v>44042</v>
+      </c>
+      <c r="C28">
+        <v>11450</v>
+      </c>
+      <c r="D28">
+        <v>10700</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>44043</v>
+      </c>
+      <c r="B29" s="5">
+        <v>44049</v>
+      </c>
+      <c r="C29">
+        <v>11450</v>
+      </c>
+      <c r="D29">
+        <v>10650</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>44050</v>
+      </c>
+      <c r="B30" s="5">
+        <v>44056</v>
+      </c>
+      <c r="C30">
+        <v>11500</v>
+      </c>
+      <c r="D30">
+        <v>10850</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>44057</v>
+      </c>
+      <c r="B31" s="5">
+        <v>44063</v>
+      </c>
+      <c r="C31">
+        <v>11600</v>
+      </c>
+      <c r="D31">
+        <v>11050</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>44064</v>
+      </c>
+      <c r="B32" s="5">
+        <v>44070</v>
+      </c>
+      <c r="C32">
+        <v>11650</v>
+      </c>
+      <c r="D32">
+        <v>11050</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
+        <v>44071</v>
+      </c>
+      <c r="B33" s="13">
+        <v>44077</v>
+      </c>
+      <c r="C33" s="4">
+        <v>11850</v>
+      </c>
+      <c r="D33" s="4">
+        <v>11300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>44078</v>
+      </c>
+      <c r="B34" s="5">
+        <v>44084</v>
+      </c>
+      <c r="C34">
+        <v>11700</v>
+      </c>
+      <c r="D34">
+        <v>10950</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>44085</v>
+      </c>
+      <c r="B35" s="5">
+        <v>44091</v>
+      </c>
+      <c r="C35">
+        <v>11750</v>
+      </c>
+      <c r="D35">
+        <v>11100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>44092</v>
+      </c>
+      <c r="B36" s="5">
+        <v>44098</v>
+      </c>
+      <c r="C36">
+        <v>11800</v>
+      </c>
+      <c r="D36">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>44099</v>
+      </c>
+      <c r="B37" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C37">
+        <v>11250</v>
+      </c>
+      <c r="D37">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>44105</v>
+      </c>
+      <c r="B38" s="5">
+        <v>44112</v>
+      </c>
+      <c r="C38">
+        <v>11650</v>
+      </c>
+      <c r="D38">
+        <v>11050</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>44113</v>
+      </c>
+      <c r="B39" s="5">
+        <v>44119</v>
+      </c>
+      <c r="C39">
+        <v>12200</v>
+      </c>
+      <c r="D39">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>44120</v>
+      </c>
+      <c r="B40" s="5">
+        <v>44126</v>
+      </c>
+      <c r="C40">
+        <v>12100</v>
+      </c>
+      <c r="D40">
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>44127</v>
+      </c>
+      <c r="B41" s="5">
+        <v>44133</v>
+      </c>
+      <c r="C41">
+        <v>12250</v>
+      </c>
+      <c r="D41">
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>44134</v>
+      </c>
+      <c r="B42" s="5">
+        <v>44140</v>
+      </c>
+      <c r="C42">
+        <v>12100</v>
+      </c>
+      <c r="D42">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>44141</v>
+      </c>
+      <c r="B43" s="5">
+        <v>44147</v>
+      </c>
+      <c r="C43">
+        <v>12450</v>
+      </c>
+      <c r="D43">
+        <v>11750</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>44148</v>
+      </c>
+      <c r="B44" s="5">
+        <v>44154</v>
+      </c>
+      <c r="C44">
+        <v>12950</v>
+      </c>
+      <c r="D44">
+        <v>12300</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>44155</v>
+      </c>
+      <c r="B45" s="5">
+        <v>44161</v>
+      </c>
+      <c r="C45">
+        <v>13150</v>
+      </c>
+      <c r="D45">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>44162</v>
+      </c>
+      <c r="B46" s="5">
+        <v>44168</v>
+      </c>
+      <c r="C46">
+        <v>13350</v>
+      </c>
+      <c r="D46">
+        <v>12650</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>44169</v>
+      </c>
+      <c r="B47" s="5">
+        <v>44175</v>
+      </c>
+      <c r="C47">
+        <v>13500</v>
+      </c>
+      <c r="D47">
+        <v>12850</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>44176</v>
+      </c>
+      <c r="B48" s="5">
+        <v>44182</v>
+      </c>
+      <c r="C48">
+        <v>13850</v>
+      </c>
+      <c r="D48">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>44183</v>
+      </c>
+      <c r="B49" s="5">
+        <v>44189</v>
+      </c>
+      <c r="C49">
+        <v>14050</v>
+      </c>
+      <c r="D49">
+        <v>13400</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>44189</v>
+      </c>
+      <c r="B50" s="5">
+        <v>44196</v>
+      </c>
+      <c r="C50">
+        <v>14000</v>
+      </c>
+      <c r="D50">
+        <v>13300</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>44197</v>
+      </c>
+      <c r="B51" s="5">
+        <v>44203</v>
+      </c>
+      <c r="C51">
+        <v>14350</v>
+      </c>
+      <c r="D51">
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>44204</v>
+      </c>
+      <c r="B52" s="5">
+        <v>44210</v>
+      </c>
+      <c r="C52">
+        <v>14550</v>
+      </c>
+      <c r="D52">
+        <v>13900</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>44211</v>
+      </c>
+      <c r="B53" s="5">
+        <v>44217</v>
+      </c>
+      <c r="C53">
+        <v>14950</v>
+      </c>
+      <c r="D53">
+        <v>14150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>44218</v>
+      </c>
+      <c r="B54" s="5">
+        <v>44224</v>
+      </c>
+      <c r="C54">
+        <v>14950</v>
+      </c>
+      <c r="D54">
+        <v>14100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="16">
+        <v>44225</v>
+      </c>
+      <c r="B55" s="16">
+        <v>44231</v>
+      </c>
+      <c r="C55" s="9">
+        <v>14500</v>
+      </c>
+      <c r="D55" s="9">
+        <v>13350</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>44232</v>
+      </c>
+      <c r="B56" s="5">
+        <v>44238</v>
+      </c>
+      <c r="C56">
+        <v>15400</v>
+      </c>
+      <c r="D56">
+        <v>14450</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>44239</v>
+      </c>
+      <c r="B57" s="5">
+        <v>44245</v>
+      </c>
+      <c r="C57">
+        <v>15550</v>
+      </c>
+      <c r="D57">
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>44246</v>
+      </c>
+      <c r="B58" s="5">
+        <v>44252</v>
+      </c>
+      <c r="C58">
+        <v>15400</v>
+      </c>
+      <c r="D58">
+        <v>14600</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>44253</v>
+      </c>
+      <c r="B59" s="5">
+        <v>44259</v>
+      </c>
+      <c r="C59">
+        <v>15300</v>
+      </c>
+      <c r="D59">
+        <v>14300</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>44260</v>
+      </c>
+      <c r="B60" s="5">
+        <v>44266</v>
+      </c>
+      <c r="C60">
+        <v>15500</v>
+      </c>
+      <c r="D60">
+        <v>14300</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>44267</v>
+      </c>
+      <c r="B61" s="5">
+        <v>44273</v>
+      </c>
+      <c r="C61">
+        <v>15700</v>
+      </c>
+      <c r="D61">
+        <v>14850</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>44274</v>
+      </c>
+      <c r="B62" s="5">
+        <v>44280</v>
+      </c>
+      <c r="C62">
+        <v>14950</v>
+      </c>
+      <c r="D62">
+        <v>13850</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>44281</v>
+      </c>
+      <c r="B63" s="5">
+        <v>44287</v>
+      </c>
+      <c r="C63">
+        <v>14950</v>
+      </c>
+      <c r="D63">
+        <v>13950</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>44287</v>
+      </c>
+      <c r="B64" s="5">
+        <v>44294</v>
+      </c>
+      <c r="C64">
+        <v>15200</v>
+      </c>
+      <c r="D64">
+        <v>14350</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <v>44295</v>
+      </c>
+      <c r="B65" s="5">
+        <v>44301</v>
+      </c>
+      <c r="C65">
+        <v>15250</v>
+      </c>
+      <c r="D65">
+        <v>14300</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>44302</v>
+      </c>
+      <c r="B66" s="5">
+        <v>44308</v>
+      </c>
+      <c r="C66">
+        <v>15000</v>
+      </c>
+      <c r="D66">
+        <v>14100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>44309</v>
+      </c>
+      <c r="B67" s="5">
+        <v>44315</v>
+      </c>
+      <c r="C67">
+        <v>14800</v>
+      </c>
+      <c r="D67">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
+        <v>44316</v>
+      </c>
+      <c r="B68" s="5">
+        <v>44322</v>
+      </c>
+      <c r="C68">
+        <v>15250</v>
+      </c>
+      <c r="D68">
+        <v>14200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
+        <v>44323</v>
+      </c>
+      <c r="B69" s="5">
+        <v>44328</v>
+      </c>
+      <c r="C69">
+        <v>15200</v>
+      </c>
+      <c r="D69">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
+        <v>44330</v>
+      </c>
+      <c r="B70" s="5">
+        <v>44336</v>
+      </c>
+      <c r="C70">
+        <v>15100</v>
+      </c>
+      <c r="D70">
+        <v>14300</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
+        <v>44337</v>
+      </c>
+      <c r="B71" s="5">
+        <v>44343</v>
+      </c>
+      <c r="C71">
+        <v>15350</v>
+      </c>
+      <c r="D71">
+        <v>14650</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="5">
+        <v>44344</v>
+      </c>
+      <c r="B72" s="5">
+        <v>44350</v>
+      </c>
+      <c r="C72">
+        <v>15750</v>
+      </c>
+      <c r="D72">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
+        <v>44351</v>
+      </c>
+      <c r="B73" s="5">
+        <v>44357</v>
+      </c>
+      <c r="C73">
+        <v>16000</v>
+      </c>
+      <c r="D73">
+        <v>15350</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
+        <v>44358</v>
+      </c>
+      <c r="B74" s="5">
+        <v>44364</v>
+      </c>
+      <c r="C74">
+        <v>16100</v>
+      </c>
+      <c r="D74">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="5">
+        <v>44365</v>
+      </c>
+      <c r="B75" s="5">
+        <v>44371</v>
+      </c>
+      <c r="C75">
+        <v>16000</v>
+      </c>
+      <c r="D75">
+        <v>15350</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
+        <v>44372</v>
+      </c>
+      <c r="B76" s="5">
+        <v>44378</v>
+      </c>
+      <c r="C76">
+        <v>16150</v>
+      </c>
+      <c r="D76">
+        <v>15450</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="5">
+        <v>44379</v>
+      </c>
+      <c r="B77" s="5">
+        <v>44385</v>
+      </c>
+      <c r="C77">
+        <v>15950</v>
+      </c>
+      <c r="D77">
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="5">
+        <v>44386</v>
+      </c>
+      <c r="B78" s="5">
+        <v>44392</v>
+      </c>
+      <c r="C78">
+        <v>15950</v>
+      </c>
+      <c r="D78">
+        <v>15350</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="5">
+        <v>44393</v>
+      </c>
+      <c r="B79" s="5">
+        <v>44399</v>
+      </c>
+      <c r="C79">
+        <v>16200</v>
+      </c>
+      <c r="D79">
+        <v>15650</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="5">
+        <v>44400</v>
+      </c>
+      <c r="B80" s="5">
+        <v>44406</v>
+      </c>
+      <c r="C80">
+        <v>16100</v>
+      </c>
+      <c r="D80">
+        <v>15600</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="5">
+        <v>44407</v>
+      </c>
+      <c r="B81" s="5">
+        <v>44413</v>
+      </c>
+      <c r="C81">
+        <v>16050</v>
+      </c>
+      <c r="D81">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="5">
+        <v>44414</v>
+      </c>
+      <c r="B82" s="5">
+        <v>44420</v>
+      </c>
+      <c r="C82">
+        <v>16600</v>
+      </c>
+      <c r="D82">
+        <v>15950</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="5">
+        <v>44421</v>
+      </c>
+      <c r="B83" s="5">
+        <v>44426</v>
+      </c>
+      <c r="C83">
+        <v>16650</v>
+      </c>
+      <c r="D83">
+        <v>16150</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="5">
+        <v>44428</v>
+      </c>
+      <c r="B84" s="5">
+        <v>44434</v>
+      </c>
+      <c r="C84">
+        <v>16700</v>
+      </c>
+      <c r="D84">
+        <v>16050</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="5">
+        <v>44435</v>
+      </c>
+      <c r="B85" s="5">
+        <v>44441</v>
+      </c>
+      <c r="C85">
+        <v>16900</v>
+      </c>
+      <c r="D85">
+        <v>16350</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="5">
+        <v>44442</v>
+      </c>
+      <c r="B86" s="5">
+        <v>44448</v>
+      </c>
+      <c r="C86">
+        <v>17650</v>
+      </c>
+      <c r="D86">
+        <v>16950</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="5">
+        <v>44448</v>
+      </c>
+      <c r="B87" s="5">
+        <v>44455</v>
+      </c>
+      <c r="C87">
+        <v>17650</v>
+      </c>
+      <c r="D87">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="5">
+        <v>44456</v>
+      </c>
+      <c r="B88" s="5">
+        <v>44462</v>
+      </c>
+      <c r="C88">
+        <v>18050</v>
+      </c>
+      <c r="D88">
+        <v>17400</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="5">
+        <v>44463</v>
+      </c>
+      <c r="B89" s="5">
+        <v>44469</v>
+      </c>
+      <c r="C89">
+        <v>18350</v>
+      </c>
+      <c r="D89">
+        <v>17550</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="5">
+        <v>44470</v>
+      </c>
+      <c r="B90" s="5">
+        <v>44476</v>
+      </c>
+      <c r="C90">
+        <v>17900</v>
+      </c>
+      <c r="D90">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="5">
+        <v>44477</v>
+      </c>
+      <c r="B91" s="5">
+        <v>44483</v>
+      </c>
+      <c r="C91">
+        <v>18200</v>
+      </c>
+      <c r="D91">
+        <v>17450</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="5">
+        <v>44483</v>
+      </c>
+      <c r="B92" s="5">
+        <v>44490</v>
+      </c>
+      <c r="C92">
+        <v>18650</v>
+      </c>
+      <c r="D92">
+        <v>17850</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="5">
+        <v>44491</v>
+      </c>
+      <c r="B93" s="5">
+        <v>44497</v>
+      </c>
+      <c r="C93">
+        <v>18700</v>
+      </c>
+      <c r="D93">
+        <v>17850</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="5">
+        <v>44498</v>
+      </c>
+      <c r="B94" s="5">
+        <v>44503</v>
+      </c>
+      <c r="C94">
+        <v>18200</v>
+      </c>
+      <c r="D94">
+        <v>17150</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="5">
+        <v>44503</v>
+      </c>
+      <c r="B95" s="5">
+        <v>44511</v>
+      </c>
+      <c r="C95">
+        <v>18400</v>
+      </c>
+      <c r="D95">
+        <v>17550</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="5">
+        <v>44512</v>
+      </c>
+      <c r="B96" s="5">
+        <v>44518</v>
+      </c>
+      <c r="C96">
+        <v>18300</v>
+      </c>
+      <c r="D96">
+        <v>17600</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="5">
+        <v>44518</v>
+      </c>
+      <c r="B97" s="5">
+        <v>44525</v>
+      </c>
+      <c r="C97">
+        <v>18300</v>
+      </c>
+      <c r="D97">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="5">
+        <v>44526</v>
+      </c>
+      <c r="B98" s="5">
+        <v>44532</v>
+      </c>
+      <c r="C98">
+        <v>17700</v>
+      </c>
+      <c r="D98">
+        <v>16850</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="5">
+        <v>44533</v>
+      </c>
+      <c r="B99" s="5">
+        <v>44539</v>
+      </c>
+      <c r="C99">
+        <v>17850</v>
+      </c>
+      <c r="D99">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="5">
+        <v>44540</v>
+      </c>
+      <c r="B100" s="5">
+        <v>44546</v>
+      </c>
+      <c r="C100">
+        <v>17850</v>
+      </c>
+      <c r="D100">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="5">
+        <v>44547</v>
+      </c>
+      <c r="B101" s="5">
+        <v>44553</v>
+      </c>
+      <c r="C101">
+        <v>17600</v>
+      </c>
+      <c r="D101">
+        <v>16750</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="5">
+        <v>44554</v>
+      </c>
+      <c r="B102" s="5">
+        <v>44560</v>
+      </c>
+      <c r="C102">
+        <v>17450</v>
+      </c>
+      <c r="D102">
+        <v>16600</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="5">
+        <v>44561</v>
+      </c>
+      <c r="B103" s="5">
+        <v>44567</v>
+      </c>
+      <c r="C103">
+        <v>17650</v>
+      </c>
+      <c r="D103">
+        <v>16850</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="5">
+        <v>44568</v>
+      </c>
+      <c r="B104" s="5">
+        <v>44574</v>
+      </c>
+      <c r="C104">
+        <v>18250</v>
+      </c>
+      <c r="D104">
+        <v>17400</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="5">
+        <v>44575</v>
+      </c>
+      <c r="B105" s="5">
+        <v>44581</v>
+      </c>
+      <c r="C105">
+        <v>18500</v>
+      </c>
+      <c r="D105">
+        <v>17750</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="5">
+        <v>44582</v>
+      </c>
+      <c r="B106" s="5">
+        <v>44588</v>
+      </c>
+      <c r="C106">
+        <v>18000</v>
+      </c>
+      <c r="D106">
+        <v>17050</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="5">
+        <v>44589</v>
+      </c>
+      <c r="B107" s="5">
+        <v>44595</v>
+      </c>
+      <c r="C107">
+        <v>18000</v>
+      </c>
+      <c r="D107">
+        <v>16600</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="5">
+        <v>44596</v>
+      </c>
+      <c r="B108" s="5">
+        <v>44602</v>
+      </c>
+      <c r="C108">
+        <v>17950</v>
+      </c>
+      <c r="D108">
+        <v>16950</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="5">
+        <v>44603</v>
+      </c>
+      <c r="B109" s="5">
+        <v>44609</v>
+      </c>
+      <c r="C109">
+        <v>17850</v>
+      </c>
+      <c r="D109">
+        <v>16950</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="5">
+        <v>44610</v>
+      </c>
+      <c r="B110" s="5">
+        <v>44616</v>
+      </c>
+      <c r="C110">
+        <v>17800</v>
+      </c>
+      <c r="D110">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="5">
+        <v>44617</v>
+      </c>
+      <c r="B111" s="5">
+        <v>44623</v>
+      </c>
+      <c r="C111">
+        <v>17200</v>
+      </c>
+      <c r="D111">
+        <v>15750</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="5">
+        <v>44624</v>
+      </c>
+      <c r="B112" s="5">
+        <v>44630</v>
+      </c>
+      <c r="C112">
+        <v>16950</v>
+      </c>
+      <c r="D112">
+        <v>15450</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="5">
+        <v>44631</v>
+      </c>
+      <c r="B113" s="5">
+        <v>44637</v>
+      </c>
+      <c r="C113">
+        <v>17150</v>
+      </c>
+      <c r="D113">
+        <v>15850</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="5">
+        <v>44637</v>
+      </c>
+      <c r="B114" s="5">
+        <v>44644</v>
+      </c>
+      <c r="C114">
+        <v>17800</v>
+      </c>
+      <c r="D114">
+        <v>16550</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="5">
+        <v>44645</v>
+      </c>
+      <c r="B115" s="5">
+        <v>44651</v>
+      </c>
+      <c r="C115">
+        <v>17750</v>
+      </c>
+      <c r="D115">
+        <v>16700</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="5">
+        <v>44652</v>
+      </c>
+      <c r="B116" s="5">
+        <v>44658</v>
+      </c>
+      <c r="C116">
+        <v>17900</v>
+      </c>
+      <c r="D116">
+        <v>16950</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="5">
+        <v>44659</v>
+      </c>
+      <c r="B117" s="5">
+        <v>44664</v>
+      </c>
+      <c r="C117">
+        <v>18100</v>
+      </c>
+      <c r="D117">
+        <v>17250</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="5">
+        <v>44664</v>
+      </c>
+      <c r="B118" s="5">
+        <v>44672</v>
+      </c>
+      <c r="C118">
+        <v>18050</v>
+      </c>
+      <c r="D118">
+        <v>17250</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="5">
+        <v>44673</v>
+      </c>
+      <c r="B119" s="5">
+        <v>44679</v>
+      </c>
+      <c r="C119">
+        <v>17600</v>
+      </c>
+      <c r="D119">
+        <v>16750</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="5">
+        <v>44680</v>
+      </c>
+      <c r="B120" s="5">
+        <v>44686</v>
+      </c>
+      <c r="C120">
+        <v>17700</v>
+      </c>
+      <c r="D120">
+        <v>16900</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="5">
+        <v>44687</v>
+      </c>
+      <c r="B121" s="5">
+        <v>44693</v>
+      </c>
+      <c r="C121">
+        <v>16900</v>
+      </c>
+      <c r="D121">
+        <v>15850</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="5">
+        <v>44694</v>
+      </c>
+      <c r="B122" s="5">
+        <v>44700</v>
+      </c>
+      <c r="C122">
+        <v>16450</v>
+      </c>
+      <c r="D122">
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="5">
+        <v>44701</v>
+      </c>
+      <c r="B123" s="5">
+        <v>44707</v>
+      </c>
+      <c r="C123">
+        <v>16550</v>
+      </c>
+      <c r="D123">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="5">
+        <v>44708</v>
+      </c>
+      <c r="B124" s="5">
+        <v>44714</v>
+      </c>
+      <c r="C124">
+        <v>16750</v>
+      </c>
+      <c r="D124">
+        <v>15750</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="5">
+        <v>44715</v>
+      </c>
+      <c r="B125" s="5">
+        <v>44721</v>
+      </c>
+      <c r="C125">
+        <v>17200</v>
+      </c>
+      <c r="D125">
+        <v>16300</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="5">
+        <v>44722</v>
+      </c>
+      <c r="B126" s="5">
+        <v>44728</v>
+      </c>
+      <c r="C126">
+        <v>16700</v>
+      </c>
+      <c r="D126">
+        <v>15850</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="5">
+        <v>44729</v>
+      </c>
+      <c r="B127" s="5">
+        <v>44735</v>
+      </c>
+      <c r="C127">
+        <v>15800</v>
+      </c>
+      <c r="D127">
+        <v>14700</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="5">
+        <v>44736</v>
+      </c>
+      <c r="B128" s="5">
+        <v>44742</v>
+      </c>
+      <c r="C128">
+        <v>16200</v>
+      </c>
+      <c r="D128">
+        <v>15200</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B129" s="5">
+        <v>44749</v>
+      </c>
+      <c r="C129">
+        <v>16100</v>
+      </c>
+      <c r="D129">
+        <v>15150</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="5">
+        <v>44750</v>
+      </c>
+      <c r="B130" s="5">
+        <v>44756</v>
+      </c>
+      <c r="C130">
+        <v>16600</v>
+      </c>
+      <c r="D130">
+        <v>15750</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="5">
+        <v>44757</v>
+      </c>
+      <c r="B131" s="5">
+        <v>44763</v>
+      </c>
+      <c r="C131">
+        <v>16350</v>
+      </c>
+      <c r="D131">
+        <v>15650</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="5">
+        <v>44764</v>
+      </c>
+      <c r="B132" s="5">
+        <v>44770</v>
+      </c>
+      <c r="C132">
+        <v>17000</v>
+      </c>
+      <c r="D132">
+        <v>16300</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="5">
+        <v>44771</v>
+      </c>
+      <c r="B133" s="5">
+        <v>44777</v>
+      </c>
+      <c r="C133">
+        <v>17500</v>
+      </c>
+      <c r="D133">
+        <v>16700</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="5">
+        <v>44778</v>
+      </c>
+      <c r="B134" s="5">
+        <v>44784</v>
+      </c>
+      <c r="C134">
+        <v>17850</v>
+      </c>
+      <c r="D134">
+        <v>16900</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="5">
+        <v>44785</v>
+      </c>
+      <c r="B135" s="5">
+        <v>44791</v>
+      </c>
+      <c r="C135">
+        <v>17950</v>
+      </c>
+      <c r="D135">
+        <v>17300</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="5">
+        <v>44792</v>
+      </c>
+      <c r="B136" s="5">
+        <v>44798</v>
+      </c>
+      <c r="C136">
+        <v>18300</v>
+      </c>
+      <c r="D136">
+        <v>17600</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="5">
+        <v>44799</v>
+      </c>
+      <c r="B137" s="5">
+        <v>44805</v>
+      </c>
+      <c r="C137">
+        <v>18050</v>
+      </c>
+      <c r="D137">
+        <v>17250</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="5">
+        <v>44806</v>
+      </c>
+      <c r="B138" s="5">
+        <v>44812</v>
+      </c>
+      <c r="C138">
+        <v>18050</v>
+      </c>
+      <c r="D138">
+        <v>17100</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="5">
+        <v>44813</v>
+      </c>
+      <c r="B139" s="5">
+        <v>44819</v>
+      </c>
+      <c r="C139">
+        <v>18250</v>
+      </c>
+      <c r="D139">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="5">
+        <v>44820</v>
+      </c>
+      <c r="B140" s="5">
+        <v>44826</v>
+      </c>
+      <c r="C140">
+        <v>18200</v>
+      </c>
+      <c r="D140">
+        <v>17300</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="5">
+        <v>44827</v>
+      </c>
+      <c r="B141" s="5">
+        <v>44833</v>
+      </c>
+      <c r="C141">
+        <v>18000</v>
+      </c>
+      <c r="D141">
+        <v>17050</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="5">
+        <v>44834</v>
+      </c>
+      <c r="B142" s="5">
+        <v>44840</v>
+      </c>
+      <c r="C142">
+        <v>17300</v>
+      </c>
+      <c r="D142">
+        <v>16250</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="5">
+        <v>44841</v>
+      </c>
+      <c r="B143" s="5">
+        <v>44847</v>
+      </c>
+      <c r="C143">
+        <v>17700</v>
+      </c>
+      <c r="D143">
+        <v>16850</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="5">
+        <v>44848</v>
+      </c>
+      <c r="B144" s="5">
+        <v>44854</v>
+      </c>
+      <c r="C144">
+        <v>17700</v>
+      </c>
+      <c r="D144">
+        <v>16900</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="5">
+        <v>44862</v>
+      </c>
+      <c r="B145" s="5">
+        <v>44868</v>
+      </c>
+      <c r="C145">
+        <v>18150</v>
+      </c>
+      <c r="D145">
+        <v>17400</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="5">
+        <v>44869</v>
+      </c>
+      <c r="B146" s="5">
+        <v>44875</v>
+      </c>
+      <c r="C146">
+        <v>18450</v>
+      </c>
+      <c r="D146">
+        <v>17700</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="5">
+        <v>44876</v>
+      </c>
+      <c r="B147" s="5">
+        <v>44882</v>
+      </c>
+      <c r="C147">
+        <v>18600</v>
+      </c>
+      <c r="D147">
+        <v>17950</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="5">
+        <v>44883</v>
+      </c>
+      <c r="B148" s="5">
+        <v>44889</v>
+      </c>
+      <c r="C148">
+        <v>18650</v>
+      </c>
+      <c r="D148">
+        <v>18050</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="5">
+        <v>44890</v>
+      </c>
+      <c r="B149" s="5">
+        <v>44896</v>
+      </c>
+      <c r="C149">
+        <v>18800</v>
+      </c>
+      <c r="D149">
+        <v>18200</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="5">
+        <v>44897</v>
+      </c>
+      <c r="B150" s="5">
+        <v>44903</v>
+      </c>
+      <c r="C150">
+        <v>19100</v>
+      </c>
+      <c r="D150">
+        <v>18450</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="5">
+        <v>44904</v>
+      </c>
+      <c r="B151" s="5">
+        <v>44910</v>
+      </c>
+      <c r="C151">
+        <v>18950</v>
+      </c>
+      <c r="D151">
+        <v>18400</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="5">
+        <v>44911</v>
+      </c>
+      <c r="B152" s="5">
+        <v>44917</v>
+      </c>
+      <c r="C152">
+        <v>18700</v>
+      </c>
+      <c r="D152">
+        <v>18050</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="5">
+        <v>44918</v>
+      </c>
+      <c r="B153" s="5">
+        <v>44924</v>
+      </c>
+      <c r="C153">
+        <v>18450</v>
+      </c>
+      <c r="D153">
+        <v>17600</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="5">
+        <v>44925</v>
+      </c>
+      <c r="B154" s="5">
+        <v>44931</v>
+      </c>
+      <c r="C154">
+        <v>18550</v>
+      </c>
+      <c r="D154">
+        <v>17900</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="5">
+        <v>44932</v>
+      </c>
+      <c r="B155" s="5">
+        <v>44938</v>
+      </c>
+      <c r="C155">
+        <v>18350</v>
+      </c>
+      <c r="D155">
+        <v>17650</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="5">
+        <v>44939</v>
+      </c>
+      <c r="B156" s="5">
+        <v>44945</v>
+      </c>
+      <c r="C156">
+        <v>18200</v>
+      </c>
+      <c r="D156">
+        <v>17450</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="5">
+        <v>44946</v>
+      </c>
+      <c r="B157" s="5">
+        <v>44952</v>
+      </c>
+      <c r="C157">
+        <v>18400</v>
+      </c>
+      <c r="D157">
+        <v>17800</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="16">
+        <v>44953</v>
+      </c>
+      <c r="B158" s="16">
+        <v>44959</v>
+      </c>
+      <c r="C158" s="9">
+        <v>18350</v>
+      </c>
+      <c r="D158" s="9">
+        <v>17300</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="5">
+        <v>44960</v>
+      </c>
+      <c r="B159" s="5">
+        <v>44966</v>
+      </c>
+      <c r="C159">
+        <v>18100</v>
+      </c>
+      <c r="D159">
+        <v>17300</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="5">
+        <v>44967</v>
+      </c>
+      <c r="B160" s="5">
+        <v>44973</v>
+      </c>
+      <c r="C160">
+        <v>18150</v>
+      </c>
+      <c r="D160">
+        <v>17550</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="5">
+        <v>44974</v>
+      </c>
+      <c r="B161" s="5">
+        <v>44980</v>
+      </c>
+      <c r="C161">
+        <v>18250</v>
+      </c>
+      <c r="D161">
+        <v>17650</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="5">
+        <v>44981</v>
+      </c>
+      <c r="B162" s="5">
+        <v>44987</v>
+      </c>
+      <c r="C162">
+        <v>17900</v>
+      </c>
+      <c r="D162">
+        <v>17300</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="5">
+        <v>44988</v>
+      </c>
+      <c r="B163" s="5">
+        <v>44994</v>
+      </c>
+      <c r="C163">
+        <v>17700</v>
+      </c>
+      <c r="D163">
+        <v>17200</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="5">
+        <v>44995</v>
+      </c>
+      <c r="B164" s="5">
+        <v>45001</v>
+      </c>
+      <c r="C164">
+        <v>17700</v>
+      </c>
+      <c r="D164">
+        <v>17050</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="5">
+        <v>45002</v>
+      </c>
+      <c r="B165" s="5">
+        <v>45008</v>
+      </c>
+      <c r="C165">
+        <v>17500</v>
+      </c>
+      <c r="D165">
+        <v>16700</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="5">
+        <v>45009</v>
+      </c>
+      <c r="B166" s="5">
+        <v>45015</v>
+      </c>
+      <c r="C166">
+        <v>17400</v>
+      </c>
+      <c r="D166">
+        <v>16750</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="5">
+        <v>45016</v>
+      </c>
+      <c r="B167" s="5">
+        <v>45022</v>
+      </c>
+      <c r="C167">
+        <v>17550</v>
+      </c>
+      <c r="D167">
+        <v>16900</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="5">
+        <v>45022</v>
+      </c>
+      <c r="B168" s="5">
+        <v>45029</v>
+      </c>
+      <c r="C168">
+        <v>17800</v>
+      </c>
+      <c r="D168">
+        <v>17200</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="5">
+        <v>45029</v>
+      </c>
+      <c r="B169" s="5">
+        <v>45036</v>
+      </c>
+      <c r="C169">
+        <v>18100</v>
+      </c>
+      <c r="D169">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="5">
+        <v>45037</v>
+      </c>
+      <c r="B170" s="5">
+        <v>45043</v>
+      </c>
+      <c r="C170">
+        <v>17900</v>
+      </c>
+      <c r="D170">
+        <v>17400</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="5">
+        <v>45044</v>
+      </c>
+      <c r="B171" s="5">
+        <v>45050</v>
+      </c>
+      <c r="C171">
+        <v>18200</v>
+      </c>
+      <c r="D171">
+        <v>17700</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="5">
+        <v>45051</v>
+      </c>
+      <c r="B172" s="5">
+        <v>45057</v>
+      </c>
+      <c r="C172">
+        <v>18450</v>
+      </c>
+      <c r="D172">
+        <v>17900</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="5">
+        <v>45058</v>
+      </c>
+      <c r="B173" s="5">
+        <v>45064</v>
+      </c>
+      <c r="C173">
+        <v>18550</v>
+      </c>
+      <c r="D173">
+        <v>17950</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="5">
+        <v>45065</v>
+      </c>
+      <c r="B174" s="5">
+        <v>45071</v>
+      </c>
+      <c r="C174">
+        <v>18450</v>
+      </c>
+      <c r="D174">
+        <v>17900</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="5">
+        <v>45072</v>
+      </c>
+      <c r="B175" s="5">
+        <v>45078</v>
+      </c>
+      <c r="C175">
+        <v>18600</v>
+      </c>
+      <c r="D175">
+        <v>18050</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="5">
+        <v>45079</v>
+      </c>
+      <c r="B176" s="5">
+        <v>45085</v>
+      </c>
+      <c r="C176">
+        <v>18850</v>
+      </c>
+      <c r="D176">
+        <v>18300</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="5">
+        <v>45086</v>
+      </c>
+      <c r="B177" s="5">
+        <v>45092</v>
+      </c>
+      <c r="C177">
+        <v>18950</v>
+      </c>
+      <c r="D177">
+        <v>18400</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="5">
+        <v>45093</v>
+      </c>
+      <c r="B178" s="5">
+        <v>45099</v>
+      </c>
+      <c r="C178">
+        <v>19000</v>
+      </c>
+      <c r="D178">
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="5">
+        <v>45100</v>
+      </c>
+      <c r="B179" s="5">
+        <v>45106</v>
+      </c>
+      <c r="C179">
+        <v>19000</v>
+      </c>
+      <c r="D179">
+        <v>18450</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="5">
+        <v>45107</v>
+      </c>
+      <c r="B180" s="5">
+        <v>45113</v>
+      </c>
+      <c r="C180">
+        <v>19350</v>
+      </c>
+      <c r="D180">
+        <v>18800</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="5">
+        <v>45114</v>
+      </c>
+      <c r="B181" s="5">
+        <v>45120</v>
+      </c>
+      <c r="C181">
+        <v>19750</v>
+      </c>
+      <c r="D181">
+        <v>19150</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="5">
+        <v>45121</v>
+      </c>
+      <c r="B182" s="5">
+        <v>45127</v>
+      </c>
+      <c r="C182">
+        <v>19750</v>
+      </c>
+      <c r="D182">
+        <v>19250</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="5">
+        <v>45128</v>
+      </c>
+      <c r="B183" s="5">
+        <v>45134</v>
+      </c>
+      <c r="C183">
+        <v>20200</v>
+      </c>
+      <c r="D183">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="5">
+        <v>45135</v>
+      </c>
+      <c r="B184" s="5">
+        <v>45141</v>
+      </c>
+      <c r="C184">
+        <v>19950</v>
+      </c>
+      <c r="D184">
+        <v>19300</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="5">
+        <v>45142</v>
+      </c>
+      <c r="B185" s="5">
+        <v>45148</v>
+      </c>
+      <c r="C185">
+        <v>19800</v>
+      </c>
+      <c r="D185">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="5">
+        <v>45149</v>
+      </c>
+      <c r="B186" s="5">
+        <v>45155</v>
+      </c>
+      <c r="C186">
+        <v>19800</v>
+      </c>
+      <c r="D186">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="5">
+        <v>45156</v>
+      </c>
+      <c r="B187" s="5">
+        <v>45162</v>
+      </c>
+      <c r="C187">
+        <v>19600</v>
+      </c>
+      <c r="D187">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="5">
+        <v>45163</v>
+      </c>
+      <c r="B188" s="5">
+        <v>45169</v>
+      </c>
+      <c r="C188">
+        <v>19550</v>
+      </c>
+      <c r="D188">
+        <v>18950</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="5">
+        <v>45170</v>
+      </c>
+      <c r="B189" s="5">
+        <v>45176</v>
+      </c>
+      <c r="C189">
+        <v>19600</v>
+      </c>
+      <c r="D189">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="5">
+        <v>45177</v>
+      </c>
+      <c r="B190" s="5">
+        <v>45183</v>
+      </c>
+      <c r="C190">
+        <v>20000</v>
+      </c>
+      <c r="D190">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="5">
+        <v>45184</v>
+      </c>
+      <c r="B191" s="5">
+        <v>45190</v>
+      </c>
+      <c r="C191">
+        <v>20450</v>
+      </c>
+      <c r="D191">
+        <v>19850</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="5">
+        <v>45191</v>
+      </c>
+      <c r="B192" s="5">
+        <v>45197</v>
+      </c>
+      <c r="C192">
+        <v>20100</v>
+      </c>
+      <c r="D192">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="5">
+        <v>45198</v>
+      </c>
+      <c r="B193" s="5">
+        <v>45204</v>
+      </c>
+      <c r="C193">
+        <v>19900</v>
+      </c>
+      <c r="D193">
+        <v>19250</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="5">
+        <v>45205</v>
+      </c>
+      <c r="B194" s="5">
+        <v>45211</v>
+      </c>
+      <c r="C194">
+        <v>19900</v>
+      </c>
+      <c r="D194">
+        <v>19300</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="5">
+        <v>45212</v>
+      </c>
+      <c r="B195" s="5">
+        <v>45218</v>
+      </c>
+      <c r="C195">
+        <v>20000</v>
+      </c>
+      <c r="D195">
+        <v>19400</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="5">
+        <v>45219</v>
+      </c>
+      <c r="B196" s="5">
+        <v>45225</v>
+      </c>
+      <c r="C196">
+        <v>19850</v>
+      </c>
+      <c r="D196">
+        <v>19250</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="5">
+        <v>45226</v>
+      </c>
+      <c r="B197" s="5">
+        <v>45232</v>
+      </c>
+      <c r="C197">
+        <v>19300</v>
+      </c>
+      <c r="D197">
+        <v>18600</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="5">
+        <v>45233</v>
+      </c>
+      <c r="B198" s="5">
+        <v>45239</v>
+      </c>
+      <c r="C198">
+        <v>19550</v>
+      </c>
+      <c r="D198">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="5">
+        <v>45240</v>
+      </c>
+      <c r="B199" s="5">
+        <v>45246</v>
+      </c>
+      <c r="C199">
+        <v>19600</v>
+      </c>
+      <c r="D199">
+        <v>19100</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="5">
+        <v>45247</v>
+      </c>
+      <c r="B200" s="5">
+        <v>45253</v>
+      </c>
+      <c r="C200">
+        <v>20050</v>
+      </c>
+      <c r="D200">
+        <v>19450</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="5">
+        <v>45254</v>
+      </c>
+      <c r="B201" s="5">
+        <v>45260</v>
+      </c>
+      <c r="C201">
+        <v>20100</v>
+      </c>
+      <c r="D201">
+        <v>19600</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="5">
+        <v>45261</v>
+      </c>
+      <c r="B202" s="5">
+        <v>45267</v>
+      </c>
+      <c r="C202">
+        <v>20600</v>
+      </c>
+      <c r="D202">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="5">
+        <v>45268</v>
+      </c>
+      <c r="B203" s="5">
+        <v>45274</v>
+      </c>
+      <c r="C203">
+        <v>21300</v>
+      </c>
+      <c r="D203">
+        <v>20650</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="5">
+        <v>45275</v>
+      </c>
+      <c r="B204" s="5">
+        <v>45281</v>
+      </c>
+      <c r="C204">
+        <v>21650</v>
+      </c>
+      <c r="D204">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="5">
+        <v>45282</v>
+      </c>
+      <c r="B205" s="5">
+        <v>45288</v>
+      </c>
+      <c r="C205">
+        <v>21700</v>
+      </c>
+      <c r="D205">
+        <v>20900</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="5">
+        <v>45289</v>
+      </c>
+      <c r="B206" s="5">
+        <v>45295</v>
+      </c>
+      <c r="C206">
+        <v>22200</v>
+      </c>
+      <c r="D206">
+        <v>21300</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="5">
+        <v>45296</v>
+      </c>
+      <c r="B207" s="5">
+        <v>45302</v>
+      </c>
+      <c r="C207">
+        <v>22100</v>
+      </c>
+      <c r="D207">
+        <v>21400</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="5">
+        <v>45303</v>
+      </c>
+      <c r="B208" s="5">
+        <v>45309</v>
+      </c>
+      <c r="C208">
+        <v>22100</v>
+      </c>
+      <c r="D208">
+        <v>21350</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="5">
+        <v>45310</v>
+      </c>
+      <c r="B209" s="5">
+        <v>45316</v>
+      </c>
+      <c r="C209">
+        <v>22100</v>
+      </c>
+      <c r="D209">
+        <v>21200</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="5">
+        <v>45324</v>
+      </c>
+      <c r="B210" s="5">
+        <v>45330</v>
+      </c>
+      <c r="C210">
+        <v>22400</v>
+      </c>
+      <c r="D210">
+        <v>21450</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="5">
+        <v>45331</v>
+      </c>
+      <c r="B211" s="5">
+        <v>45337</v>
+      </c>
+      <c r="C211">
+        <v>22200</v>
+      </c>
+      <c r="D211">
+        <v>21200</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="21">
+        <v>45338</v>
+      </c>
+      <c r="B212" s="21">
+        <v>45344</v>
+      </c>
+      <c r="C212" s="22">
+        <v>22450</v>
+      </c>
+      <c r="D212" s="22">
+        <v>21550</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="21">
+        <v>45345</v>
+      </c>
+      <c r="B213" s="21">
+        <v>45351</v>
+      </c>
+      <c r="C213" s="22">
+        <v>22700</v>
+      </c>
+      <c r="D213" s="22">
+        <v>21800</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="21">
+        <v>45352</v>
+      </c>
+      <c r="B214" s="21">
+        <v>45358</v>
+      </c>
+      <c r="C214" s="22">
+        <v>22600</v>
+      </c>
+      <c r="D214" s="22">
+        <v>21650</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="21">
+        <v>45359</v>
+      </c>
+      <c r="B215" s="21">
+        <v>45365</v>
+      </c>
+      <c r="C215" s="22" t="s">
+        <v>935</v>
+      </c>
+      <c r="D215" s="22" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="21">
+        <v>45366</v>
+      </c>
+      <c r="B216" s="21">
+        <v>45372</v>
+      </c>
+      <c r="C216" s="22">
+        <v>22550</v>
+      </c>
+      <c r="D216" s="22">
+        <v>21650</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="5">
+        <v>45373</v>
+      </c>
+      <c r="B217" s="5">
+        <v>45379</v>
+      </c>
+      <c r="C217">
+        <v>22400</v>
+      </c>
+      <c r="D217">
+        <v>21650</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="5">
+        <v>45380</v>
+      </c>
+      <c r="B218" s="5">
+        <v>45386</v>
+      </c>
+      <c r="C218" t="s">
+        <v>935</v>
+      </c>
+      <c r="D218" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="5">
+        <v>45387</v>
+      </c>
+      <c r="B219" s="5">
+        <v>45392</v>
+      </c>
+      <c r="C219">
+        <v>22850</v>
+      </c>
+      <c r="D219">
+        <v>22050</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="5">
+        <v>45394</v>
+      </c>
+      <c r="B220" s="5">
+        <v>45400</v>
+      </c>
+      <c r="C220">
+        <v>23050</v>
+      </c>
+      <c r="D220">
+        <v>22300</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="5">
+        <v>45401</v>
+      </c>
+      <c r="B221" s="5">
+        <v>45407</v>
+      </c>
+      <c r="C221">
+        <v>22300</v>
+      </c>
+      <c r="D221">
+        <v>21250</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="5">
+        <v>45408</v>
+      </c>
+      <c r="B222" s="5">
+        <v>45414</v>
+      </c>
+      <c r="C222">
+        <v>22950</v>
+      </c>
+      <c r="D222">
+        <v>22150</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="5">
+        <v>45415</v>
+      </c>
+      <c r="B223" s="5">
+        <v>45421</v>
+      </c>
+      <c r="C223">
+        <v>23150</v>
+      </c>
+      <c r="D223">
+        <v>22400</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="5">
+        <v>45422</v>
+      </c>
+      <c r="B224" s="5">
+        <v>45428</v>
+      </c>
+      <c r="C224">
+        <v>22500</v>
+      </c>
+      <c r="D224">
+        <v>21500</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="21">
+        <v>45429</v>
+      </c>
+      <c r="B225" s="21">
+        <v>45435</v>
+      </c>
+      <c r="C225" s="22">
+        <v>22800</v>
+      </c>
+      <c r="D225" s="22">
+        <v>21950</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="5">
+        <v>45436</v>
+      </c>
+      <c r="B226" s="5">
+        <v>45442</v>
+      </c>
+      <c r="C226">
+        <v>23450</v>
+      </c>
+      <c r="D226">
+        <v>22450</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="5">
+        <v>45443</v>
+      </c>
+      <c r="B227" s="5">
+        <v>45449</v>
+      </c>
+      <c r="C227">
+        <v>23850</v>
+      </c>
+      <c r="D227">
+        <v>21500</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="5">
+        <v>45450</v>
+      </c>
+      <c r="B228" s="5">
+        <v>45456</v>
+      </c>
+      <c r="C228">
+        <v>23450</v>
+      </c>
+      <c r="D228">
+        <v>22150</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="19">
+        <v>45464</v>
+      </c>
+      <c r="B229" s="19">
+        <v>45470</v>
+      </c>
+      <c r="C229" s="20">
+        <v>23950</v>
+      </c>
+      <c r="D229" s="20">
+        <v>23150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79D554C-32E4-4850-8281-0B395C874923}">
   <dimension ref="A1:AI71"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K67" sqref="K67"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34097,17 +37326,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F77133-D8A7-4072-B33D-60604D8AE3BE}">
-  <dimension ref="A1:D230"/>
+  <dimension ref="A1:D232"/>
   <sheetViews>
-    <sheetView topLeftCell="A195" workbookViewId="0">
-      <selection sqref="A1:D230"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
@@ -34116,25 +37345,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5">
-        <v>43833</v>
-      </c>
-      <c r="B1" s="5">
-        <v>43839</v>
-      </c>
-      <c r="C1">
-        <v>12450</v>
-      </c>
-      <c r="D1">
-        <v>12000</v>
+      <c r="A1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B1" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1" t="s">
+        <v>748</v>
+      </c>
+      <c r="D1" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>43840</v>
+        <v>43833</v>
       </c>
       <c r="B2" s="5">
-        <v>43846</v>
+        <v>43839</v>
       </c>
       <c r="C2">
         <v>12450</v>
@@ -34145,251 +37374,251 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>43847</v>
+        <v>43840</v>
       </c>
       <c r="B3" s="5">
-        <v>43853</v>
+        <v>43846</v>
       </c>
       <c r="C3">
-        <v>12550</v>
+        <v>12450</v>
       </c>
       <c r="D3">
-        <v>12100</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>43854</v>
+        <v>43847</v>
       </c>
       <c r="B4" s="5">
-        <v>43860</v>
+        <v>43853</v>
       </c>
       <c r="C4">
-        <v>12400</v>
+        <v>12550</v>
       </c>
       <c r="D4">
-        <v>11900</v>
+        <v>12100</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>43861</v>
+        <v>43854</v>
       </c>
       <c r="B5" s="5">
-        <v>43867</v>
+        <v>43860</v>
       </c>
       <c r="C5">
-        <v>12500</v>
+        <v>12400</v>
       </c>
       <c r="D5">
-        <v>11600</v>
+        <v>11900</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>43868</v>
+        <v>43861</v>
       </c>
       <c r="B6" s="5">
-        <v>43874</v>
+        <v>43867</v>
       </c>
       <c r="C6">
-        <v>12350</v>
+        <v>12500</v>
       </c>
       <c r="D6">
-        <v>11850</v>
+        <v>11600</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>43875</v>
+        <v>43868</v>
       </c>
       <c r="B7" s="5">
-        <v>43881</v>
+        <v>43874</v>
       </c>
       <c r="C7">
-        <v>12450</v>
+        <v>12350</v>
       </c>
       <c r="D7">
-        <v>12000</v>
+        <v>11850</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
+        <v>43875</v>
+      </c>
+      <c r="B8" s="5">
         <v>43881</v>
       </c>
-      <c r="B8" s="5">
-        <v>43888</v>
-      </c>
       <c r="C8">
-        <v>12350</v>
+        <v>12450</v>
       </c>
       <c r="D8">
-        <v>11850</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>43889</v>
+        <v>43881</v>
       </c>
       <c r="B9" s="5">
-        <v>43895</v>
+        <v>43888</v>
       </c>
       <c r="C9">
-        <v>11700</v>
+        <v>12350</v>
       </c>
       <c r="D9">
-        <v>10800</v>
+        <v>11850</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>43896</v>
+        <v>43889</v>
       </c>
       <c r="B10" s="5">
-        <v>43902</v>
+        <v>43895</v>
       </c>
       <c r="C10">
-        <v>11300</v>
+        <v>11700</v>
       </c>
       <c r="D10">
-        <v>10200</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>43910</v>
+        <v>43896</v>
       </c>
       <c r="B11" s="5">
-        <v>43916</v>
+        <v>43902</v>
       </c>
       <c r="C11">
-        <v>9450</v>
+        <v>11300</v>
       </c>
       <c r="D11">
-        <v>7100</v>
+        <v>10200</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>43917</v>
+        <v>43910</v>
       </c>
       <c r="B12" s="5">
-        <v>43922</v>
+        <v>43916</v>
       </c>
       <c r="C12">
-        <v>9900</v>
+        <v>9450</v>
       </c>
       <c r="D12">
-        <v>7800</v>
+        <v>7100</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>43924</v>
+        <v>43917</v>
       </c>
       <c r="B13" s="5">
-        <v>43930</v>
+        <v>43922</v>
       </c>
       <c r="C13">
-        <v>8750</v>
+        <v>9900</v>
       </c>
       <c r="D13">
-        <v>7400</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
+        <v>43924</v>
+      </c>
+      <c r="B14" s="5">
         <v>43930</v>
       </c>
-      <c r="B14" s="5">
-        <v>43937</v>
-      </c>
       <c r="C14">
-        <v>9600</v>
+        <v>8750</v>
       </c>
       <c r="D14">
-        <v>8200</v>
+        <v>7400</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>43938</v>
+        <v>43930</v>
       </c>
       <c r="B15" s="5">
-        <v>43944</v>
+        <v>43937</v>
       </c>
       <c r="C15">
-        <v>9850</v>
+        <v>9600</v>
       </c>
       <c r="D15">
-        <v>8750</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>43945</v>
+        <v>43938</v>
       </c>
       <c r="B16" s="5">
-        <v>43951</v>
+        <v>43944</v>
       </c>
       <c r="C16">
-        <v>9600</v>
+        <v>9850</v>
       </c>
       <c r="D16">
-        <v>8650</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
+        <v>43945</v>
+      </c>
+      <c r="B17" s="5">
         <v>43951</v>
       </c>
-      <c r="B17" s="5">
-        <v>43958</v>
-      </c>
       <c r="C17">
-        <v>10100</v>
+        <v>9600</v>
       </c>
       <c r="D17">
-        <v>9300</v>
+        <v>8650</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>43959</v>
+        <v>43951</v>
       </c>
       <c r="B18" s="5">
-        <v>43965</v>
+        <v>43958</v>
       </c>
       <c r="C18">
-        <v>9800</v>
+        <v>10100</v>
       </c>
       <c r="D18">
-        <v>8900</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>43966</v>
+        <v>43959</v>
       </c>
       <c r="B19" s="5">
-        <v>43972</v>
+        <v>43965</v>
       </c>
       <c r="C19">
-        <v>9600</v>
+        <v>9800</v>
       </c>
       <c r="D19">
-        <v>8650</v>
+        <v>8900</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>43973</v>
+        <v>43966</v>
       </c>
       <c r="B20" s="5">
-        <v>43979</v>
+        <v>43972</v>
       </c>
       <c r="C20">
-        <v>9400</v>
+        <v>9600</v>
       </c>
       <c r="D20">
         <v>8650</v>
@@ -34397,181 +37626,181 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>43980</v>
+        <v>43973</v>
       </c>
       <c r="B21" s="5">
-        <v>43986</v>
+        <v>43979</v>
       </c>
       <c r="C21">
-        <v>9800</v>
+        <v>9400</v>
       </c>
       <c r="D21">
-        <v>9000</v>
+        <v>8650</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>43987</v>
+        <v>43980</v>
       </c>
       <c r="B22" s="5">
-        <v>43993</v>
+        <v>43986</v>
       </c>
       <c r="C22">
-        <v>10500</v>
+        <v>9800</v>
       </c>
       <c r="D22">
-        <v>9650</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>43994</v>
+        <v>43987</v>
       </c>
       <c r="B23" s="5">
-        <v>44000</v>
+        <v>43993</v>
       </c>
       <c r="C23">
-        <v>10100</v>
+        <v>10500</v>
       </c>
       <c r="D23">
-        <v>9050</v>
+        <v>9650</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>44001</v>
+        <v>43994</v>
       </c>
       <c r="B24" s="5">
-        <v>44007</v>
+        <v>44000</v>
       </c>
       <c r="C24">
-        <v>10550</v>
+        <v>10100</v>
       </c>
       <c r="D24">
-        <v>9650</v>
+        <v>9050</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>44008</v>
+        <v>44001</v>
       </c>
       <c r="B25" s="5">
-        <v>44014</v>
+        <v>44007</v>
       </c>
       <c r="C25">
-        <v>10750</v>
+        <v>10550</v>
       </c>
       <c r="D25">
-        <v>9900</v>
+        <v>9650</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>44015</v>
+        <v>44008</v>
       </c>
       <c r="B26" s="5">
-        <v>44021</v>
+        <v>44014</v>
       </c>
       <c r="C26">
-        <v>10950</v>
+        <v>10750</v>
       </c>
       <c r="D26">
-        <v>10200</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>44022</v>
+        <v>44015</v>
       </c>
       <c r="B27" s="5">
-        <v>44028</v>
+        <v>44021</v>
       </c>
       <c r="C27">
-        <v>11100</v>
+        <v>10950</v>
       </c>
       <c r="D27">
-        <v>10400</v>
+        <v>10200</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>44029</v>
+        <v>44022</v>
       </c>
       <c r="B28" s="5">
-        <v>44035</v>
+        <v>44028</v>
       </c>
       <c r="C28">
         <v>11100</v>
       </c>
       <c r="D28">
-        <v>10450</v>
+        <v>10400</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <v>44036</v>
+        <v>44029</v>
       </c>
       <c r="B29" s="5">
-        <v>44042</v>
+        <v>44035</v>
       </c>
       <c r="C29">
-        <v>11450</v>
+        <v>11100</v>
       </c>
       <c r="D29">
-        <v>10700</v>
+        <v>10450</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
-        <v>44043</v>
+        <v>44036</v>
       </c>
       <c r="B30" s="5">
-        <v>44049</v>
+        <v>44042</v>
       </c>
       <c r="C30">
         <v>11450</v>
       </c>
       <c r="D30">
-        <v>10650</v>
+        <v>10700</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
-        <v>44050</v>
+        <v>44043</v>
       </c>
       <c r="B31" s="5">
-        <v>44056</v>
+        <v>44049</v>
       </c>
       <c r="C31">
-        <v>11500</v>
+        <v>11450</v>
       </c>
       <c r="D31">
-        <v>10850</v>
+        <v>10650</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
-        <v>44057</v>
+        <v>44050</v>
       </c>
       <c r="B32" s="5">
-        <v>44063</v>
+        <v>44056</v>
       </c>
       <c r="C32">
-        <v>11600</v>
+        <v>11500</v>
       </c>
       <c r="D32">
-        <v>11050</v>
+        <v>10850</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
-        <v>44064</v>
+        <v>44057</v>
       </c>
       <c r="B33" s="5">
-        <v>44070</v>
+        <v>44063</v>
       </c>
       <c r="C33">
-        <v>11650</v>
+        <v>11600</v>
       </c>
       <c r="D33">
         <v>11050</v>
@@ -34579,391 +37808,391 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
-        <v>44071</v>
+        <v>44064</v>
       </c>
       <c r="B34" s="5">
-        <v>44077</v>
+        <v>44070</v>
       </c>
       <c r="C34">
-        <v>11850</v>
+        <v>11650</v>
       </c>
       <c r="D34">
-        <v>11300</v>
+        <v>11050</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
-        <v>44078</v>
+        <v>44071</v>
       </c>
       <c r="B35" s="5">
-        <v>44084</v>
+        <v>44077</v>
       </c>
       <c r="C35">
-        <v>11700</v>
+        <v>11850</v>
       </c>
       <c r="D35">
-        <v>10950</v>
+        <v>11300</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
-        <v>44085</v>
+        <v>44078</v>
       </c>
       <c r="B36" s="5">
-        <v>44091</v>
+        <v>44084</v>
       </c>
       <c r="C36">
-        <v>11750</v>
+        <v>11700</v>
       </c>
       <c r="D36">
-        <v>11100</v>
+        <v>10950</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
-        <v>44092</v>
+        <v>44085</v>
       </c>
       <c r="B37" s="5">
-        <v>44098</v>
+        <v>44091</v>
       </c>
       <c r="C37">
-        <v>11800</v>
+        <v>11750</v>
       </c>
       <c r="D37">
-        <v>11200</v>
+        <v>11100</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
-        <v>44099</v>
+        <v>44092</v>
       </c>
       <c r="B38" s="5">
-        <v>44105</v>
+        <v>44098</v>
       </c>
       <c r="C38">
-        <v>11250</v>
+        <v>11800</v>
       </c>
       <c r="D38">
-        <v>10500</v>
+        <v>11200</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
+        <v>44099</v>
+      </c>
+      <c r="B39" s="5">
         <v>44105</v>
       </c>
-      <c r="B39" s="5">
-        <v>44112</v>
-      </c>
       <c r="C39">
-        <v>11650</v>
+        <v>11250</v>
       </c>
       <c r="D39">
-        <v>11050</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
-        <v>44113</v>
+        <v>44105</v>
       </c>
       <c r="B40" s="5">
-        <v>44119</v>
+        <v>44112</v>
       </c>
       <c r="C40">
-        <v>12200</v>
+        <v>11650</v>
       </c>
       <c r="D40">
-        <v>11500</v>
+        <v>11050</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
-        <v>44120</v>
+        <v>44113</v>
       </c>
       <c r="B41" s="5">
-        <v>44126</v>
+        <v>44119</v>
       </c>
       <c r="C41">
-        <v>12100</v>
+        <v>12200</v>
       </c>
       <c r="D41">
-        <v>11400</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
-        <v>44127</v>
+        <v>44120</v>
       </c>
       <c r="B42" s="5">
-        <v>44133</v>
+        <v>44126</v>
       </c>
       <c r="C42">
-        <v>12250</v>
+        <v>12100</v>
       </c>
       <c r="D42">
-        <v>11600</v>
+        <v>11400</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
-        <v>44134</v>
+        <v>44127</v>
       </c>
       <c r="B43" s="5">
-        <v>44140</v>
+        <v>44133</v>
       </c>
       <c r="C43">
-        <v>12100</v>
+        <v>12250</v>
       </c>
       <c r="D43">
-        <v>11200</v>
+        <v>11600</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
-        <v>44141</v>
+        <v>44134</v>
       </c>
       <c r="B44" s="5">
-        <v>44147</v>
+        <v>44140</v>
       </c>
       <c r="C44">
-        <v>12450</v>
+        <v>12100</v>
       </c>
       <c r="D44">
-        <v>11750</v>
+        <v>11200</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
-        <v>44148</v>
+        <v>44141</v>
       </c>
       <c r="B45" s="5">
-        <v>44154</v>
+        <v>44147</v>
       </c>
       <c r="C45">
-        <v>12950</v>
+        <v>12450</v>
       </c>
       <c r="D45">
-        <v>12300</v>
+        <v>11750</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
-        <v>44155</v>
+        <v>44148</v>
       </c>
       <c r="B46" s="5">
-        <v>44161</v>
+        <v>44154</v>
       </c>
       <c r="C46">
-        <v>13150</v>
+        <v>12950</v>
       </c>
       <c r="D46">
-        <v>12500</v>
+        <v>12300</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
-        <v>44162</v>
+        <v>44155</v>
       </c>
       <c r="B47" s="5">
-        <v>44168</v>
+        <v>44161</v>
       </c>
       <c r="C47">
-        <v>13350</v>
+        <v>13150</v>
       </c>
       <c r="D47">
-        <v>12650</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
-        <v>44169</v>
+        <v>44162</v>
       </c>
       <c r="B48" s="5">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="C48">
-        <v>13500</v>
+        <v>13350</v>
       </c>
       <c r="D48">
-        <v>12850</v>
+        <v>12650</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
-        <v>44176</v>
+        <v>44169</v>
       </c>
       <c r="B49" s="5">
-        <v>44182</v>
+        <v>44175</v>
       </c>
       <c r="C49">
-        <v>13850</v>
+        <v>13500</v>
       </c>
       <c r="D49">
-        <v>13200</v>
+        <v>12850</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
-        <v>44183</v>
+        <v>44176</v>
       </c>
       <c r="B50" s="5">
-        <v>44189</v>
+        <v>44182</v>
       </c>
       <c r="C50">
-        <v>14050</v>
+        <v>13850</v>
       </c>
       <c r="D50">
-        <v>13400</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
+        <v>44183</v>
+      </c>
+      <c r="B51" s="5">
         <v>44189</v>
       </c>
-      <c r="B51" s="5">
-        <v>44196</v>
-      </c>
       <c r="C51">
-        <v>14000</v>
+        <v>14050</v>
       </c>
       <c r="D51">
-        <v>13300</v>
+        <v>13400</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
-        <v>44197</v>
+        <v>44189</v>
       </c>
       <c r="B52" s="5">
-        <v>44203</v>
+        <v>44196</v>
       </c>
       <c r="C52">
-        <v>14350</v>
+        <v>14000</v>
       </c>
       <c r="D52">
-        <v>13600</v>
+        <v>13300</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
-        <v>44204</v>
+        <v>44197</v>
       </c>
       <c r="B53" s="5">
-        <v>44210</v>
+        <v>44203</v>
       </c>
       <c r="C53">
-        <v>14550</v>
+        <v>14350</v>
       </c>
       <c r="D53">
-        <v>13900</v>
+        <v>13600</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
-        <v>44211</v>
+        <v>44204</v>
       </c>
       <c r="B54" s="5">
-        <v>44217</v>
+        <v>44210</v>
       </c>
       <c r="C54">
-        <v>14950</v>
+        <v>14550</v>
       </c>
       <c r="D54">
-        <v>14150</v>
+        <v>13900</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
-        <v>44218</v>
+        <v>44211</v>
       </c>
       <c r="B55" s="5">
-        <v>44224</v>
+        <v>44217</v>
       </c>
       <c r="C55">
         <v>14950</v>
       </c>
       <c r="D55">
-        <v>14100</v>
+        <v>14150</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
-        <v>44225</v>
+        <v>44218</v>
       </c>
       <c r="B56" s="5">
-        <v>44231</v>
+        <v>44224</v>
       </c>
       <c r="C56">
-        <v>14500</v>
+        <v>14950</v>
       </c>
       <c r="D56">
-        <v>13350</v>
+        <v>14100</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
-        <v>44232</v>
+        <v>44225</v>
       </c>
       <c r="B57" s="5">
-        <v>44238</v>
+        <v>44231</v>
       </c>
       <c r="C57">
-        <v>15400</v>
+        <v>14500</v>
       </c>
       <c r="D57">
-        <v>14450</v>
+        <v>13350</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
-        <v>44239</v>
+        <v>44232</v>
       </c>
       <c r="B58" s="5">
-        <v>44245</v>
+        <v>44238</v>
       </c>
       <c r="C58">
-        <v>15550</v>
+        <v>15400</v>
       </c>
       <c r="D58">
-        <v>14800</v>
+        <v>14450</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
-        <v>44246</v>
+        <v>44239</v>
       </c>
       <c r="B59" s="5">
-        <v>44252</v>
+        <v>44245</v>
       </c>
       <c r="C59">
-        <v>15400</v>
+        <v>15550</v>
       </c>
       <c r="D59">
-        <v>14600</v>
+        <v>14800</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
-        <v>44253</v>
+        <v>44246</v>
       </c>
       <c r="B60" s="5">
-        <v>44259</v>
+        <v>44252</v>
       </c>
       <c r="C60">
-        <v>15300</v>
+        <v>15400</v>
       </c>
       <c r="D60">
-        <v>14300</v>
+        <v>14600</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
-        <v>44260</v>
+        <v>44253</v>
       </c>
       <c r="B61" s="5">
-        <v>44266</v>
+        <v>44259</v>
       </c>
       <c r="C61">
-        <v>15500</v>
+        <v>15300</v>
       </c>
       <c r="D61">
         <v>14300</v>
@@ -34971,461 +38200,461 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="B62" s="5">
-        <v>44273</v>
+        <v>44266</v>
       </c>
       <c r="C62">
-        <v>15700</v>
+        <v>15500</v>
       </c>
       <c r="D62">
-        <v>14850</v>
+        <v>14300</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
-        <v>44274</v>
+        <v>44267</v>
       </c>
       <c r="B63" s="5">
-        <v>44280</v>
+        <v>44273</v>
       </c>
       <c r="C63">
-        <v>14950</v>
+        <v>15700</v>
       </c>
       <c r="D63">
-        <v>13850</v>
+        <v>14850</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
-        <v>44281</v>
+        <v>44274</v>
       </c>
       <c r="B64" s="5">
-        <v>44287</v>
+        <v>44280</v>
       </c>
       <c r="C64">
         <v>14950</v>
       </c>
       <c r="D64">
-        <v>13950</v>
+        <v>13850</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
+        <v>44281</v>
+      </c>
+      <c r="B65" s="5">
         <v>44287</v>
       </c>
-      <c r="B65" s="5">
-        <v>44294</v>
-      </c>
       <c r="C65">
-        <v>15200</v>
+        <v>14950</v>
       </c>
       <c r="D65">
-        <v>14350</v>
+        <v>13950</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
-        <v>44295</v>
+        <v>44287</v>
       </c>
       <c r="B66" s="5">
-        <v>44301</v>
+        <v>44294</v>
       </c>
       <c r="C66">
-        <v>15250</v>
+        <v>15200</v>
       </c>
       <c r="D66">
-        <v>14300</v>
+        <v>14350</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
-        <v>44302</v>
+        <v>44295</v>
       </c>
       <c r="B67" s="5">
-        <v>44308</v>
+        <v>44301</v>
       </c>
       <c r="C67">
-        <v>15000</v>
+        <v>15250</v>
       </c>
       <c r="D67">
-        <v>14100</v>
+        <v>14300</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
-        <v>44309</v>
+        <v>44302</v>
       </c>
       <c r="B68" s="5">
-        <v>44315</v>
+        <v>44308</v>
       </c>
       <c r="C68">
-        <v>14800</v>
+        <v>15000</v>
       </c>
       <c r="D68">
-        <v>13800</v>
+        <v>14100</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
-        <v>44316</v>
+        <v>44309</v>
       </c>
       <c r="B69" s="5">
-        <v>44322</v>
+        <v>44315</v>
       </c>
       <c r="C69">
-        <v>15250</v>
+        <v>14800</v>
       </c>
       <c r="D69">
-        <v>14200</v>
+        <v>13800</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
-        <v>44323</v>
+        <v>44316</v>
       </c>
       <c r="B70" s="5">
-        <v>44328</v>
+        <v>44322</v>
       </c>
       <c r="C70">
-        <v>15200</v>
+        <v>15250</v>
       </c>
       <c r="D70">
-        <v>14400</v>
+        <v>14200</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
-        <v>44330</v>
+        <v>44323</v>
       </c>
       <c r="B71" s="5">
-        <v>44336</v>
+        <v>44328</v>
       </c>
       <c r="C71">
-        <v>15100</v>
+        <v>15200</v>
       </c>
       <c r="D71">
-        <v>14300</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
-        <v>44337</v>
+        <v>44330</v>
       </c>
       <c r="B72" s="5">
-        <v>44343</v>
+        <v>44336</v>
       </c>
       <c r="C72">
-        <v>15350</v>
+        <v>15100</v>
       </c>
       <c r="D72">
-        <v>14650</v>
+        <v>14300</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
-        <v>44344</v>
+        <v>44337</v>
       </c>
       <c r="B73" s="5">
-        <v>44350</v>
+        <v>44343</v>
       </c>
       <c r="C73">
-        <v>15750</v>
+        <v>15350</v>
       </c>
       <c r="D73">
-        <v>15100</v>
+        <v>14650</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
-        <v>44351</v>
+        <v>44344</v>
       </c>
       <c r="B74" s="5">
-        <v>44357</v>
+        <v>44350</v>
       </c>
       <c r="C74">
-        <v>16000</v>
+        <v>15750</v>
       </c>
       <c r="D74">
-        <v>15350</v>
+        <v>15100</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
-        <v>44358</v>
+        <v>44351</v>
       </c>
       <c r="B75" s="5">
-        <v>44364</v>
+        <v>44357</v>
       </c>
       <c r="C75">
-        <v>16100</v>
+        <v>16000</v>
       </c>
       <c r="D75">
-        <v>15500</v>
+        <v>15350</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
-        <v>44365</v>
+        <v>44358</v>
       </c>
       <c r="B76" s="5">
-        <v>44371</v>
+        <v>44364</v>
       </c>
       <c r="C76">
-        <v>16000</v>
+        <v>16100</v>
       </c>
       <c r="D76">
-        <v>15350</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
-        <v>44372</v>
+        <v>44365</v>
       </c>
       <c r="B77" s="5">
-        <v>44378</v>
+        <v>44371</v>
       </c>
       <c r="C77">
-        <v>16150</v>
+        <v>16000</v>
       </c>
       <c r="D77">
-        <v>15450</v>
+        <v>15350</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
-        <v>44379</v>
+        <v>44372</v>
       </c>
       <c r="B78" s="5">
-        <v>44385</v>
+        <v>44378</v>
       </c>
       <c r="C78">
-        <v>15950</v>
+        <v>16150</v>
       </c>
       <c r="D78">
-        <v>15400</v>
+        <v>15450</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
-        <v>44386</v>
+        <v>44379</v>
       </c>
       <c r="B79" s="5">
-        <v>44392</v>
+        <v>44385</v>
       </c>
       <c r="C79">
         <v>15950</v>
       </c>
       <c r="D79">
-        <v>15350</v>
+        <v>15400</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
-        <v>44393</v>
+        <v>44386</v>
       </c>
       <c r="B80" s="5">
-        <v>44399</v>
+        <v>44392</v>
       </c>
       <c r="C80">
-        <v>16200</v>
+        <v>15950</v>
       </c>
       <c r="D80">
-        <v>15650</v>
+        <v>15350</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
-        <v>44400</v>
+        <v>44393</v>
       </c>
       <c r="B81" s="5">
-        <v>44406</v>
+        <v>44399</v>
       </c>
       <c r="C81">
-        <v>16100</v>
+        <v>16200</v>
       </c>
       <c r="D81">
-        <v>15600</v>
+        <v>15650</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
-        <v>44407</v>
+        <v>44400</v>
       </c>
       <c r="B82" s="5">
-        <v>44413</v>
+        <v>44406</v>
       </c>
       <c r="C82">
-        <v>16050</v>
+        <v>16100</v>
       </c>
       <c r="D82">
-        <v>15500</v>
+        <v>15600</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
-        <v>44414</v>
+        <v>44407</v>
       </c>
       <c r="B83" s="5">
-        <v>44420</v>
+        <v>44413</v>
       </c>
       <c r="C83">
-        <v>16600</v>
+        <v>16050</v>
       </c>
       <c r="D83">
-        <v>15950</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
-        <v>44421</v>
+        <v>44414</v>
       </c>
       <c r="B84" s="5">
-        <v>44426</v>
+        <v>44420</v>
       </c>
       <c r="C84">
-        <v>16650</v>
+        <v>16600</v>
       </c>
       <c r="D84">
-        <v>16150</v>
+        <v>15950</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
-        <v>44428</v>
+        <v>44421</v>
       </c>
       <c r="B85" s="5">
-        <v>44434</v>
+        <v>44426</v>
       </c>
       <c r="C85">
-        <v>16700</v>
+        <v>16650</v>
       </c>
       <c r="D85">
-        <v>16050</v>
+        <v>16150</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
-        <v>44435</v>
+        <v>44428</v>
       </c>
       <c r="B86" s="5">
-        <v>44441</v>
+        <v>44434</v>
       </c>
       <c r="C86">
-        <v>16900</v>
+        <v>16700</v>
       </c>
       <c r="D86">
-        <v>16350</v>
+        <v>16050</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
-        <v>44442</v>
+        <v>44435</v>
       </c>
       <c r="B87" s="5">
-        <v>44448</v>
+        <v>44441</v>
       </c>
       <c r="C87">
-        <v>17650</v>
+        <v>16900</v>
       </c>
       <c r="D87">
-        <v>16950</v>
+        <v>16350</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
+        <v>44442</v>
+      </c>
+      <c r="B88" s="5">
         <v>44448</v>
-      </c>
-      <c r="B88" s="5">
-        <v>44455</v>
       </c>
       <c r="C88">
         <v>17650</v>
       </c>
       <c r="D88">
-        <v>17000</v>
+        <v>16950</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
-        <v>44456</v>
+        <v>44448</v>
       </c>
       <c r="B89" s="5">
-        <v>44462</v>
+        <v>44455</v>
       </c>
       <c r="C89">
-        <v>18050</v>
+        <v>17650</v>
       </c>
       <c r="D89">
-        <v>17400</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
-        <v>44463</v>
+        <v>44456</v>
       </c>
       <c r="B90" s="5">
-        <v>44469</v>
+        <v>44462</v>
       </c>
       <c r="C90">
-        <v>18350</v>
+        <v>18050</v>
       </c>
       <c r="D90">
-        <v>17550</v>
+        <v>17400</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
-        <v>44470</v>
+        <v>44463</v>
       </c>
       <c r="B91" s="5">
-        <v>44476</v>
+        <v>44469</v>
       </c>
       <c r="C91">
-        <v>17900</v>
+        <v>18350</v>
       </c>
       <c r="D91">
-        <v>17000</v>
+        <v>17550</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
-        <v>44477</v>
+        <v>44470</v>
       </c>
       <c r="B92" s="5">
-        <v>44483</v>
+        <v>44476</v>
       </c>
       <c r="C92">
-        <v>18200</v>
+        <v>17900</v>
       </c>
       <c r="D92">
-        <v>17450</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
+        <v>44477</v>
+      </c>
+      <c r="B93" s="5">
         <v>44483</v>
       </c>
-      <c r="B93" s="5">
-        <v>44490</v>
-      </c>
       <c r="C93">
-        <v>18650</v>
+        <v>18200</v>
       </c>
       <c r="D93">
-        <v>17850</v>
+        <v>17450</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
-        <v>44491</v>
+        <v>44483</v>
       </c>
       <c r="B94" s="5">
-        <v>44497</v>
+        <v>44490</v>
       </c>
       <c r="C94">
-        <v>18700</v>
+        <v>18650</v>
       </c>
       <c r="D94">
         <v>17850</v>
@@ -35433,94 +38662,94 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
-        <v>44498</v>
+        <v>44491</v>
       </c>
       <c r="B95" s="5">
-        <v>44503</v>
+        <v>44497</v>
       </c>
       <c r="C95">
-        <v>18200</v>
+        <v>18700</v>
       </c>
       <c r="D95">
-        <v>17150</v>
+        <v>17850</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
+        <v>44498</v>
+      </c>
+      <c r="B96" s="5">
         <v>44503</v>
       </c>
-      <c r="B96" s="5">
-        <v>44511</v>
-      </c>
       <c r="C96">
-        <v>18400</v>
+        <v>18200</v>
       </c>
       <c r="D96">
-        <v>17550</v>
+        <v>17150</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
-        <v>44512</v>
+        <v>44503</v>
       </c>
       <c r="B97" s="5">
-        <v>44518</v>
+        <v>44511</v>
       </c>
       <c r="C97">
-        <v>18300</v>
+        <v>18400</v>
       </c>
       <c r="D97">
-        <v>17600</v>
+        <v>17550</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
+        <v>44512</v>
+      </c>
+      <c r="B98" s="5">
         <v>44518</v>
-      </c>
-      <c r="B98" s="5">
-        <v>44525</v>
       </c>
       <c r="C98">
         <v>18300</v>
       </c>
       <c r="D98">
-        <v>17500</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
-        <v>44526</v>
+        <v>44518</v>
       </c>
       <c r="B99" s="5">
-        <v>44532</v>
+        <v>44525</v>
       </c>
       <c r="C99">
-        <v>17700</v>
+        <v>18300</v>
       </c>
       <c r="D99">
-        <v>16850</v>
+        <v>17500</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
-        <v>44533</v>
+        <v>44526</v>
       </c>
       <c r="B100" s="5">
-        <v>44539</v>
+        <v>44532</v>
       </c>
       <c r="C100">
-        <v>17850</v>
+        <v>17700</v>
       </c>
       <c r="D100">
-        <v>17000</v>
+        <v>16850</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
-        <v>44540</v>
+        <v>44533</v>
       </c>
       <c r="B101" s="5">
-        <v>44546</v>
+        <v>44539</v>
       </c>
       <c r="C101">
         <v>17850</v>
@@ -35531,125 +38760,125 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
-        <v>44547</v>
+        <v>44540</v>
       </c>
       <c r="B102" s="5">
-        <v>44553</v>
+        <v>44546</v>
       </c>
       <c r="C102">
-        <v>17600</v>
+        <v>17850</v>
       </c>
       <c r="D102">
-        <v>16750</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
-        <v>44554</v>
+        <v>44547</v>
       </c>
       <c r="B103" s="5">
-        <v>44560</v>
+        <v>44553</v>
       </c>
       <c r="C103">
-        <v>17450</v>
+        <v>17600</v>
       </c>
       <c r="D103">
-        <v>16600</v>
+        <v>16750</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
-        <v>44561</v>
+        <v>44554</v>
       </c>
       <c r="B104" s="5">
-        <v>44567</v>
+        <v>44560</v>
       </c>
       <c r="C104">
-        <v>17650</v>
+        <v>17450</v>
       </c>
       <c r="D104">
-        <v>16850</v>
+        <v>16600</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
-        <v>44568</v>
+        <v>44561</v>
       </c>
       <c r="B105" s="5">
-        <v>44574</v>
+        <v>44567</v>
       </c>
       <c r="C105">
-        <v>18250</v>
+        <v>17650</v>
       </c>
       <c r="D105">
-        <v>17400</v>
+        <v>16850</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
-        <v>44575</v>
+        <v>44568</v>
       </c>
       <c r="B106" s="5">
-        <v>44581</v>
+        <v>44574</v>
       </c>
       <c r="C106">
-        <v>18500</v>
+        <v>18250</v>
       </c>
       <c r="D106">
-        <v>17750</v>
+        <v>17400</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
-        <v>44582</v>
+        <v>44575</v>
       </c>
       <c r="B107" s="5">
-        <v>44588</v>
+        <v>44581</v>
       </c>
       <c r="C107">
-        <v>18000</v>
+        <v>18500</v>
       </c>
       <c r="D107">
-        <v>17050</v>
+        <v>17750</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
-        <v>44589</v>
+        <v>44582</v>
       </c>
       <c r="B108" s="5">
-        <v>44595</v>
+        <v>44588</v>
       </c>
       <c r="C108">
         <v>18000</v>
       </c>
       <c r="D108">
-        <v>16600</v>
+        <v>17050</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
-        <v>44596</v>
+        <v>44589</v>
       </c>
       <c r="B109" s="5">
-        <v>44602</v>
+        <v>44595</v>
       </c>
       <c r="C109">
-        <v>17950</v>
+        <v>18000</v>
       </c>
       <c r="D109">
-        <v>16950</v>
+        <v>16600</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
-        <v>44603</v>
+        <v>44596</v>
       </c>
       <c r="B110" s="5">
-        <v>44609</v>
+        <v>44602</v>
       </c>
       <c r="C110">
-        <v>17850</v>
+        <v>17950</v>
       </c>
       <c r="D110">
         <v>16950</v>
@@ -35657,125 +38886,125 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
-        <v>44610</v>
+        <v>44603</v>
       </c>
       <c r="B111" s="5">
-        <v>44616</v>
+        <v>44609</v>
       </c>
       <c r="C111">
-        <v>17800</v>
+        <v>17850</v>
       </c>
       <c r="D111">
-        <v>16500</v>
+        <v>16950</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
-        <v>44617</v>
+        <v>44610</v>
       </c>
       <c r="B112" s="5">
-        <v>44623</v>
+        <v>44616</v>
       </c>
       <c r="C112">
-        <v>17200</v>
+        <v>17800</v>
       </c>
       <c r="D112">
-        <v>15750</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
-        <v>44624</v>
+        <v>44617</v>
       </c>
       <c r="B113" s="5">
-        <v>44630</v>
+        <v>44623</v>
       </c>
       <c r="C113">
-        <v>16950</v>
+        <v>17200</v>
       </c>
       <c r="D113">
-        <v>15450</v>
+        <v>15750</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
-        <v>44631</v>
+        <v>44624</v>
       </c>
       <c r="B114" s="5">
-        <v>44637</v>
+        <v>44630</v>
       </c>
       <c r="C114">
-        <v>17150</v>
+        <v>16950</v>
       </c>
       <c r="D114">
-        <v>15850</v>
+        <v>15450</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
+        <v>44631</v>
+      </c>
+      <c r="B115" s="5">
         <v>44637</v>
       </c>
-      <c r="B115" s="5">
-        <v>44644</v>
-      </c>
       <c r="C115">
-        <v>17800</v>
+        <v>17150</v>
       </c>
       <c r="D115">
-        <v>16550</v>
+        <v>15850</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
-        <v>44645</v>
+        <v>44637</v>
       </c>
       <c r="B116" s="5">
-        <v>44651</v>
+        <v>44644</v>
       </c>
       <c r="C116">
-        <v>17750</v>
+        <v>17800</v>
       </c>
       <c r="D116">
-        <v>16700</v>
+        <v>16550</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
-        <v>44652</v>
+        <v>44645</v>
       </c>
       <c r="B117" s="5">
-        <v>44658</v>
+        <v>44651</v>
       </c>
       <c r="C117">
-        <v>17900</v>
+        <v>17750</v>
       </c>
       <c r="D117">
-        <v>16950</v>
+        <v>16700</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
-        <v>44659</v>
+        <v>44652</v>
       </c>
       <c r="B118" s="5">
-        <v>44664</v>
+        <v>44658</v>
       </c>
       <c r="C118">
-        <v>18100</v>
+        <v>17900</v>
       </c>
       <c r="D118">
-        <v>17250</v>
+        <v>16950</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
+        <v>44659</v>
+      </c>
+      <c r="B119" s="5">
         <v>44664</v>
       </c>
-      <c r="B119" s="5">
-        <v>44672</v>
-      </c>
       <c r="C119">
-        <v>18050</v>
+        <v>18100</v>
       </c>
       <c r="D119">
         <v>17250</v>
@@ -35783,962 +39012,962 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
-        <v>44673</v>
+        <v>44664</v>
       </c>
       <c r="B120" s="5">
-        <v>44679</v>
+        <v>44672</v>
       </c>
       <c r="C120">
-        <v>17600</v>
+        <v>18050</v>
       </c>
       <c r="D120">
-        <v>16750</v>
+        <v>17250</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
-        <v>44680</v>
+        <v>44673</v>
       </c>
       <c r="B121" s="5">
-        <v>44686</v>
+        <v>44679</v>
       </c>
       <c r="C121">
-        <v>17700</v>
+        <v>17600</v>
       </c>
       <c r="D121">
-        <v>16900</v>
+        <v>16750</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
-        <v>44687</v>
+        <v>44680</v>
       </c>
       <c r="B122" s="5">
-        <v>44693</v>
+        <v>44686</v>
       </c>
       <c r="C122">
+        <v>17700</v>
+      </c>
+      <c r="D122">
         <v>16900</v>
-      </c>
-      <c r="D122">
-        <v>15850</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
-        <v>44694</v>
+        <v>44687</v>
       </c>
       <c r="B123" s="5">
-        <v>44700</v>
+        <v>44693</v>
       </c>
       <c r="C123">
-        <v>16450</v>
+        <v>16900</v>
       </c>
       <c r="D123">
-        <v>15400</v>
+        <v>15850</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
-        <v>44701</v>
+        <v>44694</v>
       </c>
       <c r="B124" s="5">
-        <v>44707</v>
+        <v>44700</v>
       </c>
       <c r="C124">
-        <v>16550</v>
+        <v>16450</v>
       </c>
       <c r="D124">
-        <v>15500</v>
+        <v>15400</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
-        <v>44708</v>
+        <v>44701</v>
       </c>
       <c r="B125" s="5">
-        <v>44714</v>
+        <v>44707</v>
       </c>
       <c r="C125">
-        <v>16750</v>
+        <v>16550</v>
       </c>
       <c r="D125">
-        <v>15750</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
-        <v>44715</v>
+        <v>44708</v>
       </c>
       <c r="B126" s="5">
-        <v>44721</v>
+        <v>44714</v>
       </c>
       <c r="C126">
-        <v>17200</v>
+        <v>16750</v>
       </c>
       <c r="D126">
-        <v>16300</v>
+        <v>15750</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
-        <v>44722</v>
+        <v>44715</v>
       </c>
       <c r="B127" s="5">
-        <v>44728</v>
+        <v>44721</v>
       </c>
       <c r="C127">
-        <v>16700</v>
+        <v>17200</v>
       </c>
       <c r="D127">
-        <v>15850</v>
+        <v>16300</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
-        <v>44729</v>
+        <v>44722</v>
       </c>
       <c r="B128" s="5">
-        <v>44735</v>
+        <v>44728</v>
       </c>
       <c r="C128">
-        <v>15800</v>
+        <v>16700</v>
       </c>
       <c r="D128">
-        <v>14700</v>
+        <v>15850</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
-        <v>44736</v>
+        <v>44729</v>
       </c>
       <c r="B129" s="5">
-        <v>44742</v>
+        <v>44735</v>
       </c>
       <c r="C129">
-        <v>16200</v>
+        <v>15800</v>
       </c>
       <c r="D129">
-        <v>15200</v>
+        <v>14700</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
-        <v>44743</v>
+        <v>44736</v>
       </c>
       <c r="B130" s="5">
-        <v>44749</v>
+        <v>44742</v>
       </c>
       <c r="C130">
-        <v>16100</v>
+        <v>16200</v>
       </c>
       <c r="D130">
-        <v>15150</v>
+        <v>15200</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
-        <v>44750</v>
+        <v>44743</v>
       </c>
       <c r="B131" s="5">
-        <v>44756</v>
+        <v>44749</v>
       </c>
       <c r="C131">
-        <v>16600</v>
+        <v>16100</v>
       </c>
       <c r="D131">
-        <v>15750</v>
+        <v>15150</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
-        <v>44757</v>
+        <v>44750</v>
       </c>
       <c r="B132" s="5">
-        <v>44763</v>
+        <v>44756</v>
       </c>
       <c r="C132">
-        <v>16350</v>
+        <v>16600</v>
       </c>
       <c r="D132">
-        <v>15650</v>
+        <v>15750</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="5">
-        <v>44764</v>
+        <v>44757</v>
       </c>
       <c r="B133" s="5">
-        <v>44770</v>
+        <v>44763</v>
       </c>
       <c r="C133">
-        <v>17000</v>
+        <v>16350</v>
       </c>
       <c r="D133">
-        <v>16300</v>
+        <v>15650</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="5">
-        <v>44771</v>
+        <v>44764</v>
       </c>
       <c r="B134" s="5">
-        <v>44777</v>
+        <v>44770</v>
       </c>
       <c r="C134">
-        <v>17500</v>
+        <v>17000</v>
       </c>
       <c r="D134">
-        <v>16700</v>
+        <v>16300</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
-        <v>44778</v>
+        <v>44771</v>
       </c>
       <c r="B135" s="5">
-        <v>44784</v>
+        <v>44777</v>
       </c>
       <c r="C135">
-        <v>17850</v>
+        <v>17500</v>
       </c>
       <c r="D135">
-        <v>16900</v>
+        <v>16700</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="5">
-        <v>44785</v>
+        <v>44778</v>
       </c>
       <c r="B136" s="5">
-        <v>44791</v>
+        <v>44784</v>
       </c>
       <c r="C136">
-        <v>17950</v>
+        <v>17850</v>
       </c>
       <c r="D136">
-        <v>17300</v>
+        <v>16900</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="5">
-        <v>44792</v>
+        <v>44785</v>
       </c>
       <c r="B137" s="5">
-        <v>44798</v>
+        <v>44791</v>
       </c>
       <c r="C137">
-        <v>18300</v>
+        <v>17950</v>
       </c>
       <c r="D137">
-        <v>17600</v>
+        <v>17300</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
-        <v>44799</v>
+        <v>44792</v>
       </c>
       <c r="B138" s="5">
-        <v>44805</v>
+        <v>44798</v>
       </c>
       <c r="C138">
-        <v>18050</v>
+        <v>18300</v>
       </c>
       <c r="D138">
-        <v>17250</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="5">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="B139" s="5">
-        <v>44812</v>
+        <v>44805</v>
       </c>
       <c r="C139">
         <v>18050</v>
       </c>
       <c r="D139">
-        <v>17100</v>
+        <v>17250</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="5">
-        <v>44813</v>
+        <v>44806</v>
       </c>
       <c r="B140" s="5">
-        <v>44819</v>
+        <v>44812</v>
       </c>
       <c r="C140">
-        <v>18250</v>
+        <v>18050</v>
       </c>
       <c r="D140">
-        <v>17500</v>
+        <v>17100</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="5">
-        <v>44820</v>
+        <v>44813</v>
       </c>
       <c r="B141" s="5">
-        <v>44826</v>
+        <v>44819</v>
       </c>
       <c r="C141">
-        <v>18200</v>
+        <v>18250</v>
       </c>
       <c r="D141">
-        <v>17300</v>
+        <v>17500</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="5">
-        <v>44827</v>
+        <v>44820</v>
       </c>
       <c r="B142" s="5">
-        <v>44833</v>
+        <v>44826</v>
       </c>
       <c r="C142">
-        <v>18000</v>
+        <v>18200</v>
       </c>
       <c r="D142">
-        <v>17050</v>
+        <v>17300</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="5">
-        <v>44834</v>
+        <v>44827</v>
       </c>
       <c r="B143" s="5">
-        <v>44840</v>
+        <v>44833</v>
       </c>
       <c r="C143">
-        <v>17300</v>
+        <v>18000</v>
       </c>
       <c r="D143">
-        <v>16250</v>
+        <v>17050</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
-        <v>44841</v>
+        <v>44834</v>
       </c>
       <c r="B144" s="5">
-        <v>44847</v>
+        <v>44840</v>
       </c>
       <c r="C144">
-        <v>17700</v>
+        <v>17300</v>
       </c>
       <c r="D144">
-        <v>16850</v>
+        <v>16250</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="5">
-        <v>44848</v>
+        <v>44841</v>
       </c>
       <c r="B145" s="5">
-        <v>44854</v>
+        <v>44847</v>
       </c>
       <c r="C145">
         <v>17700</v>
       </c>
       <c r="D145">
-        <v>16900</v>
+        <v>16850</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="5">
-        <v>44855</v>
+        <v>44848</v>
       </c>
       <c r="B146" s="5">
-        <v>44861</v>
+        <v>44854</v>
       </c>
       <c r="C146">
-        <v>17950</v>
+        <v>17700</v>
       </c>
       <c r="D146">
-        <v>17250</v>
+        <v>16900</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="5">
-        <v>44862</v>
+        <v>44855</v>
       </c>
       <c r="B147" s="5">
-        <v>44868</v>
+        <v>44861</v>
       </c>
       <c r="C147">
-        <v>18150</v>
+        <v>17950</v>
       </c>
       <c r="D147">
-        <v>17400</v>
+        <v>17250</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="5">
-        <v>44869</v>
+        <v>44862</v>
       </c>
       <c r="B148" s="5">
-        <v>44875</v>
+        <v>44868</v>
       </c>
       <c r="C148">
-        <v>18450</v>
+        <v>18150</v>
       </c>
       <c r="D148">
-        <v>17700</v>
+        <v>17400</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
-        <v>44876</v>
+        <v>44869</v>
       </c>
       <c r="B149" s="5">
-        <v>44882</v>
+        <v>44875</v>
       </c>
       <c r="C149">
-        <v>18600</v>
+        <v>18450</v>
       </c>
       <c r="D149">
-        <v>17950</v>
+        <v>17700</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="5">
-        <v>44883</v>
+        <v>44876</v>
       </c>
       <c r="B150" s="5">
-        <v>44889</v>
+        <v>44882</v>
       </c>
       <c r="C150">
-        <v>18650</v>
+        <v>18600</v>
       </c>
       <c r="D150">
-        <v>18050</v>
+        <v>17950</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="5">
-        <v>44890</v>
+        <v>44883</v>
       </c>
       <c r="B151" s="5">
-        <v>44896</v>
+        <v>44889</v>
       </c>
       <c r="C151">
-        <v>18800</v>
+        <v>18650</v>
       </c>
       <c r="D151">
-        <v>18200</v>
+        <v>18050</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="5">
-        <v>44897</v>
+        <v>44890</v>
       </c>
       <c r="B152" s="5">
-        <v>44903</v>
+        <v>44896</v>
       </c>
       <c r="C152">
-        <v>19100</v>
+        <v>18800</v>
       </c>
       <c r="D152">
-        <v>18450</v>
+        <v>18200</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="5">
-        <v>44904</v>
+        <v>44897</v>
       </c>
       <c r="B153" s="5">
-        <v>44910</v>
+        <v>44903</v>
       </c>
       <c r="C153">
-        <v>18950</v>
+        <v>19100</v>
       </c>
       <c r="D153">
-        <v>18400</v>
+        <v>18450</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="5">
-        <v>44911</v>
+        <v>44904</v>
       </c>
       <c r="B154" s="5">
-        <v>44917</v>
+        <v>44910</v>
       </c>
       <c r="C154">
-        <v>18700</v>
+        <v>18950</v>
       </c>
       <c r="D154">
-        <v>18050</v>
+        <v>18400</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="5">
-        <v>44918</v>
+        <v>44911</v>
       </c>
       <c r="B155" s="5">
-        <v>44924</v>
+        <v>44917</v>
       </c>
       <c r="C155">
-        <v>18450</v>
+        <v>18700</v>
       </c>
       <c r="D155">
-        <v>17600</v>
+        <v>18050</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="5">
-        <v>44925</v>
+        <v>44918</v>
       </c>
       <c r="B156" s="5">
-        <v>44931</v>
+        <v>44924</v>
       </c>
       <c r="C156">
-        <v>18550</v>
+        <v>18450</v>
       </c>
       <c r="D156">
-        <v>17900</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
-        <v>44932</v>
+        <v>44925</v>
       </c>
       <c r="B157" s="5">
-        <v>44938</v>
+        <v>44931</v>
       </c>
       <c r="C157">
-        <v>18350</v>
+        <v>18550</v>
       </c>
       <c r="D157">
-        <v>17650</v>
+        <v>17900</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="5">
-        <v>44939</v>
+        <v>44932</v>
       </c>
       <c r="B158" s="5">
-        <v>44945</v>
+        <v>44938</v>
       </c>
       <c r="C158">
-        <v>18200</v>
+        <v>18350</v>
       </c>
       <c r="D158">
-        <v>17450</v>
+        <v>17650</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="5">
+        <v>44939</v>
+      </c>
+      <c r="B159" s="5">
+        <v>44945</v>
+      </c>
+      <c r="C159">
+        <v>18200</v>
+      </c>
+      <c r="D159">
+        <v>17450</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="5">
         <v>44946</v>
       </c>
-      <c r="B159" s="5">
+      <c r="B160" s="5">
         <v>44952</v>
       </c>
-      <c r="C159">
+      <c r="C160">
         <v>18400</v>
       </c>
-      <c r="D159">
+      <c r="D160">
         <v>17800</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="16">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="16">
         <v>44953</v>
       </c>
-      <c r="B160" s="16">
+      <c r="B161" s="16">
         <v>44959</v>
       </c>
-      <c r="C160" s="9">
+      <c r="C161" s="9">
         <v>18350</v>
       </c>
-      <c r="D160" s="9">
-        <v>17300</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="5">
-        <v>44960</v>
-      </c>
-      <c r="B161" s="5">
-        <v>44966</v>
-      </c>
-      <c r="C161">
-        <v>18100</v>
-      </c>
-      <c r="D161">
+      <c r="D161" s="9">
         <v>17300</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="5">
-        <v>44967</v>
+        <v>44960</v>
       </c>
       <c r="B162" s="5">
-        <v>44973</v>
+        <v>44966</v>
       </c>
       <c r="C162">
-        <v>18150</v>
+        <v>18100</v>
       </c>
       <c r="D162">
-        <v>17550</v>
+        <v>17300</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="5">
-        <v>44974</v>
+        <v>44967</v>
       </c>
       <c r="B163" s="5">
-        <v>44980</v>
+        <v>44973</v>
       </c>
       <c r="C163">
-        <v>18250</v>
+        <v>18150</v>
       </c>
       <c r="D163">
-        <v>17650</v>
+        <v>17550</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="5">
-        <v>44981</v>
+        <v>44974</v>
       </c>
       <c r="B164" s="5">
-        <v>44987</v>
+        <v>44980</v>
       </c>
       <c r="C164">
-        <v>17900</v>
+        <v>18250</v>
       </c>
       <c r="D164">
-        <v>17300</v>
+        <v>17650</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="5">
-        <v>44988</v>
+        <v>44981</v>
       </c>
       <c r="B165" s="5">
-        <v>44994</v>
+        <v>44987</v>
       </c>
       <c r="C165">
-        <v>17700</v>
+        <v>17900</v>
       </c>
       <c r="D165">
-        <v>17200</v>
+        <v>17300</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="5">
-        <v>44995</v>
+        <v>44988</v>
       </c>
       <c r="B166" s="5">
-        <v>45001</v>
+        <v>44994</v>
       </c>
       <c r="C166">
         <v>17700</v>
       </c>
       <c r="D166">
-        <v>17050</v>
+        <v>17200</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
-        <v>45002</v>
+        <v>44995</v>
       </c>
       <c r="B167" s="5">
-        <v>45008</v>
+        <v>45001</v>
       </c>
       <c r="C167">
-        <v>17500</v>
+        <v>17700</v>
       </c>
       <c r="D167">
-        <v>16700</v>
+        <v>17050</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
-        <v>45009</v>
+        <v>45002</v>
       </c>
       <c r="B168" s="5">
-        <v>45015</v>
+        <v>45008</v>
       </c>
       <c r="C168">
-        <v>17400</v>
+        <v>17500</v>
       </c>
       <c r="D168">
-        <v>16750</v>
+        <v>16700</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="5">
-        <v>45016</v>
+        <v>45009</v>
       </c>
       <c r="B169" s="5">
-        <v>45022</v>
+        <v>45015</v>
       </c>
       <c r="C169">
-        <v>17550</v>
+        <v>17400</v>
       </c>
       <c r="D169">
-        <v>16900</v>
+        <v>16750</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="5">
+        <v>45016</v>
+      </c>
+      <c r="B170" s="5">
         <v>45022</v>
       </c>
-      <c r="B170" s="5">
-        <v>45029</v>
-      </c>
       <c r="C170">
-        <v>17800</v>
+        <v>17550</v>
       </c>
       <c r="D170">
-        <v>17200</v>
+        <v>16900</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="5">
+        <v>45022</v>
+      </c>
+      <c r="B171" s="5">
         <v>45029</v>
       </c>
-      <c r="B171" s="5">
-        <v>45036</v>
-      </c>
       <c r="C171">
-        <v>18100</v>
+        <v>17800</v>
       </c>
       <c r="D171">
-        <v>17500</v>
+        <v>17200</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="5">
-        <v>45037</v>
+        <v>45029</v>
       </c>
       <c r="B172" s="5">
-        <v>45043</v>
+        <v>45036</v>
       </c>
       <c r="C172">
-        <v>17900</v>
+        <v>18100</v>
       </c>
       <c r="D172">
-        <v>17400</v>
+        <v>17500</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="5">
-        <v>45044</v>
+        <v>45037</v>
       </c>
       <c r="B173" s="5">
-        <v>45050</v>
+        <v>45043</v>
       </c>
       <c r="C173">
-        <v>18200</v>
+        <v>17900</v>
       </c>
       <c r="D173">
-        <v>17700</v>
+        <v>17400</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="5">
-        <v>45051</v>
+        <v>45044</v>
       </c>
       <c r="B174" s="5">
-        <v>45057</v>
+        <v>45050</v>
       </c>
       <c r="C174">
-        <v>18450</v>
+        <v>18200</v>
       </c>
       <c r="D174">
-        <v>17900</v>
+        <v>17700</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="5">
-        <v>45058</v>
+        <v>45051</v>
       </c>
       <c r="B175" s="5">
-        <v>45064</v>
+        <v>45057</v>
       </c>
       <c r="C175">
-        <v>18550</v>
+        <v>18450</v>
       </c>
       <c r="D175">
-        <v>17950</v>
+        <v>17900</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="5">
-        <v>45065</v>
+        <v>45058</v>
       </c>
       <c r="B176" s="5">
-        <v>45071</v>
+        <v>45064</v>
       </c>
       <c r="C176">
-        <v>18450</v>
+        <v>18550</v>
       </c>
       <c r="D176">
-        <v>17900</v>
+        <v>17950</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="5">
-        <v>45072</v>
+        <v>45065</v>
       </c>
       <c r="B177" s="5">
-        <v>45078</v>
+        <v>45071</v>
       </c>
       <c r="C177">
-        <v>18600</v>
+        <v>18450</v>
       </c>
       <c r="D177">
-        <v>18050</v>
+        <v>17900</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="5">
-        <v>45079</v>
+        <v>45072</v>
       </c>
       <c r="B178" s="5">
-        <v>45085</v>
+        <v>45078</v>
       </c>
       <c r="C178">
-        <v>18850</v>
+        <v>18600</v>
       </c>
       <c r="D178">
-        <v>18300</v>
+        <v>18050</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="5">
-        <v>45086</v>
+        <v>45079</v>
       </c>
       <c r="B179" s="5">
-        <v>45092</v>
+        <v>45085</v>
       </c>
       <c r="C179">
-        <v>18950</v>
+        <v>18850</v>
       </c>
       <c r="D179">
-        <v>18400</v>
+        <v>18300</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="5">
-        <v>45093</v>
+        <v>45086</v>
       </c>
       <c r="B180" s="5">
-        <v>45099</v>
+        <v>45092</v>
       </c>
       <c r="C180">
-        <v>19000</v>
+        <v>18950</v>
       </c>
       <c r="D180">
-        <v>18500</v>
+        <v>18400</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="5">
-        <v>45100</v>
+        <v>45093</v>
       </c>
       <c r="B181" s="5">
-        <v>45106</v>
+        <v>45099</v>
       </c>
       <c r="C181">
         <v>19000</v>
       </c>
       <c r="D181">
-        <v>18450</v>
+        <v>18500</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="5">
-        <v>45107</v>
+        <v>45100</v>
       </c>
       <c r="B182" s="5">
-        <v>45113</v>
+        <v>45106</v>
       </c>
       <c r="C182">
-        <v>19350</v>
+        <v>19000</v>
       </c>
       <c r="D182">
-        <v>18800</v>
+        <v>18450</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="5">
-        <v>45114</v>
+        <v>45107</v>
       </c>
       <c r="B183" s="5">
-        <v>45120</v>
+        <v>45113</v>
       </c>
       <c r="C183">
-        <v>19750</v>
+        <v>19350</v>
       </c>
       <c r="D183">
-        <v>19150</v>
+        <v>18800</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="5">
-        <v>45121</v>
+        <v>45114</v>
       </c>
       <c r="B184" s="5">
-        <v>45127</v>
+        <v>45120</v>
       </c>
       <c r="C184">
         <v>19750</v>
       </c>
       <c r="D184">
-        <v>19250</v>
+        <v>19150</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="5">
-        <v>45128</v>
+        <v>45121</v>
       </c>
       <c r="B185" s="5">
-        <v>45134</v>
+        <v>45127</v>
       </c>
       <c r="C185">
-        <v>20200</v>
+        <v>19750</v>
       </c>
       <c r="D185">
-        <v>19500</v>
+        <v>19250</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="5">
-        <v>45135</v>
+        <v>45128</v>
       </c>
       <c r="B186" s="5">
-        <v>45141</v>
+        <v>45134</v>
       </c>
       <c r="C186">
-        <v>19950</v>
+        <v>20200</v>
       </c>
       <c r="D186">
-        <v>19300</v>
+        <v>19500</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="5">
-        <v>45142</v>
+        <v>45135</v>
       </c>
       <c r="B187" s="5">
-        <v>45148</v>
+        <v>45141</v>
       </c>
       <c r="C187">
-        <v>19800</v>
+        <v>19950</v>
       </c>
       <c r="D187">
-        <v>19200</v>
+        <v>19300</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="5">
-        <v>45149</v>
+        <v>45142</v>
       </c>
       <c r="B188" s="5">
-        <v>45155</v>
+        <v>45148</v>
       </c>
       <c r="C188">
         <v>19800</v>
@@ -36749,433 +39978,433 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="5">
-        <v>45156</v>
+        <v>45149</v>
       </c>
       <c r="B189" s="5">
-        <v>45162</v>
+        <v>45155</v>
       </c>
       <c r="C189">
-        <v>19600</v>
+        <v>19800</v>
       </c>
       <c r="D189">
-        <v>19000</v>
+        <v>19200</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="5">
-        <v>45163</v>
+        <v>45156</v>
       </c>
       <c r="B190" s="5">
-        <v>45169</v>
+        <v>45162</v>
       </c>
       <c r="C190">
-        <v>19550</v>
+        <v>19600</v>
       </c>
       <c r="D190">
-        <v>18950</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="5">
-        <v>45170</v>
+        <v>45163</v>
       </c>
       <c r="B191" s="5">
-        <v>45176</v>
+        <v>45169</v>
       </c>
       <c r="C191">
-        <v>19600</v>
+        <v>19550</v>
       </c>
       <c r="D191">
-        <v>19000</v>
+        <v>18950</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="5">
-        <v>45177</v>
+        <v>45170</v>
       </c>
       <c r="B192" s="5">
-        <v>45183</v>
+        <v>45176</v>
       </c>
       <c r="C192">
-        <v>20000</v>
+        <v>19600</v>
       </c>
       <c r="D192">
-        <v>19500</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="5">
-        <v>45184</v>
+        <v>45177</v>
       </c>
       <c r="B193" s="5">
-        <v>45190</v>
+        <v>45183</v>
       </c>
       <c r="C193">
-        <v>20450</v>
+        <v>20000</v>
       </c>
       <c r="D193">
-        <v>19850</v>
+        <v>19500</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="5">
-        <v>45191</v>
+        <v>45184</v>
       </c>
       <c r="B194" s="5">
-        <v>45197</v>
+        <v>45190</v>
       </c>
       <c r="C194">
-        <v>20100</v>
+        <v>20450</v>
       </c>
       <c r="D194">
-        <v>19500</v>
+        <v>19850</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="5">
-        <v>45198</v>
+        <v>45191</v>
       </c>
       <c r="B195" s="5">
-        <v>45204</v>
+        <v>45197</v>
       </c>
       <c r="C195">
-        <v>19900</v>
+        <v>20100</v>
       </c>
       <c r="D195">
-        <v>19250</v>
+        <v>19500</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="5">
-        <v>45205</v>
+        <v>45198</v>
       </c>
       <c r="B196" s="5">
-        <v>45211</v>
+        <v>45204</v>
       </c>
       <c r="C196">
         <v>19900</v>
       </c>
       <c r="D196">
-        <v>19300</v>
+        <v>19250</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="5">
-        <v>45212</v>
+        <v>45205</v>
       </c>
       <c r="B197" s="5">
-        <v>45218</v>
+        <v>45211</v>
       </c>
       <c r="C197">
-        <v>20000</v>
+        <v>19900</v>
       </c>
       <c r="D197">
-        <v>19400</v>
+        <v>19300</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="5">
-        <v>45219</v>
+        <v>45212</v>
       </c>
       <c r="B198" s="5">
-        <v>45225</v>
+        <v>45218</v>
       </c>
       <c r="C198">
-        <v>19850</v>
+        <v>20000</v>
       </c>
       <c r="D198">
-        <v>19250</v>
+        <v>19400</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="5">
-        <v>45226</v>
+        <v>45219</v>
       </c>
       <c r="B199" s="5">
-        <v>45232</v>
+        <v>45225</v>
       </c>
       <c r="C199">
-        <v>19300</v>
+        <v>19850</v>
       </c>
       <c r="D199">
-        <v>18600</v>
+        <v>19250</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="5">
-        <v>45233</v>
+        <v>45226</v>
       </c>
       <c r="B200" s="5">
-        <v>45239</v>
+        <v>45232</v>
       </c>
       <c r="C200">
-        <v>19550</v>
+        <v>19300</v>
       </c>
       <c r="D200">
-        <v>19000</v>
+        <v>18600</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="5">
-        <v>45240</v>
+        <v>45233</v>
       </c>
       <c r="B201" s="5">
-        <v>45246</v>
+        <v>45239</v>
       </c>
       <c r="C201">
-        <v>19600</v>
+        <v>19550</v>
       </c>
       <c r="D201">
-        <v>19100</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="5">
-        <v>45247</v>
+        <v>45240</v>
       </c>
       <c r="B202" s="5">
-        <v>45253</v>
+        <v>45246</v>
       </c>
       <c r="C202">
-        <v>20050</v>
+        <v>19600</v>
       </c>
       <c r="D202">
-        <v>19450</v>
+        <v>19100</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="5">
-        <v>45254</v>
+        <v>45247</v>
       </c>
       <c r="B203" s="5">
-        <v>45260</v>
+        <v>45253</v>
       </c>
       <c r="C203">
-        <v>20100</v>
+        <v>20050</v>
       </c>
       <c r="D203">
-        <v>19600</v>
+        <v>19450</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="5">
-        <v>45261</v>
+        <v>45254</v>
       </c>
       <c r="B204" s="5">
-        <v>45267</v>
+        <v>45260</v>
       </c>
       <c r="C204">
-        <v>20600</v>
+        <v>20100</v>
       </c>
       <c r="D204">
-        <v>19900</v>
+        <v>19600</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="5">
-        <v>45268</v>
+        <v>45261</v>
       </c>
       <c r="B205" s="5">
-        <v>45274</v>
+        <v>45267</v>
       </c>
       <c r="C205">
-        <v>21300</v>
+        <v>20600</v>
       </c>
       <c r="D205">
-        <v>20650</v>
+        <v>19900</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="5">
-        <v>45275</v>
+        <v>45268</v>
       </c>
       <c r="B206" s="5">
-        <v>45281</v>
+        <v>45274</v>
       </c>
       <c r="C206">
-        <v>21650</v>
+        <v>21300</v>
       </c>
       <c r="D206">
-        <v>21000</v>
+        <v>20650</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="5">
-        <v>45282</v>
+        <v>45275</v>
       </c>
       <c r="B207" s="5">
-        <v>45288</v>
+        <v>45281</v>
       </c>
       <c r="C207">
-        <v>21700</v>
+        <v>21650</v>
       </c>
       <c r="D207">
-        <v>20900</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="5">
-        <v>45289</v>
+        <v>45282</v>
       </c>
       <c r="B208" s="5">
-        <v>45295</v>
+        <v>45288</v>
       </c>
       <c r="C208">
-        <v>22200</v>
+        <v>21700</v>
       </c>
       <c r="D208">
-        <v>21300</v>
+        <v>20900</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="5">
-        <v>45296</v>
+        <v>45289</v>
       </c>
       <c r="B209" s="5">
-        <v>45302</v>
+        <v>45295</v>
       </c>
       <c r="C209">
-        <v>22100</v>
+        <v>22200</v>
       </c>
       <c r="D209">
-        <v>21400</v>
+        <v>21300</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="5">
-        <v>45303</v>
+        <v>45296</v>
       </c>
       <c r="B210" s="5">
-        <v>45309</v>
+        <v>45302</v>
       </c>
       <c r="C210">
         <v>22100</v>
       </c>
       <c r="D210">
-        <v>21350</v>
+        <v>21400</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="5">
-        <v>45310</v>
+        <v>45303</v>
       </c>
       <c r="B211" s="5">
-        <v>45316</v>
+        <v>45309</v>
       </c>
       <c r="C211">
         <v>22100</v>
       </c>
       <c r="D211">
-        <v>21200</v>
+        <v>21350</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="5">
-        <v>45324</v>
+        <v>45310</v>
       </c>
       <c r="B212" s="5">
-        <v>45330</v>
+        <v>45316</v>
       </c>
       <c r="C212">
-        <v>22400</v>
+        <v>22100</v>
       </c>
       <c r="D212">
-        <v>21450</v>
+        <v>21200</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="5">
-        <v>45331</v>
+        <v>45324</v>
       </c>
       <c r="B213" s="5">
-        <v>45337</v>
+        <v>45330</v>
       </c>
       <c r="C213">
-        <v>22200</v>
+        <v>22400</v>
       </c>
       <c r="D213">
-        <v>21200</v>
+        <v>21450</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="5">
-        <v>45338</v>
+        <v>45331</v>
       </c>
       <c r="B214" s="5">
-        <v>45344</v>
+        <v>45337</v>
       </c>
       <c r="C214">
-        <v>22450</v>
+        <v>22200</v>
       </c>
       <c r="D214">
-        <v>21550</v>
+        <v>21200</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="5">
-        <v>45345</v>
+        <v>45338</v>
       </c>
       <c r="B215" s="5">
-        <v>45351</v>
+        <v>45344</v>
       </c>
       <c r="C215">
-        <v>22700</v>
+        <v>22450</v>
       </c>
       <c r="D215">
-        <v>21800</v>
+        <v>21550</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="5">
-        <v>45352</v>
+        <v>45345</v>
       </c>
       <c r="B216" s="5">
-        <v>45358</v>
+        <v>45351</v>
       </c>
       <c r="C216">
-        <v>22600</v>
+        <v>22700</v>
       </c>
       <c r="D216">
-        <v>21650</v>
+        <v>21800</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="5">
-        <v>45359</v>
+        <v>45352</v>
       </c>
       <c r="B217" s="5">
-        <v>45365</v>
-      </c>
-      <c r="C217" t="s">
-        <v>935</v>
-      </c>
-      <c r="D217" t="s">
-        <v>935</v>
+        <v>45358</v>
+      </c>
+      <c r="C217">
+        <v>22600</v>
+      </c>
+      <c r="D217">
+        <v>21650</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="5">
-        <v>45366</v>
+        <v>45359</v>
       </c>
       <c r="B218" s="5">
-        <v>45372</v>
-      </c>
-      <c r="C218">
-        <v>22550</v>
-      </c>
-      <c r="D218">
-        <v>21650</v>
+        <v>45365</v>
+      </c>
+      <c r="C218" t="s">
+        <v>935</v>
+      </c>
+      <c r="D218" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="5">
-        <v>45373</v>
+        <v>45366</v>
       </c>
       <c r="B219" s="5">
-        <v>45379</v>
+        <v>45372</v>
       </c>
       <c r="C219">
-        <v>22400</v>
+        <v>22550</v>
       </c>
       <c r="D219">
         <v>21650</v>
@@ -37183,156 +40412,184 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="5">
-        <v>45380</v>
+        <v>45373</v>
       </c>
       <c r="B220" s="5">
-        <v>45386</v>
-      </c>
-      <c r="C220" t="s">
-        <v>935</v>
-      </c>
-      <c r="D220" t="s">
-        <v>935</v>
+        <v>45379</v>
+      </c>
+      <c r="C220">
+        <v>22400</v>
+      </c>
+      <c r="D220">
+        <v>21650</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="5">
-        <v>45387</v>
+        <v>45380</v>
       </c>
       <c r="B221" s="5">
-        <v>45392</v>
-      </c>
-      <c r="C221">
-        <v>22850</v>
-      </c>
-      <c r="D221">
-        <v>22050</v>
+        <v>45386</v>
+      </c>
+      <c r="C221" t="s">
+        <v>935</v>
+      </c>
+      <c r="D221" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="5">
-        <v>45394</v>
+        <v>45387</v>
       </c>
       <c r="B222" s="5">
-        <v>45400</v>
+        <v>45392</v>
       </c>
       <c r="C222">
-        <v>23050</v>
+        <v>22850</v>
       </c>
       <c r="D222">
-        <v>22300</v>
+        <v>22050</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="5">
-        <v>45401</v>
+        <v>45394</v>
       </c>
       <c r="B223" s="5">
-        <v>45407</v>
+        <v>45400</v>
       </c>
       <c r="C223">
+        <v>23050</v>
+      </c>
+      <c r="D223">
         <v>22300</v>
-      </c>
-      <c r="D223">
-        <v>21250</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="5">
-        <v>45408</v>
+        <v>45401</v>
       </c>
       <c r="B224" s="5">
-        <v>45414</v>
+        <v>45407</v>
       </c>
       <c r="C224">
-        <v>22950</v>
+        <v>22300</v>
       </c>
       <c r="D224">
-        <v>22150</v>
+        <v>21250</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="5">
-        <v>45415</v>
+        <v>45408</v>
       </c>
       <c r="B225" s="5">
-        <v>45421</v>
+        <v>45414</v>
       </c>
       <c r="C225">
-        <v>23150</v>
+        <v>22950</v>
       </c>
       <c r="D225">
-        <v>22400</v>
+        <v>22150</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="5">
-        <v>45422</v>
+        <v>45415</v>
       </c>
       <c r="B226" s="5">
-        <v>45428</v>
+        <v>45421</v>
       </c>
       <c r="C226">
-        <v>22500</v>
+        <v>23150</v>
       </c>
       <c r="D226">
-        <v>21500</v>
+        <v>22400</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="5">
-        <v>45429</v>
+        <v>45422</v>
       </c>
       <c r="B227" s="5">
-        <v>45435</v>
+        <v>45428</v>
       </c>
       <c r="C227">
-        <v>22800</v>
+        <v>22500</v>
       </c>
       <c r="D227">
-        <v>21950</v>
+        <v>21500</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="5">
-        <v>45436</v>
+        <v>45429</v>
       </c>
       <c r="B228" s="5">
-        <v>45442</v>
+        <v>45435</v>
       </c>
       <c r="C228">
-        <v>23450</v>
+        <v>22800</v>
       </c>
       <c r="D228">
-        <v>22450</v>
+        <v>21950</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="5">
-        <v>45443</v>
+        <v>45436</v>
       </c>
       <c r="B229" s="5">
-        <v>45449</v>
+        <v>45442</v>
       </c>
       <c r="C229">
-        <v>23850</v>
+        <v>23450</v>
       </c>
       <c r="D229">
-        <v>21500</v>
+        <v>22450</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="5">
+        <v>45443</v>
+      </c>
+      <c r="B230" s="5">
+        <v>45449</v>
+      </c>
+      <c r="C230">
+        <v>23850</v>
+      </c>
+      <c r="D230">
+        <v>21500</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="5">
         <v>45450</v>
       </c>
-      <c r="B230" s="5">
+      <c r="B231" s="5">
         <v>45456</v>
       </c>
-      <c r="C230">
+      <c r="C231">
         <v>23450</v>
       </c>
-      <c r="D230">
+      <c r="D231">
         <v>22150</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="19">
+        <v>45464</v>
+      </c>
+      <c r="B232" s="19">
+        <v>45470</v>
+      </c>
+      <c r="C232" s="20">
+        <v>23950</v>
+      </c>
+      <c r="D232" s="20">
+        <v>23150</v>
       </c>
     </row>
   </sheetData>
